--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANGGI\alphanus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>Progress</t>
   </si>
@@ -147,6 +142,9 @@
   </si>
   <si>
     <t>Live</t>
+  </si>
+  <si>
+    <t>Fitur  X (Data Di Sesuaikan)</t>
   </si>
 </sst>
 </file>
@@ -439,7 +437,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -541,17 +539,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="14" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -559,8 +559,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,7 +726,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,7 +903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -892,13 +911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IF65"/>
+  <dimension ref="A1:IF70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="5" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BF25" sqref="BF25"/>
+      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1190,7 @@
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
       <c r="P4" s="22"/>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="69" t="s">
         <v>14</v>
       </c>
       <c r="R4" s="23"/>
@@ -1180,7 +1199,7 @@
       <c r="U4" s="24"/>
       <c r="V4" s="23"/>
       <c r="W4" s="22"/>
-      <c r="X4" s="75" t="s">
+      <c r="X4" s="69" t="s">
         <v>15</v>
       </c>
       <c r="Y4" s="24"/>
@@ -2329,15 +2348,15 @@
     <row r="7" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70" t="s">
+      <c r="D7" s="71"/>
+      <c r="E7" s="71" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="69">
+      <c r="G7" s="72">
         <v>0</v>
       </c>
       <c r="H7" s="60"/>
@@ -2576,11 +2595,11 @@
     <row r="8" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="52"/>
-      <c r="G8" s="69"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="60"/>
       <c r="I8" s="61"/>
       <c r="J8" s="61"/>
@@ -2817,15 +2836,15 @@
     <row r="9" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="48"/>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72" t="s">
+      <c r="D9" s="73"/>
+      <c r="E9" s="73" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="71">
+      <c r="G9" s="74">
         <v>0</v>
       </c>
       <c r="H9" s="60"/>
@@ -3064,11 +3083,11 @@
     <row r="10" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="51"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="60"/>
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
@@ -3305,15 +3324,15 @@
     <row r="11" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="71" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="52"/>
-      <c r="G11" s="69">
+      <c r="G11" s="72">
         <v>0</v>
       </c>
       <c r="H11" s="60"/>
@@ -3552,11 +3571,11 @@
     <row r="12" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="52"/>
-      <c r="G12" s="69"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
@@ -3793,15 +3812,15 @@
     <row r="13" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="48"/>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="73" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="51"/>
-      <c r="G13" s="71">
+      <c r="G13" s="74">
         <v>0</v>
       </c>
       <c r="H13" s="60"/>
@@ -4040,11 +4059,11 @@
     <row r="14" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="48"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="51"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="60"/>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
@@ -4281,15 +4300,15 @@
     <row r="15" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="71" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="52"/>
-      <c r="G15" s="69">
+      <c r="G15" s="72">
         <v>0</v>
       </c>
       <c r="H15" s="60"/>
@@ -4528,11 +4547,11 @@
     <row r="16" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="69"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="60"/>
       <c r="I16" s="61"/>
       <c r="J16" s="61"/>
@@ -4769,15 +4788,15 @@
     <row r="17" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="73" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="51"/>
-      <c r="G17" s="71">
+      <c r="G17" s="74">
         <v>1</v>
       </c>
       <c r="H17" s="60"/>
@@ -5016,11 +5035,11 @@
     <row r="18" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="51"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="74"/>
       <c r="H18" s="60"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -5292,7 +5311,7 @@
       <c r="AG19" s="67"/>
       <c r="AH19" s="66"/>
       <c r="AI19" s="66"/>
-      <c r="AJ19" s="76"/>
+      <c r="AJ19" s="70"/>
       <c r="AK19" s="61"/>
       <c r="AL19" s="61"/>
       <c r="AM19" s="61"/>
@@ -5501,13 +5520,13 @@
     <row r="20" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="70"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="69">
+      <c r="G20" s="72">
         <v>0</v>
       </c>
       <c r="H20" s="60"/>
@@ -5747,11 +5766,11 @@
     <row r="21" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="69"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="60"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -5780,7 +5799,7 @@
       <c r="AG21" s="67"/>
       <c r="AH21" s="66"/>
       <c r="AI21" s="66"/>
-      <c r="AJ21" s="76"/>
+      <c r="AJ21" s="70"/>
       <c r="AK21" s="66"/>
       <c r="AL21" s="66"/>
       <c r="AM21" s="66"/>
@@ -5989,13 +6008,13 @@
     <row r="22" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="72"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
-      <c r="G22" s="71">
+      <c r="G22" s="74">
         <v>0</v>
       </c>
       <c r="H22" s="60"/>
@@ -6235,11 +6254,11 @@
     <row r="23" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="71"/>
+      <c r="G23" s="74"/>
       <c r="H23" s="60"/>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
@@ -6268,7 +6287,7 @@
       <c r="AG23" s="67"/>
       <c r="AH23" s="66"/>
       <c r="AI23" s="66"/>
-      <c r="AJ23" s="76"/>
+      <c r="AJ23" s="70"/>
       <c r="AK23" s="66"/>
       <c r="AL23" s="66"/>
       <c r="AM23" s="66"/>
@@ -6475,17 +6494,15 @@
       <c r="IF23" s="10"/>
     </row>
     <row r="24" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="70" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="69">
-        <v>0</v>
-      </c>
+      <c r="D24" s="79"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="60"/>
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
@@ -6508,20 +6525,20 @@
       <c r="AA24" s="61"/>
       <c r="AB24" s="61"/>
       <c r="AC24" s="60"/>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="64"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="64"/>
-      <c r="AL24" s="64"/>
-      <c r="AM24" s="64"/>
-      <c r="AN24" s="64"/>
-      <c r="AO24" s="62"/>
-      <c r="AP24" s="64"/>
-      <c r="AQ24" s="62"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="67"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="67"/>
       <c r="AR24" s="61"/>
       <c r="AS24" s="61"/>
       <c r="AT24" s="61"/>
@@ -6723,11 +6740,13 @@
     <row r="25" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83" t="s">
+        <v>41</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="69"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="60"/>
       <c r="I25" s="61"/>
       <c r="J25" s="61"/>
@@ -6750,19 +6769,20 @@
       <c r="AA25" s="61"/>
       <c r="AB25" s="61"/>
       <c r="AC25" s="60"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="61"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="61"/>
-      <c r="AN25" s="61"/>
-      <c r="AO25" s="60"/>
-      <c r="AP25" s="61"/>
-      <c r="AQ25" s="60"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="70"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
+      <c r="AM25" s="66"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="67"/>
       <c r="AR25" s="61"/>
       <c r="AS25" s="61"/>
       <c r="AT25" s="61"/>
@@ -6961,16 +6981,14 @@
       <c r="IE25" s="10"/>
       <c r="IF25" s="10"/>
     </row>
-    <row r="26" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+    <row r="26" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="60"/>
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
@@ -6993,19 +7011,20 @@
       <c r="AA26" s="61"/>
       <c r="AB26" s="61"/>
       <c r="AC26" s="60"/>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="61"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="61"/>
-      <c r="AK26" s="61"/>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="61"/>
-      <c r="AN26" s="61"/>
-      <c r="AO26" s="60"/>
-      <c r="AP26" s="61"/>
-      <c r="AQ26" s="60"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
+      <c r="AM26" s="66"/>
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="67"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="67"/>
       <c r="AR26" s="61"/>
       <c r="AS26" s="61"/>
       <c r="AT26" s="61"/>
@@ -7205,15 +7224,15 @@
       <c r="IF26" s="10"/>
     </row>
     <row r="27" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="74"/>
       <c r="H27" s="60"/>
       <c r="I27" s="61"/>
       <c r="J27" s="61"/>
@@ -7236,19 +7255,20 @@
       <c r="AA27" s="61"/>
       <c r="AB27" s="61"/>
       <c r="AC27" s="60"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="61"/>
-      <c r="AN27" s="61"/>
-      <c r="AO27" s="60"/>
-      <c r="AP27" s="61"/>
-      <c r="AQ27" s="60"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="67"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="66"/>
+      <c r="AM27" s="66"/>
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="67"/>
+      <c r="AP27" s="66"/>
+      <c r="AQ27" s="67"/>
       <c r="AR27" s="61"/>
       <c r="AS27" s="61"/>
       <c r="AT27" s="61"/>
@@ -7450,15 +7470,11 @@
     <row r="28" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="48"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="72" t="s">
-        <v>33</v>
-      </c>
+      <c r="C28" s="77"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
-      <c r="G28" s="71">
-        <v>0</v>
-      </c>
+      <c r="G28" s="74"/>
       <c r="H28" s="60"/>
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
@@ -7481,12 +7497,13 @@
       <c r="AA28" s="61"/>
       <c r="AB28" s="61"/>
       <c r="AC28" s="60"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="70"/>
       <c r="AK28" s="66"/>
       <c r="AL28" s="66"/>
       <c r="AM28" s="66"/>
@@ -7494,13 +7511,13 @@
       <c r="AO28" s="67"/>
       <c r="AP28" s="66"/>
       <c r="AQ28" s="67"/>
-      <c r="AR28" s="64"/>
-      <c r="AS28" s="64"/>
-      <c r="AT28" s="64"/>
-      <c r="AU28" s="64"/>
-      <c r="AV28" s="64"/>
-      <c r="AW28" s="62"/>
-      <c r="AX28" s="64"/>
+      <c r="AR28" s="61"/>
+      <c r="AS28" s="61"/>
+      <c r="AT28" s="61"/>
+      <c r="AU28" s="61"/>
+      <c r="AV28" s="61"/>
+      <c r="AW28" s="60"/>
+      <c r="AX28" s="61"/>
       <c r="AY28" s="60"/>
       <c r="AZ28" s="61"/>
       <c r="BA28" s="61"/>
@@ -7693,13 +7710,17 @@
       <c r="IF28" s="10"/>
     </row>
     <row r="29" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="71"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="72">
+        <v>0</v>
+      </c>
       <c r="H29" s="60"/>
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
@@ -7727,14 +7748,15 @@
       <c r="AF29" s="61"/>
       <c r="AG29" s="60"/>
       <c r="AH29" s="61"/>
-      <c r="AI29" s="61"/>
-      <c r="AK29" s="61"/>
-      <c r="AL29" s="61"/>
-      <c r="AM29" s="61"/>
-      <c r="AN29" s="61"/>
-      <c r="AO29" s="60"/>
-      <c r="AP29" s="61"/>
-      <c r="AQ29" s="60"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="62"/>
       <c r="AR29" s="61"/>
       <c r="AS29" s="61"/>
       <c r="AT29" s="61"/>
@@ -7936,15 +7958,11 @@
     <row r="30" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="70" t="s">
-        <v>33</v>
-      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="69">
-        <v>0</v>
-      </c>
+      <c r="G30" s="72"/>
       <c r="H30" s="60"/>
       <c r="I30" s="61"/>
       <c r="J30" s="61"/>
@@ -7980,13 +7998,13 @@
       <c r="AO30" s="60"/>
       <c r="AP30" s="61"/>
       <c r="AQ30" s="60"/>
-      <c r="AR30" s="64"/>
-      <c r="AS30" s="64"/>
-      <c r="AT30" s="64"/>
-      <c r="AU30" s="64"/>
-      <c r="AV30" s="64"/>
-      <c r="AW30" s="62"/>
-      <c r="AX30" s="64"/>
+      <c r="AR30" s="61"/>
+      <c r="AS30" s="61"/>
+      <c r="AT30" s="61"/>
+      <c r="AU30" s="61"/>
+      <c r="AV30" s="61"/>
+      <c r="AW30" s="60"/>
+      <c r="AX30" s="61"/>
       <c r="AY30" s="60"/>
       <c r="AZ30" s="61"/>
       <c r="BA30" s="61"/>
@@ -8178,14 +8196,16 @@
       <c r="IE30" s="10"/>
       <c r="IF30" s="10"/>
     </row>
-    <row r="31" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="69"/>
+    <row r="31" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="60"/>
       <c r="I31" s="61"/>
       <c r="J31" s="61"/>
@@ -8420,17 +8440,15 @@
       <c r="IF31" s="10"/>
     </row>
     <row r="32" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="71">
-        <v>0</v>
-      </c>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="60"/>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
@@ -8473,13 +8491,13 @@
       <c r="AV32" s="61"/>
       <c r="AW32" s="60"/>
       <c r="AX32" s="61"/>
-      <c r="AY32" s="62"/>
-      <c r="AZ32" s="64"/>
-      <c r="BA32" s="64"/>
-      <c r="BB32" s="64"/>
-      <c r="BC32" s="64"/>
-      <c r="BD32" s="64"/>
-      <c r="BE32" s="62"/>
+      <c r="AY32" s="60"/>
+      <c r="AZ32" s="61"/>
+      <c r="BA32" s="61"/>
+      <c r="BB32" s="61"/>
+      <c r="BC32" s="61"/>
+      <c r="BD32" s="61"/>
+      <c r="BE32" s="60"/>
       <c r="BF32" s="61"/>
       <c r="BG32" s="60"/>
       <c r="BH32" s="61"/>
@@ -8668,10 +8686,14 @@
       <c r="A33" s="48"/>
       <c r="B33" s="48"/>
       <c r="C33" s="59"/>
-      <c r="D33" s="72"/>
+      <c r="D33" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
-      <c r="G33" s="71"/>
+      <c r="G33" s="74">
+        <v>0</v>
+      </c>
       <c r="H33" s="60"/>
       <c r="I33" s="61"/>
       <c r="J33" s="61"/>
@@ -8700,20 +8722,20 @@
       <c r="AG33" s="60"/>
       <c r="AH33" s="61"/>
       <c r="AI33" s="61"/>
-      <c r="AK33" s="61"/>
-      <c r="AL33" s="61"/>
-      <c r="AM33" s="61"/>
-      <c r="AN33" s="61"/>
-      <c r="AO33" s="60"/>
-      <c r="AP33" s="61"/>
-      <c r="AQ33" s="60"/>
-      <c r="AR33" s="61"/>
-      <c r="AS33" s="61"/>
-      <c r="AT33" s="61"/>
-      <c r="AU33" s="61"/>
-      <c r="AV33" s="61"/>
-      <c r="AW33" s="60"/>
-      <c r="AX33" s="61"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="66"/>
+      <c r="AM33" s="66"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="67"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="67"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+      <c r="AT33" s="64"/>
+      <c r="AU33" s="64"/>
+      <c r="AV33" s="64"/>
+      <c r="AW33" s="62"/>
+      <c r="AX33" s="64"/>
       <c r="AY33" s="60"/>
       <c r="AZ33" s="61"/>
       <c r="BA33" s="61"/>
@@ -8906,17 +8928,13 @@
       <c r="IF33" s="10"/>
     </row>
     <row r="34" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="69">
-        <v>0</v>
-      </c>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="74"/>
       <c r="H34" s="60"/>
       <c r="I34" s="61"/>
       <c r="J34" s="61"/>
@@ -8959,13 +8977,13 @@
       <c r="AV34" s="61"/>
       <c r="AW34" s="60"/>
       <c r="AX34" s="61"/>
-      <c r="AY34" s="62"/>
-      <c r="AZ34" s="64"/>
-      <c r="BA34" s="64"/>
-      <c r="BB34" s="64"/>
-      <c r="BC34" s="64"/>
-      <c r="BD34" s="64"/>
-      <c r="BE34" s="62"/>
+      <c r="AY34" s="60"/>
+      <c r="AZ34" s="61"/>
+      <c r="BA34" s="61"/>
+      <c r="BB34" s="61"/>
+      <c r="BC34" s="61"/>
+      <c r="BD34" s="61"/>
+      <c r="BE34" s="60"/>
       <c r="BF34" s="61"/>
       <c r="BG34" s="60"/>
       <c r="BH34" s="61"/>
@@ -9154,10 +9172,14 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="53"/>
-      <c r="D35" s="70"/>
+      <c r="D35" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="69"/>
+      <c r="G35" s="72">
+        <v>0</v>
+      </c>
       <c r="H35" s="60"/>
       <c r="I35" s="61"/>
       <c r="J35" s="61"/>
@@ -9193,13 +9215,13 @@
       <c r="AO35" s="60"/>
       <c r="AP35" s="61"/>
       <c r="AQ35" s="60"/>
-      <c r="AR35" s="61"/>
-      <c r="AS35" s="61"/>
-      <c r="AT35" s="61"/>
-      <c r="AU35" s="61"/>
-      <c r="AV35" s="61"/>
-      <c r="AW35" s="60"/>
-      <c r="AX35" s="61"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="64"/>
+      <c r="AU35" s="64"/>
+      <c r="AV35" s="64"/>
+      <c r="AW35" s="62"/>
+      <c r="AX35" s="64"/>
       <c r="AY35" s="60"/>
       <c r="AZ35" s="61"/>
       <c r="BA35" s="61"/>
@@ -9392,17 +9414,13 @@
       <c r="IF35" s="10"/>
     </row>
     <row r="36" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="71">
-        <v>0</v>
-      </c>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="72"/>
       <c r="H36" s="60"/>
       <c r="I36" s="61"/>
       <c r="J36" s="61"/>
@@ -9452,14 +9470,14 @@
       <c r="BC36" s="61"/>
       <c r="BD36" s="61"/>
       <c r="BE36" s="60"/>
-      <c r="BF36" s="64"/>
-      <c r="BG36" s="62"/>
-      <c r="BH36" s="64"/>
-      <c r="BI36" s="64"/>
-      <c r="BJ36" s="64"/>
-      <c r="BK36" s="64"/>
-      <c r="BL36" s="64"/>
-      <c r="BM36" s="62"/>
+      <c r="BF36" s="61"/>
+      <c r="BG36" s="60"/>
+      <c r="BH36" s="61"/>
+      <c r="BI36" s="61"/>
+      <c r="BJ36" s="61"/>
+      <c r="BK36" s="61"/>
+      <c r="BL36" s="61"/>
+      <c r="BM36" s="60"/>
       <c r="BN36" s="61"/>
       <c r="BO36" s="60"/>
       <c r="BP36" s="61"/>
@@ -9640,10 +9658,14 @@
       <c r="A37" s="48"/>
       <c r="B37" s="48"/>
       <c r="C37" s="59"/>
-      <c r="D37" s="72"/>
+      <c r="D37" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
-      <c r="G37" s="71"/>
+      <c r="G37" s="74">
+        <v>0</v>
+      </c>
       <c r="H37" s="60"/>
       <c r="I37" s="61"/>
       <c r="J37" s="61"/>
@@ -9686,13 +9708,13 @@
       <c r="AV37" s="61"/>
       <c r="AW37" s="60"/>
       <c r="AX37" s="61"/>
-      <c r="AY37" s="60"/>
-      <c r="AZ37" s="61"/>
-      <c r="BA37" s="61"/>
-      <c r="BB37" s="61"/>
-      <c r="BC37" s="61"/>
-      <c r="BD37" s="61"/>
-      <c r="BE37" s="60"/>
+      <c r="AY37" s="62"/>
+      <c r="AZ37" s="64"/>
+      <c r="BA37" s="64"/>
+      <c r="BB37" s="64"/>
+      <c r="BC37" s="64"/>
+      <c r="BD37" s="64"/>
+      <c r="BE37" s="62"/>
       <c r="BF37" s="61"/>
       <c r="BG37" s="60"/>
       <c r="BH37" s="61"/>
@@ -9878,17 +9900,13 @@
       <c r="IF37" s="10"/>
     </row>
     <row r="38" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="69">
-        <v>0</v>
-      </c>
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="74"/>
       <c r="H38" s="60"/>
       <c r="I38" s="61"/>
       <c r="J38" s="61"/>
@@ -9938,14 +9956,14 @@
       <c r="BC38" s="61"/>
       <c r="BD38" s="61"/>
       <c r="BE38" s="60"/>
-      <c r="BF38" s="64"/>
-      <c r="BG38" s="62"/>
-      <c r="BH38" s="64"/>
-      <c r="BI38" s="64"/>
-      <c r="BJ38" s="64"/>
-      <c r="BK38" s="64"/>
-      <c r="BL38" s="64"/>
-      <c r="BM38" s="62"/>
+      <c r="BF38" s="61"/>
+      <c r="BG38" s="60"/>
+      <c r="BH38" s="61"/>
+      <c r="BI38" s="61"/>
+      <c r="BJ38" s="61"/>
+      <c r="BK38" s="61"/>
+      <c r="BL38" s="61"/>
+      <c r="BM38" s="60"/>
       <c r="BN38" s="61"/>
       <c r="BO38" s="60"/>
       <c r="BP38" s="61"/>
@@ -10126,10 +10144,14 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="53"/>
-      <c r="D39" s="70"/>
+      <c r="D39" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="69"/>
+      <c r="G39" s="72">
+        <v>0</v>
+      </c>
       <c r="H39" s="60"/>
       <c r="I39" s="61"/>
       <c r="J39" s="61"/>
@@ -10172,13 +10194,13 @@
       <c r="AV39" s="61"/>
       <c r="AW39" s="60"/>
       <c r="AX39" s="61"/>
-      <c r="AY39" s="60"/>
-      <c r="AZ39" s="61"/>
-      <c r="BA39" s="61"/>
-      <c r="BB39" s="61"/>
-      <c r="BC39" s="61"/>
-      <c r="BD39" s="61"/>
-      <c r="BE39" s="60"/>
+      <c r="AY39" s="62"/>
+      <c r="AZ39" s="64"/>
+      <c r="BA39" s="64"/>
+      <c r="BB39" s="64"/>
+      <c r="BC39" s="64"/>
+      <c r="BD39" s="64"/>
+      <c r="BE39" s="62"/>
       <c r="BF39" s="61"/>
       <c r="BG39" s="60"/>
       <c r="BH39" s="61"/>
@@ -10364,17 +10386,13 @@
       <c r="IF39" s="10"/>
     </row>
     <row r="40" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="71">
-        <v>0</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="72"/>
       <c r="H40" s="60"/>
       <c r="I40" s="61"/>
       <c r="J40" s="61"/>
@@ -10432,12 +10450,12 @@
       <c r="BK40" s="61"/>
       <c r="BL40" s="61"/>
       <c r="BM40" s="60"/>
-      <c r="BN40" s="64"/>
-      <c r="BO40" s="62"/>
-      <c r="BP40" s="64"/>
-      <c r="BQ40" s="64"/>
-      <c r="BR40" s="64"/>
-      <c r="BS40" s="64"/>
+      <c r="BN40" s="61"/>
+      <c r="BO40" s="60"/>
+      <c r="BP40" s="61"/>
+      <c r="BQ40" s="61"/>
+      <c r="BR40" s="61"/>
+      <c r="BS40" s="61"/>
       <c r="BT40" s="61"/>
       <c r="BU40" s="60"/>
       <c r="BV40" s="61"/>
@@ -10612,10 +10630,14 @@
       <c r="A41" s="48"/>
       <c r="B41" s="48"/>
       <c r="C41" s="59"/>
-      <c r="D41" s="72"/>
+      <c r="D41" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
-      <c r="G41" s="71"/>
+      <c r="G41" s="74">
+        <v>0</v>
+      </c>
       <c r="H41" s="60"/>
       <c r="I41" s="61"/>
       <c r="J41" s="61"/>
@@ -10665,14 +10687,14 @@
       <c r="BC41" s="61"/>
       <c r="BD41" s="61"/>
       <c r="BE41" s="60"/>
-      <c r="BF41" s="61"/>
-      <c r="BG41" s="60"/>
-      <c r="BH41" s="61"/>
-      <c r="BI41" s="61"/>
-      <c r="BJ41" s="61"/>
-      <c r="BK41" s="61"/>
-      <c r="BL41" s="61"/>
-      <c r="BM41" s="60"/>
+      <c r="BF41" s="64"/>
+      <c r="BG41" s="62"/>
+      <c r="BH41" s="64"/>
+      <c r="BI41" s="64"/>
+      <c r="BJ41" s="64"/>
+      <c r="BK41" s="64"/>
+      <c r="BL41" s="64"/>
+      <c r="BM41" s="62"/>
       <c r="BN41" s="61"/>
       <c r="BO41" s="60"/>
       <c r="BP41" s="61"/>
@@ -10850,17 +10872,13 @@
       <c r="IF41" s="10"/>
     </row>
     <row r="42" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="69">
-        <v>0</v>
-      </c>
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="60"/>
       <c r="I42" s="61"/>
       <c r="J42" s="61"/>
@@ -10918,12 +10936,12 @@
       <c r="BK42" s="61"/>
       <c r="BL42" s="61"/>
       <c r="BM42" s="60"/>
-      <c r="BN42" s="64"/>
-      <c r="BO42" s="62"/>
-      <c r="BP42" s="64"/>
-      <c r="BQ42" s="64"/>
-      <c r="BR42" s="64"/>
-      <c r="BS42" s="64"/>
+      <c r="BN42" s="61"/>
+      <c r="BO42" s="60"/>
+      <c r="BP42" s="61"/>
+      <c r="BQ42" s="61"/>
+      <c r="BR42" s="61"/>
+      <c r="BS42" s="61"/>
       <c r="BT42" s="61"/>
       <c r="BU42" s="60"/>
       <c r="BV42" s="61"/>
@@ -11098,10 +11116,14 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="53"/>
-      <c r="D43" s="70"/>
+      <c r="D43" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="69"/>
+      <c r="G43" s="72">
+        <v>0</v>
+      </c>
       <c r="H43" s="60"/>
       <c r="I43" s="61"/>
       <c r="J43" s="61"/>
@@ -11151,14 +11173,14 @@
       <c r="BC43" s="61"/>
       <c r="BD43" s="61"/>
       <c r="BE43" s="60"/>
-      <c r="BF43" s="61"/>
-      <c r="BG43" s="60"/>
-      <c r="BH43" s="61"/>
-      <c r="BI43" s="61"/>
-      <c r="BJ43" s="61"/>
-      <c r="BK43" s="61"/>
-      <c r="BL43" s="61"/>
-      <c r="BM43" s="60"/>
+      <c r="BF43" s="64"/>
+      <c r="BG43" s="62"/>
+      <c r="BH43" s="64"/>
+      <c r="BI43" s="64"/>
+      <c r="BJ43" s="64"/>
+      <c r="BK43" s="64"/>
+      <c r="BL43" s="64"/>
+      <c r="BM43" s="62"/>
       <c r="BN43" s="61"/>
       <c r="BO43" s="60"/>
       <c r="BP43" s="61"/>
@@ -11336,17 +11358,13 @@
       <c r="IF43" s="10"/>
     </row>
     <row r="44" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="71">
-        <v>0</v>
-      </c>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="72"/>
       <c r="H44" s="60"/>
       <c r="I44" s="61"/>
       <c r="J44" s="61"/>
@@ -11410,13 +11428,13 @@
       <c r="BQ44" s="61"/>
       <c r="BR44" s="61"/>
       <c r="BS44" s="61"/>
-      <c r="BT44" s="64"/>
-      <c r="BU44" s="62"/>
-      <c r="BV44" s="64"/>
-      <c r="BW44" s="62"/>
-      <c r="BX44" s="64"/>
-      <c r="BY44" s="64"/>
-      <c r="BZ44" s="64"/>
+      <c r="BT44" s="61"/>
+      <c r="BU44" s="60"/>
+      <c r="BV44" s="61"/>
+      <c r="BW44" s="60"/>
+      <c r="BX44" s="61"/>
+      <c r="BY44" s="61"/>
+      <c r="BZ44" s="61"/>
       <c r="CA44" s="61"/>
       <c r="CB44" s="61"/>
       <c r="CC44" s="60"/>
@@ -11584,10 +11602,14 @@
       <c r="A45" s="48"/>
       <c r="B45" s="48"/>
       <c r="C45" s="59"/>
-      <c r="D45" s="72"/>
+      <c r="D45" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="E45" s="48"/>
       <c r="F45" s="48"/>
-      <c r="G45" s="71"/>
+      <c r="G45" s="74">
+        <v>0</v>
+      </c>
       <c r="H45" s="60"/>
       <c r="I45" s="61"/>
       <c r="J45" s="61"/>
@@ -11645,12 +11667,12 @@
       <c r="BK45" s="61"/>
       <c r="BL45" s="61"/>
       <c r="BM45" s="60"/>
-      <c r="BN45" s="61"/>
-      <c r="BO45" s="60"/>
-      <c r="BP45" s="61"/>
-      <c r="BQ45" s="61"/>
-      <c r="BR45" s="61"/>
-      <c r="BS45" s="61"/>
+      <c r="BN45" s="64"/>
+      <c r="BO45" s="62"/>
+      <c r="BP45" s="64"/>
+      <c r="BQ45" s="64"/>
+      <c r="BR45" s="64"/>
+      <c r="BS45" s="64"/>
       <c r="BT45" s="61"/>
       <c r="BU45" s="60"/>
       <c r="BV45" s="61"/>
@@ -11822,17 +11844,13 @@
       <c r="IF45" s="10"/>
     </row>
     <row r="46" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="69">
-        <v>0</v>
-      </c>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="74"/>
       <c r="H46" s="60"/>
       <c r="I46" s="61"/>
       <c r="J46" s="61"/>
@@ -11896,13 +11914,13 @@
       <c r="BQ46" s="61"/>
       <c r="BR46" s="61"/>
       <c r="BS46" s="61"/>
-      <c r="BT46" s="64"/>
-      <c r="BU46" s="62"/>
-      <c r="BV46" s="64"/>
-      <c r="BW46" s="62"/>
-      <c r="BX46" s="64"/>
-      <c r="BY46" s="64"/>
-      <c r="BZ46" s="64"/>
+      <c r="BT46" s="61"/>
+      <c r="BU46" s="60"/>
+      <c r="BV46" s="61"/>
+      <c r="BW46" s="60"/>
+      <c r="BX46" s="61"/>
+      <c r="BY46" s="61"/>
+      <c r="BZ46" s="61"/>
       <c r="CA46" s="61"/>
       <c r="CB46" s="61"/>
       <c r="CC46" s="60"/>
@@ -12070,10 +12088,14 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="53"/>
-      <c r="D47" s="70"/>
+      <c r="D47" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="69"/>
+      <c r="G47" s="72">
+        <v>0</v>
+      </c>
       <c r="H47" s="60"/>
       <c r="I47" s="61"/>
       <c r="J47" s="61"/>
@@ -12131,12 +12153,12 @@
       <c r="BK47" s="61"/>
       <c r="BL47" s="61"/>
       <c r="BM47" s="60"/>
-      <c r="BN47" s="61"/>
-      <c r="BO47" s="60"/>
-      <c r="BP47" s="61"/>
-      <c r="BQ47" s="61"/>
-      <c r="BR47" s="61"/>
-      <c r="BS47" s="61"/>
+      <c r="BN47" s="64"/>
+      <c r="BO47" s="62"/>
+      <c r="BP47" s="64"/>
+      <c r="BQ47" s="64"/>
+      <c r="BR47" s="64"/>
+      <c r="BS47" s="64"/>
       <c r="BT47" s="61"/>
       <c r="BU47" s="60"/>
       <c r="BV47" s="61"/>
@@ -12308,17 +12330,13 @@
       <c r="IF47" s="10"/>
     </row>
     <row r="48" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="72"/>
       <c r="H48" s="60"/>
       <c r="I48" s="61"/>
       <c r="J48" s="61"/>
@@ -12389,13 +12407,13 @@
       <c r="BX48" s="61"/>
       <c r="BY48" s="61"/>
       <c r="BZ48" s="61"/>
-      <c r="CA48" s="64"/>
-      <c r="CB48" s="64"/>
-      <c r="CC48" s="62"/>
-      <c r="CD48" s="64"/>
-      <c r="CE48" s="62"/>
-      <c r="CF48" s="64"/>
-      <c r="CG48" s="64"/>
+      <c r="CA48" s="61"/>
+      <c r="CB48" s="61"/>
+      <c r="CC48" s="60"/>
+      <c r="CD48" s="61"/>
+      <c r="CE48" s="60"/>
+      <c r="CF48" s="61"/>
+      <c r="CG48" s="61"/>
       <c r="CH48" s="61"/>
       <c r="CI48" s="61"/>
       <c r="CJ48" s="60"/>
@@ -12556,10 +12574,14 @@
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
       <c r="C49" s="59"/>
-      <c r="D49" s="72"/>
+      <c r="D49" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
-      <c r="G49" s="71"/>
+      <c r="G49" s="74">
+        <v>0</v>
+      </c>
       <c r="H49" s="60"/>
       <c r="I49" s="61"/>
       <c r="J49" s="61"/>
@@ -12623,13 +12645,13 @@
       <c r="BQ49" s="61"/>
       <c r="BR49" s="61"/>
       <c r="BS49" s="61"/>
-      <c r="BT49" s="61"/>
-      <c r="BU49" s="60"/>
-      <c r="BV49" s="61"/>
-      <c r="BW49" s="60"/>
-      <c r="BX49" s="61"/>
-      <c r="BY49" s="61"/>
-      <c r="BZ49" s="61"/>
+      <c r="BT49" s="64"/>
+      <c r="BU49" s="62"/>
+      <c r="BV49" s="64"/>
+      <c r="BW49" s="62"/>
+      <c r="BX49" s="64"/>
+      <c r="BY49" s="64"/>
+      <c r="BZ49" s="64"/>
       <c r="CA49" s="61"/>
       <c r="CB49" s="61"/>
       <c r="CC49" s="60"/>
@@ -12794,17 +12816,13 @@
       <c r="IF49" s="10"/>
     </row>
     <row r="50" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="69">
-        <v>0</v>
-      </c>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="74"/>
       <c r="H50" s="60"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -12875,13 +12893,13 @@
       <c r="BX50" s="61"/>
       <c r="BY50" s="61"/>
       <c r="BZ50" s="61"/>
-      <c r="CA50" s="64"/>
-      <c r="CB50" s="64"/>
-      <c r="CC50" s="62"/>
-      <c r="CD50" s="64"/>
-      <c r="CE50" s="62"/>
-      <c r="CF50" s="64"/>
-      <c r="CG50" s="64"/>
+      <c r="CA50" s="61"/>
+      <c r="CB50" s="61"/>
+      <c r="CC50" s="60"/>
+      <c r="CD50" s="61"/>
+      <c r="CE50" s="60"/>
+      <c r="CF50" s="61"/>
+      <c r="CG50" s="61"/>
       <c r="CH50" s="61"/>
       <c r="CI50" s="61"/>
       <c r="CJ50" s="60"/>
@@ -13042,10 +13060,14 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="53"/>
-      <c r="D51" s="70"/>
+      <c r="D51" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="69"/>
+      <c r="G51" s="72">
+        <v>0</v>
+      </c>
       <c r="H51" s="60"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -13109,13 +13131,13 @@
       <c r="BQ51" s="61"/>
       <c r="BR51" s="61"/>
       <c r="BS51" s="61"/>
-      <c r="BT51" s="61"/>
-      <c r="BU51" s="60"/>
-      <c r="BV51" s="61"/>
-      <c r="BW51" s="60"/>
-      <c r="BX51" s="61"/>
-      <c r="BY51" s="61"/>
-      <c r="BZ51" s="61"/>
+      <c r="BT51" s="64"/>
+      <c r="BU51" s="62"/>
+      <c r="BV51" s="64"/>
+      <c r="BW51" s="62"/>
+      <c r="BX51" s="64"/>
+      <c r="BY51" s="64"/>
+      <c r="BZ51" s="64"/>
       <c r="CA51" s="61"/>
       <c r="CB51" s="61"/>
       <c r="CC51" s="60"/>
@@ -13280,17 +13302,13 @@
       <c r="IF51" s="10"/>
     </row>
     <row r="52" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="71">
-        <v>0</v>
-      </c>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="72"/>
       <c r="H52" s="60"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -13368,13 +13386,13 @@
       <c r="CE52" s="60"/>
       <c r="CF52" s="61"/>
       <c r="CG52" s="61"/>
-      <c r="CH52" s="64"/>
-      <c r="CI52" s="64"/>
-      <c r="CJ52" s="62"/>
-      <c r="CK52" s="64"/>
-      <c r="CL52" s="62"/>
-      <c r="CM52" s="64"/>
-      <c r="CN52" s="64"/>
+      <c r="CH52" s="61"/>
+      <c r="CI52" s="61"/>
+      <c r="CJ52" s="60"/>
+      <c r="CK52" s="61"/>
+      <c r="CL52" s="60"/>
+      <c r="CM52" s="61"/>
+      <c r="CN52" s="61"/>
       <c r="CO52" s="61"/>
       <c r="CP52" s="61"/>
       <c r="CQ52" s="61"/>
@@ -13528,10 +13546,14 @@
       <c r="A53" s="48"/>
       <c r="B53" s="48"/>
       <c r="C53" s="59"/>
-      <c r="D53" s="72"/>
+      <c r="D53" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
-      <c r="G53" s="71"/>
+      <c r="G53" s="74">
+        <v>0</v>
+      </c>
       <c r="H53" s="60"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
@@ -13602,13 +13624,13 @@
       <c r="BX53" s="61"/>
       <c r="BY53" s="61"/>
       <c r="BZ53" s="61"/>
-      <c r="CA53" s="61"/>
-      <c r="CB53" s="61"/>
-      <c r="CC53" s="60"/>
-      <c r="CD53" s="61"/>
-      <c r="CE53" s="60"/>
-      <c r="CF53" s="61"/>
-      <c r="CG53" s="61"/>
+      <c r="CA53" s="64"/>
+      <c r="CB53" s="64"/>
+      <c r="CC53" s="62"/>
+      <c r="CD53" s="64"/>
+      <c r="CE53" s="62"/>
+      <c r="CF53" s="64"/>
+      <c r="CG53" s="64"/>
       <c r="CH53" s="61"/>
       <c r="CI53" s="61"/>
       <c r="CJ53" s="60"/>
@@ -13766,17 +13788,13 @@
       <c r="IF53" s="10"/>
     </row>
     <row r="54" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="69">
-        <v>0</v>
-      </c>
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="74"/>
       <c r="H54" s="60"/>
       <c r="I54" s="61"/>
       <c r="J54" s="61"/>
@@ -13854,20 +13872,20 @@
       <c r="CE54" s="60"/>
       <c r="CF54" s="61"/>
       <c r="CG54" s="61"/>
-      <c r="CH54" s="64"/>
-      <c r="CI54" s="64"/>
-      <c r="CJ54" s="62"/>
-      <c r="CK54" s="64"/>
-      <c r="CL54" s="62"/>
-      <c r="CM54" s="64"/>
-      <c r="CN54" s="64"/>
-      <c r="CO54" s="64"/>
-      <c r="CP54" s="64"/>
-      <c r="CQ54" s="64"/>
-      <c r="CR54" s="62"/>
-      <c r="CS54" s="64"/>
-      <c r="CT54" s="62"/>
-      <c r="CU54" s="64"/>
+      <c r="CH54" s="61"/>
+      <c r="CI54" s="61"/>
+      <c r="CJ54" s="60"/>
+      <c r="CK54" s="61"/>
+      <c r="CL54" s="60"/>
+      <c r="CM54" s="61"/>
+      <c r="CN54" s="61"/>
+      <c r="CO54" s="61"/>
+      <c r="CP54" s="61"/>
+      <c r="CQ54" s="61"/>
+      <c r="CR54" s="60"/>
+      <c r="CS54" s="61"/>
+      <c r="CT54" s="60"/>
+      <c r="CU54" s="61"/>
       <c r="CV54" s="61"/>
       <c r="CW54" s="61"/>
       <c r="CX54" s="61"/>
@@ -14013,11 +14031,15 @@
     <row r="55" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="71" t="s">
+        <v>33</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="69"/>
+      <c r="G55" s="72">
+        <v>0</v>
+      </c>
       <c r="H55" s="60"/>
       <c r="I55" s="61"/>
       <c r="J55" s="61"/>
@@ -14088,27 +14110,27 @@
       <c r="BX55" s="61"/>
       <c r="BY55" s="61"/>
       <c r="BZ55" s="61"/>
-      <c r="CA55" s="61"/>
-      <c r="CB55" s="61"/>
-      <c r="CC55" s="60"/>
-      <c r="CD55" s="61"/>
-      <c r="CE55" s="60"/>
-      <c r="CF55" s="61"/>
-      <c r="CG55" s="61"/>
-      <c r="CH55" s="66"/>
-      <c r="CI55" s="66"/>
-      <c r="CJ55" s="67"/>
-      <c r="CK55" s="66"/>
-      <c r="CL55" s="67"/>
-      <c r="CM55" s="66"/>
-      <c r="CN55" s="66"/>
-      <c r="CO55" s="66"/>
-      <c r="CP55" s="66"/>
-      <c r="CQ55" s="66"/>
-      <c r="CR55" s="67"/>
-      <c r="CS55" s="66"/>
-      <c r="CT55" s="67"/>
-      <c r="CU55" s="66"/>
+      <c r="CA55" s="64"/>
+      <c r="CB55" s="64"/>
+      <c r="CC55" s="62"/>
+      <c r="CD55" s="64"/>
+      <c r="CE55" s="62"/>
+      <c r="CF55" s="64"/>
+      <c r="CG55" s="64"/>
+      <c r="CH55" s="61"/>
+      <c r="CI55" s="61"/>
+      <c r="CJ55" s="60"/>
+      <c r="CK55" s="61"/>
+      <c r="CL55" s="60"/>
+      <c r="CM55" s="61"/>
+      <c r="CN55" s="61"/>
+      <c r="CO55" s="61"/>
+      <c r="CP55" s="61"/>
+      <c r="CQ55" s="61"/>
+      <c r="CR55" s="60"/>
+      <c r="CS55" s="61"/>
+      <c r="CT55" s="60"/>
+      <c r="CU55" s="61"/>
       <c r="CV55" s="61"/>
       <c r="CW55" s="61"/>
       <c r="CX55" s="61"/>
@@ -14252,17 +14274,13 @@
       <c r="IF55" s="10"/>
     </row>
     <row r="56" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="71">
-        <v>0</v>
-      </c>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="72"/>
       <c r="H56" s="60"/>
       <c r="I56" s="61"/>
       <c r="J56" s="61"/>
@@ -14354,19 +14372,19 @@
       <c r="CS56" s="61"/>
       <c r="CT56" s="60"/>
       <c r="CU56" s="61"/>
-      <c r="CV56" s="64"/>
-      <c r="CW56" s="64"/>
-      <c r="CX56" s="64"/>
-      <c r="CY56" s="64"/>
-      <c r="CZ56" s="62"/>
-      <c r="DA56" s="64"/>
-      <c r="DB56" s="62"/>
-      <c r="DC56" s="64"/>
-      <c r="DD56" s="64"/>
-      <c r="DE56" s="64"/>
-      <c r="DF56" s="64"/>
-      <c r="DG56" s="64"/>
-      <c r="DH56" s="62"/>
+      <c r="CV56" s="61"/>
+      <c r="CW56" s="61"/>
+      <c r="CX56" s="61"/>
+      <c r="CY56" s="61"/>
+      <c r="CZ56" s="60"/>
+      <c r="DA56" s="61"/>
+      <c r="DB56" s="60"/>
+      <c r="DC56" s="61"/>
+      <c r="DD56" s="61"/>
+      <c r="DE56" s="61"/>
+      <c r="DF56" s="61"/>
+      <c r="DG56" s="61"/>
+      <c r="DH56" s="60"/>
       <c r="DI56" s="61"/>
       <c r="DJ56" s="60"/>
       <c r="DK56" s="61"/>
@@ -14499,11 +14517,15 @@
     <row r="57" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="E57" s="48"/>
       <c r="F57" s="48"/>
-      <c r="G57" s="71"/>
+      <c r="G57" s="74">
+        <v>0</v>
+      </c>
       <c r="H57" s="60"/>
       <c r="I57" s="61"/>
       <c r="J57" s="61"/>
@@ -14581,13 +14603,13 @@
       <c r="CE57" s="60"/>
       <c r="CF57" s="61"/>
       <c r="CG57" s="61"/>
-      <c r="CH57" s="61"/>
-      <c r="CI57" s="61"/>
-      <c r="CJ57" s="60"/>
-      <c r="CK57" s="61"/>
-      <c r="CL57" s="60"/>
-      <c r="CM57" s="61"/>
-      <c r="CN57" s="61"/>
+      <c r="CH57" s="64"/>
+      <c r="CI57" s="64"/>
+      <c r="CJ57" s="62"/>
+      <c r="CK57" s="64"/>
+      <c r="CL57" s="62"/>
+      <c r="CM57" s="64"/>
+      <c r="CN57" s="64"/>
       <c r="CO57" s="61"/>
       <c r="CP57" s="61"/>
       <c r="CQ57" s="61"/>
@@ -14737,16 +14759,14 @@
       <c r="IE57" s="10"/>
       <c r="IF57" s="10"/>
     </row>
-    <row r="58" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+    <row r="58" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="74"/>
       <c r="H58" s="60"/>
       <c r="I58" s="61"/>
       <c r="J58" s="61"/>
@@ -14983,13 +15003,13 @@
     <row r="59" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="70"/>
+      <c r="C59" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="76"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="69">
+      <c r="G59" s="72">
         <v>0</v>
       </c>
       <c r="H59" s="60"/>
@@ -15069,20 +15089,20 @@
       <c r="CE59" s="60"/>
       <c r="CF59" s="61"/>
       <c r="CG59" s="61"/>
-      <c r="CH59" s="61"/>
-      <c r="CI59" s="61"/>
-      <c r="CJ59" s="60"/>
-      <c r="CK59" s="61"/>
-      <c r="CL59" s="60"/>
-      <c r="CM59" s="61"/>
-      <c r="CN59" s="61"/>
-      <c r="CO59" s="61"/>
-      <c r="CP59" s="61"/>
-      <c r="CQ59" s="61"/>
-      <c r="CR59" s="60"/>
-      <c r="CS59" s="61"/>
-      <c r="CT59" s="60"/>
-      <c r="CU59" s="61"/>
+      <c r="CH59" s="64"/>
+      <c r="CI59" s="64"/>
+      <c r="CJ59" s="62"/>
+      <c r="CK59" s="64"/>
+      <c r="CL59" s="62"/>
+      <c r="CM59" s="64"/>
+      <c r="CN59" s="64"/>
+      <c r="CO59" s="64"/>
+      <c r="CP59" s="64"/>
+      <c r="CQ59" s="64"/>
+      <c r="CR59" s="62"/>
+      <c r="CS59" s="64"/>
+      <c r="CT59" s="62"/>
+      <c r="CU59" s="64"/>
       <c r="CV59" s="61"/>
       <c r="CW59" s="61"/>
       <c r="CX59" s="61"/>
@@ -15228,11 +15248,11 @@
     <row r="60" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="69"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="60"/>
       <c r="I60" s="61"/>
       <c r="J60" s="61"/>
@@ -15310,20 +15330,20 @@
       <c r="CE60" s="60"/>
       <c r="CF60" s="61"/>
       <c r="CG60" s="61"/>
-      <c r="CH60" s="61"/>
-      <c r="CI60" s="61"/>
-      <c r="CJ60" s="60"/>
-      <c r="CK60" s="61"/>
-      <c r="CL60" s="60"/>
-      <c r="CM60" s="61"/>
-      <c r="CN60" s="61"/>
-      <c r="CO60" s="61"/>
-      <c r="CP60" s="61"/>
-      <c r="CQ60" s="61"/>
-      <c r="CR60" s="60"/>
-      <c r="CS60" s="61"/>
-      <c r="CT60" s="60"/>
-      <c r="CU60" s="61"/>
+      <c r="CH60" s="66"/>
+      <c r="CI60" s="66"/>
+      <c r="CJ60" s="67"/>
+      <c r="CK60" s="66"/>
+      <c r="CL60" s="67"/>
+      <c r="CM60" s="66"/>
+      <c r="CN60" s="66"/>
+      <c r="CO60" s="66"/>
+      <c r="CP60" s="66"/>
+      <c r="CQ60" s="66"/>
+      <c r="CR60" s="67"/>
+      <c r="CS60" s="66"/>
+      <c r="CT60" s="67"/>
+      <c r="CU60" s="66"/>
       <c r="CV60" s="61"/>
       <c r="CW60" s="61"/>
       <c r="CX60" s="61"/>
@@ -15469,13 +15489,13 @@
     <row r="61" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
-      <c r="C61" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="72"/>
+      <c r="C61" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="75"/>
       <c r="E61" s="48"/>
       <c r="F61" s="48"/>
-      <c r="G61" s="71">
+      <c r="G61" s="74">
         <v>0</v>
       </c>
       <c r="H61" s="60"/>
@@ -15569,19 +15589,19 @@
       <c r="CS61" s="61"/>
       <c r="CT61" s="60"/>
       <c r="CU61" s="61"/>
-      <c r="CV61" s="61"/>
-      <c r="CW61" s="61"/>
-      <c r="CX61" s="61"/>
-      <c r="CY61" s="61"/>
-      <c r="CZ61" s="60"/>
-      <c r="DA61" s="61"/>
-      <c r="DB61" s="60"/>
-      <c r="DC61" s="61"/>
-      <c r="DD61" s="61"/>
-      <c r="DE61" s="61"/>
-      <c r="DF61" s="61"/>
-      <c r="DG61" s="61"/>
-      <c r="DH61" s="60"/>
+      <c r="CV61" s="64"/>
+      <c r="CW61" s="64"/>
+      <c r="CX61" s="64"/>
+      <c r="CY61" s="64"/>
+      <c r="CZ61" s="62"/>
+      <c r="DA61" s="64"/>
+      <c r="DB61" s="62"/>
+      <c r="DC61" s="64"/>
+      <c r="DD61" s="64"/>
+      <c r="DE61" s="64"/>
+      <c r="DF61" s="64"/>
+      <c r="DG61" s="64"/>
+      <c r="DH61" s="62"/>
       <c r="DI61" s="61"/>
       <c r="DJ61" s="60"/>
       <c r="DK61" s="61"/>
@@ -15714,11 +15734,11 @@
     <row r="62" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="48"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
       <c r="E62" s="48"/>
       <c r="F62" s="48"/>
-      <c r="G62" s="71"/>
+      <c r="G62" s="74"/>
       <c r="H62" s="60"/>
       <c r="I62" s="61"/>
       <c r="J62" s="61"/>
@@ -15955,7 +15975,7 @@
     <row r="63" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C63" s="56"/>
       <c r="D63" s="56"/>
@@ -16198,13 +16218,13 @@
     <row r="64" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="70"/>
+      <c r="C64" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="71"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="69">
+      <c r="G64" s="72">
         <v>0</v>
       </c>
       <c r="H64" s="60"/>
@@ -16443,11 +16463,11 @@
     <row r="65" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="69"/>
+      <c r="G65" s="72"/>
       <c r="H65" s="60"/>
       <c r="I65" s="61"/>
       <c r="J65" s="61"/>
@@ -16681,68 +16701,1287 @@
       <c r="IE65" s="10"/>
       <c r="IF65" s="10"/>
     </row>
+    <row r="66" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A66" s="48"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="73"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="74">
+        <v>0</v>
+      </c>
+      <c r="H66" s="60"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="60"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="60"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="60"/>
+      <c r="X66" s="61"/>
+      <c r="Y66" s="61"/>
+      <c r="Z66" s="61"/>
+      <c r="AA66" s="61"/>
+      <c r="AB66" s="61"/>
+      <c r="AC66" s="60"/>
+      <c r="AD66" s="61"/>
+      <c r="AE66" s="60"/>
+      <c r="AF66" s="61"/>
+      <c r="AG66" s="60"/>
+      <c r="AH66" s="61"/>
+      <c r="AI66" s="61"/>
+      <c r="AK66" s="61"/>
+      <c r="AL66" s="61"/>
+      <c r="AM66" s="61"/>
+      <c r="AN66" s="61"/>
+      <c r="AO66" s="60"/>
+      <c r="AP66" s="61"/>
+      <c r="AQ66" s="60"/>
+      <c r="AR66" s="61"/>
+      <c r="AS66" s="61"/>
+      <c r="AT66" s="61"/>
+      <c r="AU66" s="61"/>
+      <c r="AV66" s="61"/>
+      <c r="AW66" s="60"/>
+      <c r="AX66" s="61"/>
+      <c r="AY66" s="60"/>
+      <c r="AZ66" s="61"/>
+      <c r="BA66" s="61"/>
+      <c r="BB66" s="61"/>
+      <c r="BC66" s="61"/>
+      <c r="BD66" s="61"/>
+      <c r="BE66" s="60"/>
+      <c r="BF66" s="61"/>
+      <c r="BG66" s="60"/>
+      <c r="BH66" s="61"/>
+      <c r="BI66" s="61"/>
+      <c r="BJ66" s="61"/>
+      <c r="BK66" s="61"/>
+      <c r="BL66" s="61"/>
+      <c r="BM66" s="60"/>
+      <c r="BN66" s="61"/>
+      <c r="BO66" s="60"/>
+      <c r="BP66" s="61"/>
+      <c r="BQ66" s="61"/>
+      <c r="BR66" s="61"/>
+      <c r="BS66" s="61"/>
+      <c r="BT66" s="61"/>
+      <c r="BU66" s="60"/>
+      <c r="BV66" s="61"/>
+      <c r="BW66" s="60"/>
+      <c r="BX66" s="61"/>
+      <c r="BY66" s="61"/>
+      <c r="BZ66" s="61"/>
+      <c r="CA66" s="61"/>
+      <c r="CB66" s="61"/>
+      <c r="CC66" s="60"/>
+      <c r="CD66" s="61"/>
+      <c r="CE66" s="60"/>
+      <c r="CF66" s="61"/>
+      <c r="CG66" s="61"/>
+      <c r="CH66" s="61"/>
+      <c r="CI66" s="61"/>
+      <c r="CJ66" s="60"/>
+      <c r="CK66" s="61"/>
+      <c r="CL66" s="60"/>
+      <c r="CM66" s="61"/>
+      <c r="CN66" s="61"/>
+      <c r="CO66" s="61"/>
+      <c r="CP66" s="61"/>
+      <c r="CQ66" s="61"/>
+      <c r="CR66" s="60"/>
+      <c r="CS66" s="61"/>
+      <c r="CT66" s="60"/>
+      <c r="CU66" s="61"/>
+      <c r="CV66" s="61"/>
+      <c r="CW66" s="61"/>
+      <c r="CX66" s="61"/>
+      <c r="CY66" s="61"/>
+      <c r="CZ66" s="60"/>
+      <c r="DA66" s="61"/>
+      <c r="DB66" s="60"/>
+      <c r="DC66" s="61"/>
+      <c r="DD66" s="61"/>
+      <c r="DE66" s="61"/>
+      <c r="DF66" s="61"/>
+      <c r="DG66" s="61"/>
+      <c r="DH66" s="60"/>
+      <c r="DI66" s="61"/>
+      <c r="DJ66" s="60"/>
+      <c r="DK66" s="61"/>
+      <c r="DL66" s="61"/>
+      <c r="DM66" s="61"/>
+      <c r="DN66" s="61"/>
+      <c r="DO66" s="61"/>
+      <c r="DP66" s="60"/>
+      <c r="DQ66" s="61"/>
+      <c r="DR66" s="60"/>
+      <c r="DS66" s="61"/>
+      <c r="DT66" s="61"/>
+      <c r="DU66" s="61"/>
+      <c r="DV66" s="61"/>
+      <c r="DW66" s="60"/>
+      <c r="DX66" s="61"/>
+      <c r="DY66" s="60"/>
+      <c r="DZ66" s="61"/>
+      <c r="EA66" s="61"/>
+      <c r="EB66" s="61"/>
+      <c r="EC66" s="61"/>
+      <c r="ED66" s="61"/>
+      <c r="EE66" s="60"/>
+      <c r="EF66" s="61"/>
+      <c r="EG66" s="60"/>
+      <c r="EH66" s="61"/>
+      <c r="EI66" s="61"/>
+      <c r="EJ66" s="61"/>
+      <c r="EK66" s="61"/>
+      <c r="EL66" s="61"/>
+      <c r="EM66" s="60"/>
+      <c r="EN66" s="61"/>
+      <c r="EO66" s="60"/>
+      <c r="EP66" s="61"/>
+      <c r="EQ66" s="61"/>
+      <c r="ER66" s="61"/>
+      <c r="ES66" s="61"/>
+      <c r="ET66" s="61"/>
+      <c r="EU66" s="60"/>
+      <c r="EV66" s="61"/>
+      <c r="EW66" s="60"/>
+      <c r="EX66" s="61"/>
+      <c r="EY66" s="61"/>
+      <c r="EZ66" s="61"/>
+      <c r="FA66" s="61"/>
+      <c r="FB66" s="61"/>
+      <c r="FC66" s="60"/>
+      <c r="FD66" s="61"/>
+      <c r="FE66" s="60"/>
+      <c r="FF66" s="61"/>
+      <c r="FG66" s="61"/>
+      <c r="FH66" s="61"/>
+      <c r="FI66" s="61"/>
+      <c r="FJ66" s="60"/>
+      <c r="FK66" s="61"/>
+      <c r="FL66" s="60"/>
+      <c r="FM66" s="61"/>
+      <c r="FN66" s="61"/>
+      <c r="FO66" s="61"/>
+      <c r="FP66" s="61"/>
+      <c r="FQ66" s="61"/>
+      <c r="FR66" s="60"/>
+      <c r="FS66" s="61"/>
+      <c r="FT66" s="60"/>
+      <c r="FU66" s="61"/>
+      <c r="FV66" s="61"/>
+      <c r="FW66" s="61"/>
+      <c r="FX66" s="61"/>
+      <c r="FY66" s="61"/>
+      <c r="FZ66" s="60"/>
+      <c r="GA66" s="61"/>
+      <c r="GB66" s="60"/>
+      <c r="GC66" s="61"/>
+      <c r="GD66" s="61"/>
+      <c r="GE66" s="61"/>
+      <c r="GF66" s="61"/>
+      <c r="GG66" s="61"/>
+      <c r="GH66" s="60"/>
+      <c r="GI66" s="61"/>
+      <c r="GJ66" s="60"/>
+      <c r="GK66" s="61"/>
+      <c r="GL66" s="61"/>
+      <c r="GM66" s="61"/>
+      <c r="GN66" s="61"/>
+      <c r="GO66" s="61"/>
+      <c r="GP66" s="60"/>
+      <c r="GQ66" s="61"/>
+      <c r="GR66" s="60"/>
+      <c r="GS66" s="61"/>
+      <c r="GT66" s="61"/>
+      <c r="GU66" s="61"/>
+      <c r="GV66" s="61"/>
+      <c r="GW66" s="60"/>
+      <c r="GX66" s="61"/>
+      <c r="GY66" s="60"/>
+      <c r="GZ66" s="61"/>
+      <c r="HA66" s="61"/>
+      <c r="HB66" s="61"/>
+      <c r="HC66" s="61"/>
+      <c r="HD66" s="61"/>
+      <c r="HE66" s="60"/>
+      <c r="HF66" s="61"/>
+      <c r="HG66" s="60"/>
+      <c r="HH66" s="61"/>
+      <c r="HI66" s="61"/>
+      <c r="HJ66" s="61"/>
+      <c r="HK66" s="10"/>
+      <c r="HL66" s="10"/>
+      <c r="HM66" s="10"/>
+      <c r="HN66" s="10"/>
+      <c r="HO66" s="10"/>
+      <c r="HP66" s="10"/>
+      <c r="HQ66" s="10"/>
+      <c r="HR66" s="10"/>
+      <c r="HS66" s="10"/>
+      <c r="HT66" s="10"/>
+      <c r="HU66" s="10"/>
+      <c r="HV66" s="10"/>
+      <c r="HW66" s="10"/>
+      <c r="HX66" s="10"/>
+      <c r="HY66" s="10"/>
+      <c r="HZ66" s="10"/>
+      <c r="IA66" s="10"/>
+      <c r="IB66" s="10"/>
+      <c r="IC66" s="10"/>
+      <c r="ID66" s="10"/>
+      <c r="IE66" s="10"/>
+      <c r="IF66" s="10"/>
+    </row>
+    <row r="67" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="60"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="60"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="61"/>
+      <c r="S67" s="61"/>
+      <c r="T67" s="61"/>
+      <c r="U67" s="60"/>
+      <c r="V67" s="61"/>
+      <c r="W67" s="60"/>
+      <c r="X67" s="61"/>
+      <c r="Y67" s="61"/>
+      <c r="Z67" s="61"/>
+      <c r="AA67" s="61"/>
+      <c r="AB67" s="61"/>
+      <c r="AC67" s="60"/>
+      <c r="AD67" s="61"/>
+      <c r="AE67" s="60"/>
+      <c r="AF67" s="61"/>
+      <c r="AG67" s="60"/>
+      <c r="AH67" s="61"/>
+      <c r="AI67" s="61"/>
+      <c r="AK67" s="61"/>
+      <c r="AL67" s="61"/>
+      <c r="AM67" s="61"/>
+      <c r="AN67" s="61"/>
+      <c r="AO67" s="60"/>
+      <c r="AP67" s="61"/>
+      <c r="AQ67" s="60"/>
+      <c r="AR67" s="61"/>
+      <c r="AS67" s="61"/>
+      <c r="AT67" s="61"/>
+      <c r="AU67" s="61"/>
+      <c r="AV67" s="61"/>
+      <c r="AW67" s="60"/>
+      <c r="AX67" s="61"/>
+      <c r="AY67" s="60"/>
+      <c r="AZ67" s="61"/>
+      <c r="BA67" s="61"/>
+      <c r="BB67" s="61"/>
+      <c r="BC67" s="61"/>
+      <c r="BD67" s="61"/>
+      <c r="BE67" s="60"/>
+      <c r="BF67" s="61"/>
+      <c r="BG67" s="60"/>
+      <c r="BH67" s="61"/>
+      <c r="BI67" s="61"/>
+      <c r="BJ67" s="61"/>
+      <c r="BK67" s="61"/>
+      <c r="BL67" s="61"/>
+      <c r="BM67" s="60"/>
+      <c r="BN67" s="61"/>
+      <c r="BO67" s="60"/>
+      <c r="BP67" s="61"/>
+      <c r="BQ67" s="61"/>
+      <c r="BR67" s="61"/>
+      <c r="BS67" s="61"/>
+      <c r="BT67" s="61"/>
+      <c r="BU67" s="60"/>
+      <c r="BV67" s="61"/>
+      <c r="BW67" s="60"/>
+      <c r="BX67" s="61"/>
+      <c r="BY67" s="61"/>
+      <c r="BZ67" s="61"/>
+      <c r="CA67" s="61"/>
+      <c r="CB67" s="61"/>
+      <c r="CC67" s="60"/>
+      <c r="CD67" s="61"/>
+      <c r="CE67" s="60"/>
+      <c r="CF67" s="61"/>
+      <c r="CG67" s="61"/>
+      <c r="CH67" s="61"/>
+      <c r="CI67" s="61"/>
+      <c r="CJ67" s="60"/>
+      <c r="CK67" s="61"/>
+      <c r="CL67" s="60"/>
+      <c r="CM67" s="61"/>
+      <c r="CN67" s="61"/>
+      <c r="CO67" s="61"/>
+      <c r="CP67" s="61"/>
+      <c r="CQ67" s="61"/>
+      <c r="CR67" s="60"/>
+      <c r="CS67" s="61"/>
+      <c r="CT67" s="60"/>
+      <c r="CU67" s="61"/>
+      <c r="CV67" s="61"/>
+      <c r="CW67" s="61"/>
+      <c r="CX67" s="61"/>
+      <c r="CY67" s="61"/>
+      <c r="CZ67" s="60"/>
+      <c r="DA67" s="61"/>
+      <c r="DB67" s="60"/>
+      <c r="DC67" s="61"/>
+      <c r="DD67" s="61"/>
+      <c r="DE67" s="61"/>
+      <c r="DF67" s="61"/>
+      <c r="DG67" s="61"/>
+      <c r="DH67" s="60"/>
+      <c r="DI67" s="61"/>
+      <c r="DJ67" s="60"/>
+      <c r="DK67" s="61"/>
+      <c r="DL67" s="61"/>
+      <c r="DM67" s="61"/>
+      <c r="DN67" s="61"/>
+      <c r="DO67" s="61"/>
+      <c r="DP67" s="60"/>
+      <c r="DQ67" s="61"/>
+      <c r="DR67" s="60"/>
+      <c r="DS67" s="61"/>
+      <c r="DT67" s="61"/>
+      <c r="DU67" s="61"/>
+      <c r="DV67" s="61"/>
+      <c r="DW67" s="60"/>
+      <c r="DX67" s="61"/>
+      <c r="DY67" s="60"/>
+      <c r="DZ67" s="61"/>
+      <c r="EA67" s="61"/>
+      <c r="EB67" s="61"/>
+      <c r="EC67" s="61"/>
+      <c r="ED67" s="61"/>
+      <c r="EE67" s="60"/>
+      <c r="EF67" s="61"/>
+      <c r="EG67" s="60"/>
+      <c r="EH67" s="61"/>
+      <c r="EI67" s="61"/>
+      <c r="EJ67" s="61"/>
+      <c r="EK67" s="61"/>
+      <c r="EL67" s="61"/>
+      <c r="EM67" s="60"/>
+      <c r="EN67" s="61"/>
+      <c r="EO67" s="60"/>
+      <c r="EP67" s="61"/>
+      <c r="EQ67" s="61"/>
+      <c r="ER67" s="61"/>
+      <c r="ES67" s="61"/>
+      <c r="ET67" s="61"/>
+      <c r="EU67" s="60"/>
+      <c r="EV67" s="61"/>
+      <c r="EW67" s="60"/>
+      <c r="EX67" s="61"/>
+      <c r="EY67" s="61"/>
+      <c r="EZ67" s="61"/>
+      <c r="FA67" s="61"/>
+      <c r="FB67" s="61"/>
+      <c r="FC67" s="60"/>
+      <c r="FD67" s="61"/>
+      <c r="FE67" s="60"/>
+      <c r="FF67" s="61"/>
+      <c r="FG67" s="61"/>
+      <c r="FH67" s="61"/>
+      <c r="FI67" s="61"/>
+      <c r="FJ67" s="60"/>
+      <c r="FK67" s="61"/>
+      <c r="FL67" s="60"/>
+      <c r="FM67" s="61"/>
+      <c r="FN67" s="61"/>
+      <c r="FO67" s="61"/>
+      <c r="FP67" s="61"/>
+      <c r="FQ67" s="61"/>
+      <c r="FR67" s="60"/>
+      <c r="FS67" s="61"/>
+      <c r="FT67" s="60"/>
+      <c r="FU67" s="61"/>
+      <c r="FV67" s="61"/>
+      <c r="FW67" s="61"/>
+      <c r="FX67" s="61"/>
+      <c r="FY67" s="61"/>
+      <c r="FZ67" s="60"/>
+      <c r="GA67" s="61"/>
+      <c r="GB67" s="60"/>
+      <c r="GC67" s="61"/>
+      <c r="GD67" s="61"/>
+      <c r="GE67" s="61"/>
+      <c r="GF67" s="61"/>
+      <c r="GG67" s="61"/>
+      <c r="GH67" s="60"/>
+      <c r="GI67" s="61"/>
+      <c r="GJ67" s="60"/>
+      <c r="GK67" s="61"/>
+      <c r="GL67" s="61"/>
+      <c r="GM67" s="61"/>
+      <c r="GN67" s="61"/>
+      <c r="GO67" s="61"/>
+      <c r="GP67" s="60"/>
+      <c r="GQ67" s="61"/>
+      <c r="GR67" s="60"/>
+      <c r="GS67" s="61"/>
+      <c r="GT67" s="61"/>
+      <c r="GU67" s="61"/>
+      <c r="GV67" s="61"/>
+      <c r="GW67" s="60"/>
+      <c r="GX67" s="61"/>
+      <c r="GY67" s="60"/>
+      <c r="GZ67" s="61"/>
+      <c r="HA67" s="61"/>
+      <c r="HB67" s="61"/>
+      <c r="HC67" s="61"/>
+      <c r="HD67" s="61"/>
+      <c r="HE67" s="60"/>
+      <c r="HF67" s="61"/>
+      <c r="HG67" s="60"/>
+      <c r="HH67" s="61"/>
+      <c r="HI67" s="61"/>
+      <c r="HJ67" s="61"/>
+      <c r="HK67" s="10"/>
+      <c r="HL67" s="10"/>
+      <c r="HM67" s="10"/>
+      <c r="HN67" s="10"/>
+      <c r="HO67" s="10"/>
+      <c r="HP67" s="10"/>
+      <c r="HQ67" s="10"/>
+      <c r="HR67" s="10"/>
+      <c r="HS67" s="10"/>
+      <c r="HT67" s="10"/>
+      <c r="HU67" s="10"/>
+      <c r="HV67" s="10"/>
+      <c r="HW67" s="10"/>
+      <c r="HX67" s="10"/>
+      <c r="HY67" s="10"/>
+      <c r="HZ67" s="10"/>
+      <c r="IA67" s="10"/>
+      <c r="IB67" s="10"/>
+      <c r="IC67" s="10"/>
+      <c r="ID67" s="10"/>
+      <c r="IE67" s="10"/>
+      <c r="IF67" s="10"/>
+    </row>
+    <row r="68" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="60"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="61"/>
+      <c r="S68" s="61"/>
+      <c r="T68" s="61"/>
+      <c r="U68" s="60"/>
+      <c r="V68" s="61"/>
+      <c r="W68" s="60"/>
+      <c r="X68" s="61"/>
+      <c r="Y68" s="61"/>
+      <c r="Z68" s="61"/>
+      <c r="AA68" s="61"/>
+      <c r="AB68" s="61"/>
+      <c r="AC68" s="60"/>
+      <c r="AD68" s="61"/>
+      <c r="AE68" s="60"/>
+      <c r="AF68" s="61"/>
+      <c r="AG68" s="60"/>
+      <c r="AH68" s="61"/>
+      <c r="AI68" s="61"/>
+      <c r="AK68" s="61"/>
+      <c r="AL68" s="61"/>
+      <c r="AM68" s="61"/>
+      <c r="AN68" s="61"/>
+      <c r="AO68" s="60"/>
+      <c r="AP68" s="61"/>
+      <c r="AQ68" s="60"/>
+      <c r="AR68" s="61"/>
+      <c r="AS68" s="61"/>
+      <c r="AT68" s="61"/>
+      <c r="AU68" s="61"/>
+      <c r="AV68" s="61"/>
+      <c r="AW68" s="60"/>
+      <c r="AX68" s="61"/>
+      <c r="AY68" s="60"/>
+      <c r="AZ68" s="61"/>
+      <c r="BA68" s="61"/>
+      <c r="BB68" s="61"/>
+      <c r="BC68" s="61"/>
+      <c r="BD68" s="61"/>
+      <c r="BE68" s="60"/>
+      <c r="BF68" s="61"/>
+      <c r="BG68" s="60"/>
+      <c r="BH68" s="61"/>
+      <c r="BI68" s="61"/>
+      <c r="BJ68" s="61"/>
+      <c r="BK68" s="61"/>
+      <c r="BL68" s="61"/>
+      <c r="BM68" s="60"/>
+      <c r="BN68" s="61"/>
+      <c r="BO68" s="60"/>
+      <c r="BP68" s="61"/>
+      <c r="BQ68" s="61"/>
+      <c r="BR68" s="61"/>
+      <c r="BS68" s="61"/>
+      <c r="BT68" s="61"/>
+      <c r="BU68" s="60"/>
+      <c r="BV68" s="61"/>
+      <c r="BW68" s="60"/>
+      <c r="BX68" s="61"/>
+      <c r="BY68" s="61"/>
+      <c r="BZ68" s="61"/>
+      <c r="CA68" s="61"/>
+      <c r="CB68" s="61"/>
+      <c r="CC68" s="60"/>
+      <c r="CD68" s="61"/>
+      <c r="CE68" s="60"/>
+      <c r="CF68" s="61"/>
+      <c r="CG68" s="61"/>
+      <c r="CH68" s="61"/>
+      <c r="CI68" s="61"/>
+      <c r="CJ68" s="60"/>
+      <c r="CK68" s="61"/>
+      <c r="CL68" s="60"/>
+      <c r="CM68" s="61"/>
+      <c r="CN68" s="61"/>
+      <c r="CO68" s="61"/>
+      <c r="CP68" s="61"/>
+      <c r="CQ68" s="61"/>
+      <c r="CR68" s="60"/>
+      <c r="CS68" s="61"/>
+      <c r="CT68" s="60"/>
+      <c r="CU68" s="61"/>
+      <c r="CV68" s="61"/>
+      <c r="CW68" s="61"/>
+      <c r="CX68" s="61"/>
+      <c r="CY68" s="61"/>
+      <c r="CZ68" s="60"/>
+      <c r="DA68" s="61"/>
+      <c r="DB68" s="60"/>
+      <c r="DC68" s="61"/>
+      <c r="DD68" s="61"/>
+      <c r="DE68" s="61"/>
+      <c r="DF68" s="61"/>
+      <c r="DG68" s="61"/>
+      <c r="DH68" s="60"/>
+      <c r="DI68" s="61"/>
+      <c r="DJ68" s="60"/>
+      <c r="DK68" s="61"/>
+      <c r="DL68" s="61"/>
+      <c r="DM68" s="61"/>
+      <c r="DN68" s="61"/>
+      <c r="DO68" s="61"/>
+      <c r="DP68" s="60"/>
+      <c r="DQ68" s="61"/>
+      <c r="DR68" s="60"/>
+      <c r="DS68" s="61"/>
+      <c r="DT68" s="61"/>
+      <c r="DU68" s="61"/>
+      <c r="DV68" s="61"/>
+      <c r="DW68" s="60"/>
+      <c r="DX68" s="61"/>
+      <c r="DY68" s="60"/>
+      <c r="DZ68" s="61"/>
+      <c r="EA68" s="61"/>
+      <c r="EB68" s="61"/>
+      <c r="EC68" s="61"/>
+      <c r="ED68" s="61"/>
+      <c r="EE68" s="60"/>
+      <c r="EF68" s="61"/>
+      <c r="EG68" s="60"/>
+      <c r="EH68" s="61"/>
+      <c r="EI68" s="61"/>
+      <c r="EJ68" s="61"/>
+      <c r="EK68" s="61"/>
+      <c r="EL68" s="61"/>
+      <c r="EM68" s="60"/>
+      <c r="EN68" s="61"/>
+      <c r="EO68" s="60"/>
+      <c r="EP68" s="61"/>
+      <c r="EQ68" s="61"/>
+      <c r="ER68" s="61"/>
+      <c r="ES68" s="61"/>
+      <c r="ET68" s="61"/>
+      <c r="EU68" s="60"/>
+      <c r="EV68" s="61"/>
+      <c r="EW68" s="60"/>
+      <c r="EX68" s="61"/>
+      <c r="EY68" s="61"/>
+      <c r="EZ68" s="61"/>
+      <c r="FA68" s="61"/>
+      <c r="FB68" s="61"/>
+      <c r="FC68" s="60"/>
+      <c r="FD68" s="61"/>
+      <c r="FE68" s="60"/>
+      <c r="FF68" s="61"/>
+      <c r="FG68" s="61"/>
+      <c r="FH68" s="61"/>
+      <c r="FI68" s="61"/>
+      <c r="FJ68" s="60"/>
+      <c r="FK68" s="61"/>
+      <c r="FL68" s="60"/>
+      <c r="FM68" s="61"/>
+      <c r="FN68" s="61"/>
+      <c r="FO68" s="61"/>
+      <c r="FP68" s="61"/>
+      <c r="FQ68" s="61"/>
+      <c r="FR68" s="60"/>
+      <c r="FS68" s="61"/>
+      <c r="FT68" s="60"/>
+      <c r="FU68" s="61"/>
+      <c r="FV68" s="61"/>
+      <c r="FW68" s="61"/>
+      <c r="FX68" s="61"/>
+      <c r="FY68" s="61"/>
+      <c r="FZ68" s="60"/>
+      <c r="GA68" s="61"/>
+      <c r="GB68" s="60"/>
+      <c r="GC68" s="61"/>
+      <c r="GD68" s="61"/>
+      <c r="GE68" s="61"/>
+      <c r="GF68" s="61"/>
+      <c r="GG68" s="61"/>
+      <c r="GH68" s="60"/>
+      <c r="GI68" s="61"/>
+      <c r="GJ68" s="60"/>
+      <c r="GK68" s="61"/>
+      <c r="GL68" s="61"/>
+      <c r="GM68" s="61"/>
+      <c r="GN68" s="61"/>
+      <c r="GO68" s="61"/>
+      <c r="GP68" s="60"/>
+      <c r="GQ68" s="61"/>
+      <c r="GR68" s="60"/>
+      <c r="GS68" s="61"/>
+      <c r="GT68" s="61"/>
+      <c r="GU68" s="61"/>
+      <c r="GV68" s="61"/>
+      <c r="GW68" s="60"/>
+      <c r="GX68" s="61"/>
+      <c r="GY68" s="60"/>
+      <c r="GZ68" s="61"/>
+      <c r="HA68" s="61"/>
+      <c r="HB68" s="61"/>
+      <c r="HC68" s="61"/>
+      <c r="HD68" s="61"/>
+      <c r="HE68" s="60"/>
+      <c r="HF68" s="61"/>
+      <c r="HG68" s="60"/>
+      <c r="HH68" s="61"/>
+      <c r="HI68" s="61"/>
+      <c r="HJ68" s="61"/>
+      <c r="HK68" s="10"/>
+      <c r="HL68" s="10"/>
+      <c r="HM68" s="10"/>
+      <c r="HN68" s="10"/>
+      <c r="HO68" s="10"/>
+      <c r="HP68" s="10"/>
+      <c r="HQ68" s="10"/>
+      <c r="HR68" s="10"/>
+      <c r="HS68" s="10"/>
+      <c r="HT68" s="10"/>
+      <c r="HU68" s="10"/>
+      <c r="HV68" s="10"/>
+      <c r="HW68" s="10"/>
+      <c r="HX68" s="10"/>
+      <c r="HY68" s="10"/>
+      <c r="HZ68" s="10"/>
+      <c r="IA68" s="10"/>
+      <c r="IB68" s="10"/>
+      <c r="IC68" s="10"/>
+      <c r="ID68" s="10"/>
+      <c r="IE68" s="10"/>
+      <c r="IF68" s="10"/>
+    </row>
+    <row r="69" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="71"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="72">
+        <v>0</v>
+      </c>
+      <c r="H69" s="60"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="61"/>
+      <c r="T69" s="61"/>
+      <c r="U69" s="60"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="61"/>
+      <c r="Z69" s="61"/>
+      <c r="AA69" s="61"/>
+      <c r="AB69" s="61"/>
+      <c r="AC69" s="60"/>
+      <c r="AD69" s="61"/>
+      <c r="AE69" s="60"/>
+      <c r="AF69" s="61"/>
+      <c r="AG69" s="60"/>
+      <c r="AH69" s="61"/>
+      <c r="AI69" s="61"/>
+      <c r="AK69" s="61"/>
+      <c r="AL69" s="61"/>
+      <c r="AM69" s="61"/>
+      <c r="AN69" s="61"/>
+      <c r="AO69" s="60"/>
+      <c r="AP69" s="61"/>
+      <c r="AQ69" s="60"/>
+      <c r="AR69" s="61"/>
+      <c r="AS69" s="61"/>
+      <c r="AT69" s="61"/>
+      <c r="AU69" s="61"/>
+      <c r="AV69" s="61"/>
+      <c r="AW69" s="60"/>
+      <c r="AX69" s="61"/>
+      <c r="AY69" s="60"/>
+      <c r="AZ69" s="61"/>
+      <c r="BA69" s="61"/>
+      <c r="BB69" s="61"/>
+      <c r="BC69" s="61"/>
+      <c r="BD69" s="61"/>
+      <c r="BE69" s="60"/>
+      <c r="BF69" s="61"/>
+      <c r="BG69" s="60"/>
+      <c r="BH69" s="61"/>
+      <c r="BI69" s="61"/>
+      <c r="BJ69" s="61"/>
+      <c r="BK69" s="61"/>
+      <c r="BL69" s="61"/>
+      <c r="BM69" s="60"/>
+      <c r="BN69" s="61"/>
+      <c r="BO69" s="60"/>
+      <c r="BP69" s="61"/>
+      <c r="BQ69" s="61"/>
+      <c r="BR69" s="61"/>
+      <c r="BS69" s="61"/>
+      <c r="BT69" s="61"/>
+      <c r="BU69" s="60"/>
+      <c r="BV69" s="61"/>
+      <c r="BW69" s="60"/>
+      <c r="BX69" s="61"/>
+      <c r="BY69" s="61"/>
+      <c r="BZ69" s="61"/>
+      <c r="CA69" s="61"/>
+      <c r="CB69" s="61"/>
+      <c r="CC69" s="60"/>
+      <c r="CD69" s="61"/>
+      <c r="CE69" s="60"/>
+      <c r="CF69" s="61"/>
+      <c r="CG69" s="61"/>
+      <c r="CH69" s="61"/>
+      <c r="CI69" s="61"/>
+      <c r="CJ69" s="60"/>
+      <c r="CK69" s="61"/>
+      <c r="CL69" s="60"/>
+      <c r="CM69" s="61"/>
+      <c r="CN69" s="61"/>
+      <c r="CO69" s="61"/>
+      <c r="CP69" s="61"/>
+      <c r="CQ69" s="61"/>
+      <c r="CR69" s="60"/>
+      <c r="CS69" s="61"/>
+      <c r="CT69" s="60"/>
+      <c r="CU69" s="61"/>
+      <c r="CV69" s="61"/>
+      <c r="CW69" s="61"/>
+      <c r="CX69" s="61"/>
+      <c r="CY69" s="61"/>
+      <c r="CZ69" s="60"/>
+      <c r="DA69" s="61"/>
+      <c r="DB69" s="60"/>
+      <c r="DC69" s="61"/>
+      <c r="DD69" s="61"/>
+      <c r="DE69" s="61"/>
+      <c r="DF69" s="61"/>
+      <c r="DG69" s="61"/>
+      <c r="DH69" s="60"/>
+      <c r="DI69" s="61"/>
+      <c r="DJ69" s="60"/>
+      <c r="DK69" s="61"/>
+      <c r="DL69" s="61"/>
+      <c r="DM69" s="61"/>
+      <c r="DN69" s="61"/>
+      <c r="DO69" s="61"/>
+      <c r="DP69" s="60"/>
+      <c r="DQ69" s="61"/>
+      <c r="DR69" s="60"/>
+      <c r="DS69" s="61"/>
+      <c r="DT69" s="61"/>
+      <c r="DU69" s="61"/>
+      <c r="DV69" s="61"/>
+      <c r="DW69" s="60"/>
+      <c r="DX69" s="61"/>
+      <c r="DY69" s="60"/>
+      <c r="DZ69" s="61"/>
+      <c r="EA69" s="61"/>
+      <c r="EB69" s="61"/>
+      <c r="EC69" s="61"/>
+      <c r="ED69" s="61"/>
+      <c r="EE69" s="60"/>
+      <c r="EF69" s="61"/>
+      <c r="EG69" s="60"/>
+      <c r="EH69" s="61"/>
+      <c r="EI69" s="61"/>
+      <c r="EJ69" s="61"/>
+      <c r="EK69" s="61"/>
+      <c r="EL69" s="61"/>
+      <c r="EM69" s="60"/>
+      <c r="EN69" s="61"/>
+      <c r="EO69" s="60"/>
+      <c r="EP69" s="61"/>
+      <c r="EQ69" s="61"/>
+      <c r="ER69" s="61"/>
+      <c r="ES69" s="61"/>
+      <c r="ET69" s="61"/>
+      <c r="EU69" s="60"/>
+      <c r="EV69" s="61"/>
+      <c r="EW69" s="60"/>
+      <c r="EX69" s="61"/>
+      <c r="EY69" s="61"/>
+      <c r="EZ69" s="61"/>
+      <c r="FA69" s="61"/>
+      <c r="FB69" s="61"/>
+      <c r="FC69" s="60"/>
+      <c r="FD69" s="61"/>
+      <c r="FE69" s="60"/>
+      <c r="FF69" s="61"/>
+      <c r="FG69" s="61"/>
+      <c r="FH69" s="61"/>
+      <c r="FI69" s="61"/>
+      <c r="FJ69" s="60"/>
+      <c r="FK69" s="61"/>
+      <c r="FL69" s="60"/>
+      <c r="FM69" s="61"/>
+      <c r="FN69" s="61"/>
+      <c r="FO69" s="61"/>
+      <c r="FP69" s="61"/>
+      <c r="FQ69" s="61"/>
+      <c r="FR69" s="60"/>
+      <c r="FS69" s="61"/>
+      <c r="FT69" s="60"/>
+      <c r="FU69" s="61"/>
+      <c r="FV69" s="61"/>
+      <c r="FW69" s="61"/>
+      <c r="FX69" s="61"/>
+      <c r="FY69" s="61"/>
+      <c r="FZ69" s="60"/>
+      <c r="GA69" s="61"/>
+      <c r="GB69" s="60"/>
+      <c r="GC69" s="61"/>
+      <c r="GD69" s="61"/>
+      <c r="GE69" s="61"/>
+      <c r="GF69" s="61"/>
+      <c r="GG69" s="61"/>
+      <c r="GH69" s="60"/>
+      <c r="GI69" s="61"/>
+      <c r="GJ69" s="60"/>
+      <c r="GK69" s="61"/>
+      <c r="GL69" s="61"/>
+      <c r="GM69" s="61"/>
+      <c r="GN69" s="61"/>
+      <c r="GO69" s="61"/>
+      <c r="GP69" s="60"/>
+      <c r="GQ69" s="61"/>
+      <c r="GR69" s="60"/>
+      <c r="GS69" s="61"/>
+      <c r="GT69" s="61"/>
+      <c r="GU69" s="61"/>
+      <c r="GV69" s="61"/>
+      <c r="GW69" s="60"/>
+      <c r="GX69" s="61"/>
+      <c r="GY69" s="60"/>
+      <c r="GZ69" s="61"/>
+      <c r="HA69" s="61"/>
+      <c r="HB69" s="61"/>
+      <c r="HC69" s="61"/>
+      <c r="HD69" s="61"/>
+      <c r="HE69" s="60"/>
+      <c r="HF69" s="61"/>
+      <c r="HG69" s="60"/>
+      <c r="HH69" s="61"/>
+      <c r="HI69" s="61"/>
+      <c r="HJ69" s="61"/>
+      <c r="HK69" s="10"/>
+      <c r="HL69" s="10"/>
+      <c r="HM69" s="10"/>
+      <c r="HN69" s="10"/>
+      <c r="HO69" s="10"/>
+      <c r="HP69" s="10"/>
+      <c r="HQ69" s="10"/>
+      <c r="HR69" s="10"/>
+      <c r="HS69" s="10"/>
+      <c r="HT69" s="10"/>
+      <c r="HU69" s="10"/>
+      <c r="HV69" s="10"/>
+      <c r="HW69" s="10"/>
+      <c r="HX69" s="10"/>
+      <c r="HY69" s="10"/>
+      <c r="HZ69" s="10"/>
+      <c r="IA69" s="10"/>
+      <c r="IB69" s="10"/>
+      <c r="IC69" s="10"/>
+      <c r="ID69" s="10"/>
+      <c r="IE69" s="10"/>
+      <c r="IF69" s="10"/>
+    </row>
+    <row r="70" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="60"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="60"/>
+      <c r="P70" s="61"/>
+      <c r="Q70" s="61"/>
+      <c r="R70" s="61"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="61"/>
+      <c r="U70" s="60"/>
+      <c r="V70" s="61"/>
+      <c r="W70" s="60"/>
+      <c r="X70" s="61"/>
+      <c r="Y70" s="61"/>
+      <c r="Z70" s="61"/>
+      <c r="AA70" s="61"/>
+      <c r="AB70" s="61"/>
+      <c r="AC70" s="60"/>
+      <c r="AD70" s="61"/>
+      <c r="AE70" s="60"/>
+      <c r="AF70" s="61"/>
+      <c r="AG70" s="60"/>
+      <c r="AH70" s="61"/>
+      <c r="AI70" s="61"/>
+      <c r="AK70" s="61"/>
+      <c r="AL70" s="61"/>
+      <c r="AM70" s="61"/>
+      <c r="AN70" s="61"/>
+      <c r="AO70" s="60"/>
+      <c r="AP70" s="61"/>
+      <c r="AQ70" s="60"/>
+      <c r="AR70" s="61"/>
+      <c r="AS70" s="61"/>
+      <c r="AT70" s="61"/>
+      <c r="AU70" s="61"/>
+      <c r="AV70" s="61"/>
+      <c r="AW70" s="60"/>
+      <c r="AX70" s="61"/>
+      <c r="AY70" s="60"/>
+      <c r="AZ70" s="61"/>
+      <c r="BA70" s="61"/>
+      <c r="BB70" s="61"/>
+      <c r="BC70" s="61"/>
+      <c r="BD70" s="61"/>
+      <c r="BE70" s="60"/>
+      <c r="BF70" s="61"/>
+      <c r="BG70" s="60"/>
+      <c r="BH70" s="61"/>
+      <c r="BI70" s="61"/>
+      <c r="BJ70" s="61"/>
+      <c r="BK70" s="61"/>
+      <c r="BL70" s="61"/>
+      <c r="BM70" s="60"/>
+      <c r="BN70" s="61"/>
+      <c r="BO70" s="60"/>
+      <c r="BP70" s="61"/>
+      <c r="BQ70" s="61"/>
+      <c r="BR70" s="61"/>
+      <c r="BS70" s="61"/>
+      <c r="BT70" s="61"/>
+      <c r="BU70" s="60"/>
+      <c r="BV70" s="61"/>
+      <c r="BW70" s="60"/>
+      <c r="BX70" s="61"/>
+      <c r="BY70" s="61"/>
+      <c r="BZ70" s="61"/>
+      <c r="CA70" s="61"/>
+      <c r="CB70" s="61"/>
+      <c r="CC70" s="60"/>
+      <c r="CD70" s="61"/>
+      <c r="CE70" s="60"/>
+      <c r="CF70" s="61"/>
+      <c r="CG70" s="61"/>
+      <c r="CH70" s="61"/>
+      <c r="CI70" s="61"/>
+      <c r="CJ70" s="60"/>
+      <c r="CK70" s="61"/>
+      <c r="CL70" s="60"/>
+      <c r="CM70" s="61"/>
+      <c r="CN70" s="61"/>
+      <c r="CO70" s="61"/>
+      <c r="CP70" s="61"/>
+      <c r="CQ70" s="61"/>
+      <c r="CR70" s="60"/>
+      <c r="CS70" s="61"/>
+      <c r="CT70" s="60"/>
+      <c r="CU70" s="61"/>
+      <c r="CV70" s="61"/>
+      <c r="CW70" s="61"/>
+      <c r="CX70" s="61"/>
+      <c r="CY70" s="61"/>
+      <c r="CZ70" s="60"/>
+      <c r="DA70" s="61"/>
+      <c r="DB70" s="60"/>
+      <c r="DC70" s="61"/>
+      <c r="DD70" s="61"/>
+      <c r="DE70" s="61"/>
+      <c r="DF70" s="61"/>
+      <c r="DG70" s="61"/>
+      <c r="DH70" s="60"/>
+      <c r="DI70" s="61"/>
+      <c r="DJ70" s="60"/>
+      <c r="DK70" s="61"/>
+      <c r="DL70" s="61"/>
+      <c r="DM70" s="61"/>
+      <c r="DN70" s="61"/>
+      <c r="DO70" s="61"/>
+      <c r="DP70" s="60"/>
+      <c r="DQ70" s="61"/>
+      <c r="DR70" s="60"/>
+      <c r="DS70" s="61"/>
+      <c r="DT70" s="61"/>
+      <c r="DU70" s="61"/>
+      <c r="DV70" s="61"/>
+      <c r="DW70" s="60"/>
+      <c r="DX70" s="61"/>
+      <c r="DY70" s="60"/>
+      <c r="DZ70" s="61"/>
+      <c r="EA70" s="61"/>
+      <c r="EB70" s="61"/>
+      <c r="EC70" s="61"/>
+      <c r="ED70" s="61"/>
+      <c r="EE70" s="60"/>
+      <c r="EF70" s="61"/>
+      <c r="EG70" s="60"/>
+      <c r="EH70" s="61"/>
+      <c r="EI70" s="61"/>
+      <c r="EJ70" s="61"/>
+      <c r="EK70" s="61"/>
+      <c r="EL70" s="61"/>
+      <c r="EM70" s="60"/>
+      <c r="EN70" s="61"/>
+      <c r="EO70" s="60"/>
+      <c r="EP70" s="61"/>
+      <c r="EQ70" s="61"/>
+      <c r="ER70" s="61"/>
+      <c r="ES70" s="61"/>
+      <c r="ET70" s="61"/>
+      <c r="EU70" s="60"/>
+      <c r="EV70" s="61"/>
+      <c r="EW70" s="60"/>
+      <c r="EX70" s="61"/>
+      <c r="EY70" s="61"/>
+      <c r="EZ70" s="61"/>
+      <c r="FA70" s="61"/>
+      <c r="FB70" s="61"/>
+      <c r="FC70" s="60"/>
+      <c r="FD70" s="61"/>
+      <c r="FE70" s="60"/>
+      <c r="FF70" s="61"/>
+      <c r="FG70" s="61"/>
+      <c r="FH70" s="61"/>
+      <c r="FI70" s="61"/>
+      <c r="FJ70" s="60"/>
+      <c r="FK70" s="61"/>
+      <c r="FL70" s="60"/>
+      <c r="FM70" s="61"/>
+      <c r="FN70" s="61"/>
+      <c r="FO70" s="61"/>
+      <c r="FP70" s="61"/>
+      <c r="FQ70" s="61"/>
+      <c r="FR70" s="60"/>
+      <c r="FS70" s="61"/>
+      <c r="FT70" s="60"/>
+      <c r="FU70" s="61"/>
+      <c r="FV70" s="61"/>
+      <c r="FW70" s="61"/>
+      <c r="FX70" s="61"/>
+      <c r="FY70" s="61"/>
+      <c r="FZ70" s="60"/>
+      <c r="GA70" s="61"/>
+      <c r="GB70" s="60"/>
+      <c r="GC70" s="61"/>
+      <c r="GD70" s="61"/>
+      <c r="GE70" s="61"/>
+      <c r="GF70" s="61"/>
+      <c r="GG70" s="61"/>
+      <c r="GH70" s="60"/>
+      <c r="GI70" s="61"/>
+      <c r="GJ70" s="60"/>
+      <c r="GK70" s="61"/>
+      <c r="GL70" s="61"/>
+      <c r="GM70" s="61"/>
+      <c r="GN70" s="61"/>
+      <c r="GO70" s="61"/>
+      <c r="GP70" s="60"/>
+      <c r="GQ70" s="61"/>
+      <c r="GR70" s="60"/>
+      <c r="GS70" s="61"/>
+      <c r="GT70" s="61"/>
+      <c r="GU70" s="61"/>
+      <c r="GV70" s="61"/>
+      <c r="GW70" s="60"/>
+      <c r="GX70" s="61"/>
+      <c r="GY70" s="60"/>
+      <c r="GZ70" s="61"/>
+      <c r="HA70" s="61"/>
+      <c r="HB70" s="61"/>
+      <c r="HC70" s="61"/>
+      <c r="HD70" s="61"/>
+      <c r="HE70" s="60"/>
+      <c r="HF70" s="61"/>
+      <c r="HG70" s="60"/>
+      <c r="HH70" s="61"/>
+      <c r="HI70" s="61"/>
+      <c r="HJ70" s="61"/>
+      <c r="HK70" s="10"/>
+      <c r="HL70" s="10"/>
+      <c r="HM70" s="10"/>
+      <c r="HN70" s="10"/>
+      <c r="HO70" s="10"/>
+      <c r="HP70" s="10"/>
+      <c r="HQ70" s="10"/>
+      <c r="HR70" s="10"/>
+      <c r="HS70" s="10"/>
+      <c r="HT70" s="10"/>
+      <c r="HU70" s="10"/>
+      <c r="HV70" s="10"/>
+      <c r="HW70" s="10"/>
+      <c r="HX70" s="10"/>
+      <c r="HY70" s="10"/>
+      <c r="HZ70" s="10"/>
+      <c r="IA70" s="10"/>
+      <c r="IB70" s="10"/>
+      <c r="IC70" s="10"/>
+      <c r="ID70" s="10"/>
+      <c r="IE70" s="10"/>
+      <c r="IF70" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="64">
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="C9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="C54:D55"/>
   </mergeCells>
   <conditionalFormatting sqref="G7">
     <cfRule type="dataBar" priority="27">
@@ -16856,7 +18095,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G29">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16870,7 +18109,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G33">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16884,7 +18123,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="G35">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16898,7 +18137,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G37">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16912,7 +18151,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+  <conditionalFormatting sqref="G39">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16926,7 +18165,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
+  <conditionalFormatting sqref="G41">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16940,7 +18179,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G43">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16954,7 +18193,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
+  <conditionalFormatting sqref="G45">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16968,7 +18207,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G47">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16982,7 +18221,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
+  <conditionalFormatting sqref="G49">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16996,7 +18235,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="G51">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17010,7 +18249,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
+  <conditionalFormatting sqref="G53">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17024,7 +18263,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="G55">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17038,7 +18277,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
+  <conditionalFormatting sqref="G57">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17052,7 +18291,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
+  <conditionalFormatting sqref="G59">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17066,7 +18305,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
+  <conditionalFormatting sqref="G61">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17080,7 +18319,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
+  <conditionalFormatting sqref="G64">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17094,7 +18333,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
+  <conditionalFormatting sqref="G66">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17108,7 +18347,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
+  <conditionalFormatting sqref="G69">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17261,7 +18500,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G24</xm:sqref>
+          <xm:sqref>G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A58C0529-7B5F-4E7D-8ACA-A7F1FC5C303F}">
@@ -17276,7 +18515,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G28</xm:sqref>
+          <xm:sqref>G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3D2CA4DF-0793-45D5-8B0A-C230986F2CC9}">
@@ -17291,7 +18530,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G30</xm:sqref>
+          <xm:sqref>G35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{254313EB-0134-4E64-BC40-B71813EC0194}">
@@ -17306,7 +18545,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G32</xm:sqref>
+          <xm:sqref>G37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{102C7E99-020B-40F3-9850-AA7520741565}">
@@ -17321,7 +18560,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G34</xm:sqref>
+          <xm:sqref>G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BFEE3BD5-E0BF-4D3A-8B66-BBD71904E513}">
@@ -17336,7 +18575,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G36</xm:sqref>
+          <xm:sqref>G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2141A177-098F-4C9B-8041-098FCB94929E}">
@@ -17351,7 +18590,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G38</xm:sqref>
+          <xm:sqref>G43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{192B1008-3B69-466B-8D07-2781A916CCFC}">
@@ -17366,7 +18605,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G40</xm:sqref>
+          <xm:sqref>G45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{53597C18-21EB-4165-95BB-BFBED50C1E20}">
@@ -17381,7 +18620,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G42</xm:sqref>
+          <xm:sqref>G47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6CBFFC38-F30E-4864-8439-B82F59E84118}">
@@ -17396,7 +18635,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G44</xm:sqref>
+          <xm:sqref>G49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9F94C85F-5A41-4BBA-8001-3FF46D321E8B}">
@@ -17411,7 +18650,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G46</xm:sqref>
+          <xm:sqref>G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8D122C58-A2B6-463E-B6A2-98BA8BD92A55}">
@@ -17426,7 +18665,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G48</xm:sqref>
+          <xm:sqref>G53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3ED07220-432D-4021-BD43-ADB92C1C25D9}">
@@ -17441,7 +18680,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G50</xm:sqref>
+          <xm:sqref>G55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4A60A957-72F6-4310-B501-2591110E4FB2}">
@@ -17456,7 +18695,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G52</xm:sqref>
+          <xm:sqref>G57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D9AAE81B-F368-4BE4-87CD-B69F1DDCBB1E}">
@@ -17471,7 +18710,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G54</xm:sqref>
+          <xm:sqref>G59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{371D6C62-FC5B-444E-9257-CB98541F6ACD}">
@@ -17486,7 +18725,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G56</xm:sqref>
+          <xm:sqref>G61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7A2902D7-C7C5-49C6-81E2-FFCD6F52476B}">
@@ -17501,7 +18740,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G59</xm:sqref>
+          <xm:sqref>G64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D9BECF7-D0EF-4C9B-B9C2-F1E2DA77384C}">
@@ -17516,7 +18755,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G61</xm:sqref>
+          <xm:sqref>G66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F295F70C-D655-4AF4-8C45-F94FC41224B3}">
@@ -17531,7 +18770,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G64</xm:sqref>
+          <xm:sqref>G69</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\alphanus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>Progress</t>
   </si>
@@ -111,9 +116,6 @@
     <t>Design Antarmuka</t>
   </si>
   <si>
-    <t>Pengujian Rancangan</t>
-  </si>
-  <si>
     <t>Implementasi System</t>
   </si>
   <si>
@@ -121,9 +123,6 @@
   </si>
   <si>
     <t>Form X (Data disesuaikan)</t>
-  </si>
-  <si>
-    <t>Pengujian Program</t>
   </si>
   <si>
     <t>Hosting and Domain</t>
@@ -144,7 +143,7 @@
     <t>Live</t>
   </si>
   <si>
-    <t>Fitur  X (Data Di Sesuaikan)</t>
+    <t>Pengujian Program &amp; Rancangan</t>
   </si>
 </sst>
 </file>
@@ -437,7 +436,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -541,13 +540,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,29 +552,11 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -610,7 +588,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>136589</xdr:rowOff>
     </xdr:to>
@@ -903,7 +881,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -911,20 +889,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IF70"/>
+  <dimension ref="A1:IF63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="5" topLeftCell="S18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomRight" activeCell="CW54" sqref="CW54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
@@ -2348,15 +2326,15 @@
     <row r="7" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71" t="s">
+      <c r="D7" s="72"/>
+      <c r="E7" s="72" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="72">
+      <c r="G7" s="71">
         <v>0</v>
       </c>
       <c r="H7" s="60"/>
@@ -2595,11 +2573,11 @@
     <row r="8" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="52"/>
-      <c r="G8" s="72"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="60"/>
       <c r="I8" s="61"/>
       <c r="J8" s="61"/>
@@ -2836,15 +2814,15 @@
     <row r="9" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="48"/>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73" t="s">
+      <c r="D9" s="75"/>
+      <c r="E9" s="75" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="74">
+      <c r="G9" s="73">
         <v>0</v>
       </c>
       <c r="H9" s="60"/>
@@ -3083,11 +3061,11 @@
     <row r="10" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="51"/>
-      <c r="G10" s="74"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="60"/>
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
@@ -3324,15 +3302,15 @@
     <row r="11" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71" t="s">
+      <c r="D11" s="72"/>
+      <c r="E11" s="72" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="52"/>
-      <c r="G11" s="72">
+      <c r="G11" s="71">
         <v>0</v>
       </c>
       <c r="H11" s="60"/>
@@ -3571,11 +3549,11 @@
     <row r="12" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="52"/>
-      <c r="G12" s="72"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
@@ -3812,15 +3790,15 @@
     <row r="13" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="48"/>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="75" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="51"/>
-      <c r="G13" s="74">
+      <c r="G13" s="73">
         <v>0</v>
       </c>
       <c r="H13" s="60"/>
@@ -4059,11 +4037,11 @@
     <row r="14" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="48"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="51"/>
-      <c r="G14" s="74"/>
+      <c r="G14" s="73"/>
       <c r="H14" s="60"/>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
@@ -4300,15 +4278,15 @@
     <row r="15" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71" t="s">
+      <c r="D15" s="72"/>
+      <c r="E15" s="72" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="52"/>
-      <c r="G15" s="72">
+      <c r="G15" s="71">
         <v>0</v>
       </c>
       <c r="H15" s="60"/>
@@ -4547,11 +4525,11 @@
     <row r="16" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="72"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="60"/>
       <c r="I16" s="61"/>
       <c r="J16" s="61"/>
@@ -4788,15 +4766,15 @@
     <row r="17" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="75" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="51"/>
-      <c r="G17" s="74">
+      <c r="G17" s="73">
         <v>1</v>
       </c>
       <c r="H17" s="60"/>
@@ -5035,11 +5013,11 @@
     <row r="18" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="51"/>
-      <c r="G18" s="74"/>
+      <c r="G18" s="73"/>
       <c r="H18" s="60"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -5520,13 +5498,13 @@
     <row r="20" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="71"/>
+      <c r="D20" s="72"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="72">
+      <c r="G20" s="71">
         <v>0</v>
       </c>
       <c r="H20" s="60"/>
@@ -5766,11 +5744,11 @@
     <row r="21" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="72"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="60"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -6008,13 +5986,13 @@
     <row r="22" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="73"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
-      <c r="G22" s="74">
+      <c r="G22" s="73">
         <v>0</v>
       </c>
       <c r="H22" s="60"/>
@@ -6254,11 +6232,11 @@
     <row r="23" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="74"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="60"/>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
@@ -6493,16 +6471,16 @@
       <c r="IE23" s="10"/>
       <c r="IF23" s="10"/>
     </row>
-    <row r="24" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="78" t="s">
+    <row r="24" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="80"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="60"/>
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
@@ -6525,20 +6503,19 @@
       <c r="AA24" s="61"/>
       <c r="AB24" s="61"/>
       <c r="AC24" s="60"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="67"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="67"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="70"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="67"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="67"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AK24" s="61"/>
+      <c r="AL24" s="61"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="61"/>
+      <c r="AO24" s="60"/>
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="60"/>
       <c r="AR24" s="61"/>
       <c r="AS24" s="61"/>
       <c r="AT24" s="61"/>
@@ -6738,15 +6715,15 @@
       <c r="IF24" s="10"/>
     </row>
     <row r="25" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="72"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="60"/>
       <c r="I25" s="61"/>
       <c r="J25" s="61"/>
@@ -6769,20 +6746,19 @@
       <c r="AA25" s="61"/>
       <c r="AB25" s="61"/>
       <c r="AC25" s="60"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="70"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="67"/>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="67"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="61"/>
+      <c r="AO25" s="60"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="60"/>
       <c r="AR25" s="61"/>
       <c r="AS25" s="61"/>
       <c r="AT25" s="61"/>
@@ -6982,13 +6958,17 @@
       <c r="IF25" s="10"/>
     </row>
     <row r="26" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="72"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="73">
+        <v>0</v>
+      </c>
       <c r="H26" s="60"/>
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
@@ -7011,13 +6991,12 @@
       <c r="AA26" s="61"/>
       <c r="AB26" s="61"/>
       <c r="AC26" s="60"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="70"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
       <c r="AK26" s="66"/>
       <c r="AL26" s="66"/>
       <c r="AM26" s="66"/>
@@ -7025,13 +7004,13 @@
       <c r="AO26" s="67"/>
       <c r="AP26" s="66"/>
       <c r="AQ26" s="67"/>
-      <c r="AR26" s="61"/>
-      <c r="AS26" s="61"/>
-      <c r="AT26" s="61"/>
-      <c r="AU26" s="61"/>
-      <c r="AV26" s="61"/>
-      <c r="AW26" s="60"/>
-      <c r="AX26" s="61"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="64"/>
+      <c r="AV26" s="64"/>
+      <c r="AW26" s="62"/>
+      <c r="AX26" s="64"/>
       <c r="AY26" s="60"/>
       <c r="AZ26" s="61"/>
       <c r="BA26" s="61"/>
@@ -7226,13 +7205,11 @@
     <row r="27" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="48"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="81" t="s">
-        <v>41</v>
-      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
-      <c r="G27" s="74"/>
+      <c r="G27" s="73"/>
       <c r="H27" s="60"/>
       <c r="I27" s="61"/>
       <c r="J27" s="61"/>
@@ -7255,20 +7232,19 @@
       <c r="AA27" s="61"/>
       <c r="AB27" s="61"/>
       <c r="AC27" s="60"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="67"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="67"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="70"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="66"/>
-      <c r="AM27" s="66"/>
-      <c r="AN27" s="66"/>
-      <c r="AO27" s="67"/>
-      <c r="AP27" s="66"/>
-      <c r="AQ27" s="67"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="61"/>
+      <c r="AO27" s="60"/>
+      <c r="AP27" s="61"/>
+      <c r="AQ27" s="60"/>
       <c r="AR27" s="61"/>
       <c r="AS27" s="61"/>
       <c r="AT27" s="61"/>
@@ -7468,13 +7444,17 @@
       <c r="IF27" s="10"/>
     </row>
     <row r="28" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="74"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="71">
+        <v>0</v>
+      </c>
       <c r="H28" s="60"/>
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
@@ -7497,27 +7477,26 @@
       <c r="AA28" s="61"/>
       <c r="AB28" s="61"/>
       <c r="AC28" s="60"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="70"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="66"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="67"/>
-      <c r="AP28" s="66"/>
-      <c r="AQ28" s="67"/>
-      <c r="AR28" s="61"/>
-      <c r="AS28" s="61"/>
-      <c r="AT28" s="61"/>
-      <c r="AU28" s="61"/>
-      <c r="AV28" s="61"/>
-      <c r="AW28" s="60"/>
-      <c r="AX28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="60"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="60"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="62"/>
+      <c r="AX28" s="64"/>
       <c r="AY28" s="60"/>
       <c r="AZ28" s="61"/>
       <c r="BA28" s="61"/>
@@ -7712,15 +7691,11 @@
     <row r="29" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="71"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="72">
-        <v>0</v>
-      </c>
+      <c r="G29" s="71"/>
       <c r="H29" s="60"/>
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
@@ -7748,15 +7723,14 @@
       <c r="AF29" s="61"/>
       <c r="AG29" s="60"/>
       <c r="AH29" s="61"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="62"/>
+      <c r="AI29" s="61"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="61"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="61"/>
+      <c r="AO29" s="60"/>
+      <c r="AP29" s="61"/>
+      <c r="AQ29" s="60"/>
       <c r="AR29" s="61"/>
       <c r="AS29" s="61"/>
       <c r="AT29" s="61"/>
@@ -7956,13 +7930,17 @@
       <c r="IF29" s="10"/>
     </row>
     <row r="30" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="72"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="73">
+        <v>0</v>
+      </c>
       <c r="H30" s="60"/>
       <c r="I30" s="61"/>
       <c r="J30" s="61"/>
@@ -8005,13 +7983,13 @@
       <c r="AV30" s="61"/>
       <c r="AW30" s="60"/>
       <c r="AX30" s="61"/>
-      <c r="AY30" s="60"/>
-      <c r="AZ30" s="61"/>
-      <c r="BA30" s="61"/>
-      <c r="BB30" s="61"/>
-      <c r="BC30" s="61"/>
-      <c r="BD30" s="61"/>
-      <c r="BE30" s="60"/>
+      <c r="AY30" s="62"/>
+      <c r="AZ30" s="64"/>
+      <c r="BA30" s="64"/>
+      <c r="BB30" s="64"/>
+      <c r="BC30" s="64"/>
+      <c r="BD30" s="64"/>
+      <c r="BE30" s="62"/>
       <c r="BF30" s="61"/>
       <c r="BG30" s="60"/>
       <c r="BH30" s="61"/>
@@ -8196,16 +8174,14 @@
       <c r="IE30" s="10"/>
       <c r="IF30" s="10"/>
     </row>
-    <row r="31" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+    <row r="31" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="73"/>
       <c r="H31" s="60"/>
       <c r="I31" s="61"/>
       <c r="J31" s="61"/>
@@ -8440,15 +8416,17 @@
       <c r="IF31" s="10"/>
     </row>
     <row r="32" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="57" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="71">
+        <v>0</v>
+      </c>
       <c r="H32" s="60"/>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
@@ -8491,13 +8469,13 @@
       <c r="AV32" s="61"/>
       <c r="AW32" s="60"/>
       <c r="AX32" s="61"/>
-      <c r="AY32" s="60"/>
-      <c r="AZ32" s="61"/>
-      <c r="BA32" s="61"/>
-      <c r="BB32" s="61"/>
-      <c r="BC32" s="61"/>
-      <c r="BD32" s="61"/>
-      <c r="BE32" s="60"/>
+      <c r="AY32" s="62"/>
+      <c r="AZ32" s="64"/>
+      <c r="BA32" s="64"/>
+      <c r="BB32" s="64"/>
+      <c r="BC32" s="64"/>
+      <c r="BD32" s="64"/>
+      <c r="BE32" s="62"/>
       <c r="BF32" s="61"/>
       <c r="BG32" s="60"/>
       <c r="BH32" s="61"/>
@@ -8683,17 +8661,13 @@
       <c r="IF32" s="10"/>
     </row>
     <row r="33" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="74">
-        <v>0</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="60"/>
       <c r="I33" s="61"/>
       <c r="J33" s="61"/>
@@ -8722,20 +8696,20 @@
       <c r="AG33" s="60"/>
       <c r="AH33" s="61"/>
       <c r="AI33" s="61"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="66"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="67"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="67"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
-      <c r="AU33" s="64"/>
-      <c r="AV33" s="64"/>
-      <c r="AW33" s="62"/>
-      <c r="AX33" s="64"/>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="61"/>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="61"/>
+      <c r="AO33" s="60"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="60"/>
+      <c r="AR33" s="61"/>
+      <c r="AS33" s="61"/>
+      <c r="AT33" s="61"/>
+      <c r="AU33" s="61"/>
+      <c r="AV33" s="61"/>
+      <c r="AW33" s="60"/>
+      <c r="AX33" s="61"/>
       <c r="AY33" s="60"/>
       <c r="AZ33" s="61"/>
       <c r="BA33" s="61"/>
@@ -8931,10 +8905,14 @@
       <c r="A34" s="48"/>
       <c r="B34" s="48"/>
       <c r="C34" s="59"/>
-      <c r="D34" s="73"/>
+      <c r="D34" s="75" t="s">
+        <v>32</v>
+      </c>
       <c r="E34" s="48"/>
       <c r="F34" s="48"/>
-      <c r="G34" s="74"/>
+      <c r="G34" s="73">
+        <v>0</v>
+      </c>
       <c r="H34" s="60"/>
       <c r="I34" s="61"/>
       <c r="J34" s="61"/>
@@ -8984,14 +8962,14 @@
       <c r="BC34" s="61"/>
       <c r="BD34" s="61"/>
       <c r="BE34" s="60"/>
-      <c r="BF34" s="61"/>
-      <c r="BG34" s="60"/>
-      <c r="BH34" s="61"/>
-      <c r="BI34" s="61"/>
-      <c r="BJ34" s="61"/>
-      <c r="BK34" s="61"/>
-      <c r="BL34" s="61"/>
-      <c r="BM34" s="60"/>
+      <c r="BF34" s="64"/>
+      <c r="BG34" s="62"/>
+      <c r="BH34" s="64"/>
+      <c r="BI34" s="64"/>
+      <c r="BJ34" s="64"/>
+      <c r="BK34" s="64"/>
+      <c r="BL34" s="64"/>
+      <c r="BM34" s="62"/>
       <c r="BN34" s="61"/>
       <c r="BO34" s="60"/>
       <c r="BP34" s="61"/>
@@ -9169,17 +9147,13 @@
       <c r="IF34" s="10"/>
     </row>
     <row r="35" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="72">
-        <v>0</v>
-      </c>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="73"/>
       <c r="H35" s="60"/>
       <c r="I35" s="61"/>
       <c r="J35" s="61"/>
@@ -9215,13 +9189,13 @@
       <c r="AO35" s="60"/>
       <c r="AP35" s="61"/>
       <c r="AQ35" s="60"/>
-      <c r="AR35" s="64"/>
-      <c r="AS35" s="64"/>
-      <c r="AT35" s="64"/>
-      <c r="AU35" s="64"/>
-      <c r="AV35" s="64"/>
-      <c r="AW35" s="62"/>
-      <c r="AX35" s="64"/>
+      <c r="AR35" s="61"/>
+      <c r="AS35" s="61"/>
+      <c r="AT35" s="61"/>
+      <c r="AU35" s="61"/>
+      <c r="AV35" s="61"/>
+      <c r="AW35" s="60"/>
+      <c r="AX35" s="61"/>
       <c r="AY35" s="60"/>
       <c r="AZ35" s="61"/>
       <c r="BA35" s="61"/>
@@ -9417,10 +9391,14 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="53"/>
-      <c r="D36" s="71"/>
+      <c r="D36" s="72" t="s">
+        <v>32</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="72"/>
+      <c r="G36" s="71">
+        <v>0</v>
+      </c>
       <c r="H36" s="60"/>
       <c r="I36" s="61"/>
       <c r="J36" s="61"/>
@@ -9470,14 +9448,14 @@
       <c r="BC36" s="61"/>
       <c r="BD36" s="61"/>
       <c r="BE36" s="60"/>
-      <c r="BF36" s="61"/>
-      <c r="BG36" s="60"/>
-      <c r="BH36" s="61"/>
-      <c r="BI36" s="61"/>
-      <c r="BJ36" s="61"/>
-      <c r="BK36" s="61"/>
-      <c r="BL36" s="61"/>
-      <c r="BM36" s="60"/>
+      <c r="BF36" s="64"/>
+      <c r="BG36" s="62"/>
+      <c r="BH36" s="64"/>
+      <c r="BI36" s="64"/>
+      <c r="BJ36" s="64"/>
+      <c r="BK36" s="64"/>
+      <c r="BL36" s="64"/>
+      <c r="BM36" s="62"/>
       <c r="BN36" s="61"/>
       <c r="BO36" s="60"/>
       <c r="BP36" s="61"/>
@@ -9655,17 +9633,13 @@
       <c r="IF36" s="10"/>
     </row>
     <row r="37" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="74">
-        <v>0</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="60"/>
       <c r="I37" s="61"/>
       <c r="J37" s="61"/>
@@ -9708,13 +9682,13 @@
       <c r="AV37" s="61"/>
       <c r="AW37" s="60"/>
       <c r="AX37" s="61"/>
-      <c r="AY37" s="62"/>
-      <c r="AZ37" s="64"/>
-      <c r="BA37" s="64"/>
-      <c r="BB37" s="64"/>
-      <c r="BC37" s="64"/>
-      <c r="BD37" s="64"/>
-      <c r="BE37" s="62"/>
+      <c r="AY37" s="60"/>
+      <c r="AZ37" s="61"/>
+      <c r="BA37" s="61"/>
+      <c r="BB37" s="61"/>
+      <c r="BC37" s="61"/>
+      <c r="BD37" s="61"/>
+      <c r="BE37" s="60"/>
       <c r="BF37" s="61"/>
       <c r="BG37" s="60"/>
       <c r="BH37" s="61"/>
@@ -9903,10 +9877,14 @@
       <c r="A38" s="48"/>
       <c r="B38" s="48"/>
       <c r="C38" s="59"/>
-      <c r="D38" s="73"/>
+      <c r="D38" s="75" t="s">
+        <v>32</v>
+      </c>
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
-      <c r="G38" s="74"/>
+      <c r="G38" s="73">
+        <v>0</v>
+      </c>
       <c r="H38" s="60"/>
       <c r="I38" s="61"/>
       <c r="J38" s="61"/>
@@ -9964,12 +9942,12 @@
       <c r="BK38" s="61"/>
       <c r="BL38" s="61"/>
       <c r="BM38" s="60"/>
-      <c r="BN38" s="61"/>
-      <c r="BO38" s="60"/>
-      <c r="BP38" s="61"/>
-      <c r="BQ38" s="61"/>
-      <c r="BR38" s="61"/>
-      <c r="BS38" s="61"/>
+      <c r="BN38" s="64"/>
+      <c r="BO38" s="62"/>
+      <c r="BP38" s="64"/>
+      <c r="BQ38" s="64"/>
+      <c r="BR38" s="64"/>
+      <c r="BS38" s="64"/>
       <c r="BT38" s="61"/>
       <c r="BU38" s="60"/>
       <c r="BV38" s="61"/>
@@ -10141,17 +10119,13 @@
       <c r="IF38" s="10"/>
     </row>
     <row r="39" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="72">
-        <v>0</v>
-      </c>
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="60"/>
       <c r="I39" s="61"/>
       <c r="J39" s="61"/>
@@ -10194,13 +10168,13 @@
       <c r="AV39" s="61"/>
       <c r="AW39" s="60"/>
       <c r="AX39" s="61"/>
-      <c r="AY39" s="62"/>
-      <c r="AZ39" s="64"/>
-      <c r="BA39" s="64"/>
-      <c r="BB39" s="64"/>
-      <c r="BC39" s="64"/>
-      <c r="BD39" s="64"/>
-      <c r="BE39" s="62"/>
+      <c r="AY39" s="60"/>
+      <c r="AZ39" s="61"/>
+      <c r="BA39" s="61"/>
+      <c r="BB39" s="61"/>
+      <c r="BC39" s="61"/>
+      <c r="BD39" s="61"/>
+      <c r="BE39" s="60"/>
       <c r="BF39" s="61"/>
       <c r="BG39" s="60"/>
       <c r="BH39" s="61"/>
@@ -10389,10 +10363,14 @@
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="53"/>
-      <c r="D40" s="71"/>
+      <c r="D40" s="72" t="s">
+        <v>32</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="72"/>
+      <c r="G40" s="71">
+        <v>0</v>
+      </c>
       <c r="H40" s="60"/>
       <c r="I40" s="61"/>
       <c r="J40" s="61"/>
@@ -10450,12 +10428,12 @@
       <c r="BK40" s="61"/>
       <c r="BL40" s="61"/>
       <c r="BM40" s="60"/>
-      <c r="BN40" s="61"/>
-      <c r="BO40" s="60"/>
-      <c r="BP40" s="61"/>
-      <c r="BQ40" s="61"/>
-      <c r="BR40" s="61"/>
-      <c r="BS40" s="61"/>
+      <c r="BN40" s="64"/>
+      <c r="BO40" s="62"/>
+      <c r="BP40" s="64"/>
+      <c r="BQ40" s="64"/>
+      <c r="BR40" s="64"/>
+      <c r="BS40" s="64"/>
       <c r="BT40" s="61"/>
       <c r="BU40" s="60"/>
       <c r="BV40" s="61"/>
@@ -10627,17 +10605,13 @@
       <c r="IF40" s="10"/>
     </row>
     <row r="41" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="74">
-        <v>0</v>
-      </c>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="60"/>
       <c r="I41" s="61"/>
       <c r="J41" s="61"/>
@@ -10687,14 +10661,14 @@
       <c r="BC41" s="61"/>
       <c r="BD41" s="61"/>
       <c r="BE41" s="60"/>
-      <c r="BF41" s="64"/>
-      <c r="BG41" s="62"/>
-      <c r="BH41" s="64"/>
-      <c r="BI41" s="64"/>
-      <c r="BJ41" s="64"/>
-      <c r="BK41" s="64"/>
-      <c r="BL41" s="64"/>
-      <c r="BM41" s="62"/>
+      <c r="BF41" s="61"/>
+      <c r="BG41" s="60"/>
+      <c r="BH41" s="61"/>
+      <c r="BI41" s="61"/>
+      <c r="BJ41" s="61"/>
+      <c r="BK41" s="61"/>
+      <c r="BL41" s="61"/>
+      <c r="BM41" s="60"/>
       <c r="BN41" s="61"/>
       <c r="BO41" s="60"/>
       <c r="BP41" s="61"/>
@@ -10875,10 +10849,14 @@
       <c r="A42" s="48"/>
       <c r="B42" s="48"/>
       <c r="C42" s="59"/>
-      <c r="D42" s="73"/>
+      <c r="D42" s="75" t="s">
+        <v>32</v>
+      </c>
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
-      <c r="G42" s="74"/>
+      <c r="G42" s="73">
+        <v>0</v>
+      </c>
       <c r="H42" s="60"/>
       <c r="I42" s="61"/>
       <c r="J42" s="61"/>
@@ -10942,13 +10920,13 @@
       <c r="BQ42" s="61"/>
       <c r="BR42" s="61"/>
       <c r="BS42" s="61"/>
-      <c r="BT42" s="61"/>
-      <c r="BU42" s="60"/>
-      <c r="BV42" s="61"/>
-      <c r="BW42" s="60"/>
-      <c r="BX42" s="61"/>
-      <c r="BY42" s="61"/>
-      <c r="BZ42" s="61"/>
+      <c r="BT42" s="64"/>
+      <c r="BU42" s="62"/>
+      <c r="BV42" s="64"/>
+      <c r="BW42" s="62"/>
+      <c r="BX42" s="64"/>
+      <c r="BY42" s="64"/>
+      <c r="BZ42" s="64"/>
       <c r="CA42" s="61"/>
       <c r="CB42" s="61"/>
       <c r="CC42" s="60"/>
@@ -11113,17 +11091,13 @@
       <c r="IF42" s="10"/>
     </row>
     <row r="43" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="72">
-        <v>0</v>
-      </c>
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="60"/>
       <c r="I43" s="61"/>
       <c r="J43" s="61"/>
@@ -11173,14 +11147,14 @@
       <c r="BC43" s="61"/>
       <c r="BD43" s="61"/>
       <c r="BE43" s="60"/>
-      <c r="BF43" s="64"/>
-      <c r="BG43" s="62"/>
-      <c r="BH43" s="64"/>
-      <c r="BI43" s="64"/>
-      <c r="BJ43" s="64"/>
-      <c r="BK43" s="64"/>
-      <c r="BL43" s="64"/>
-      <c r="BM43" s="62"/>
+      <c r="BF43" s="61"/>
+      <c r="BG43" s="60"/>
+      <c r="BH43" s="61"/>
+      <c r="BI43" s="61"/>
+      <c r="BJ43" s="61"/>
+      <c r="BK43" s="61"/>
+      <c r="BL43" s="61"/>
+      <c r="BM43" s="60"/>
       <c r="BN43" s="61"/>
       <c r="BO43" s="60"/>
       <c r="BP43" s="61"/>
@@ -11361,10 +11335,14 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="53"/>
-      <c r="D44" s="71"/>
+      <c r="D44" s="72" t="s">
+        <v>32</v>
+      </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="72"/>
+      <c r="G44" s="71">
+        <v>0</v>
+      </c>
       <c r="H44" s="60"/>
       <c r="I44" s="61"/>
       <c r="J44" s="61"/>
@@ -11428,13 +11406,13 @@
       <c r="BQ44" s="61"/>
       <c r="BR44" s="61"/>
       <c r="BS44" s="61"/>
-      <c r="BT44" s="61"/>
-      <c r="BU44" s="60"/>
-      <c r="BV44" s="61"/>
-      <c r="BW44" s="60"/>
-      <c r="BX44" s="61"/>
-      <c r="BY44" s="61"/>
-      <c r="BZ44" s="61"/>
+      <c r="BT44" s="64"/>
+      <c r="BU44" s="62"/>
+      <c r="BV44" s="64"/>
+      <c r="BW44" s="62"/>
+      <c r="BX44" s="64"/>
+      <c r="BY44" s="64"/>
+      <c r="BZ44" s="64"/>
       <c r="CA44" s="61"/>
       <c r="CB44" s="61"/>
       <c r="CC44" s="60"/>
@@ -11599,17 +11577,13 @@
       <c r="IF44" s="10"/>
     </row>
     <row r="45" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="71"/>
       <c r="H45" s="60"/>
       <c r="I45" s="61"/>
       <c r="J45" s="61"/>
@@ -11667,12 +11641,12 @@
       <c r="BK45" s="61"/>
       <c r="BL45" s="61"/>
       <c r="BM45" s="60"/>
-      <c r="BN45" s="64"/>
-      <c r="BO45" s="62"/>
-      <c r="BP45" s="64"/>
-      <c r="BQ45" s="64"/>
-      <c r="BR45" s="64"/>
-      <c r="BS45" s="64"/>
+      <c r="BN45" s="61"/>
+      <c r="BO45" s="60"/>
+      <c r="BP45" s="61"/>
+      <c r="BQ45" s="61"/>
+      <c r="BR45" s="61"/>
+      <c r="BS45" s="61"/>
       <c r="BT45" s="61"/>
       <c r="BU45" s="60"/>
       <c r="BV45" s="61"/>
@@ -11847,10 +11821,14 @@
       <c r="A46" s="48"/>
       <c r="B46" s="48"/>
       <c r="C46" s="59"/>
-      <c r="D46" s="73"/>
+      <c r="D46" s="75" t="s">
+        <v>32</v>
+      </c>
       <c r="E46" s="48"/>
       <c r="F46" s="48"/>
-      <c r="G46" s="74"/>
+      <c r="G46" s="73">
+        <v>0</v>
+      </c>
       <c r="H46" s="60"/>
       <c r="I46" s="61"/>
       <c r="J46" s="61"/>
@@ -11921,13 +11899,13 @@
       <c r="BX46" s="61"/>
       <c r="BY46" s="61"/>
       <c r="BZ46" s="61"/>
-      <c r="CA46" s="61"/>
-      <c r="CB46" s="61"/>
-      <c r="CC46" s="60"/>
-      <c r="CD46" s="61"/>
-      <c r="CE46" s="60"/>
-      <c r="CF46" s="61"/>
-      <c r="CG46" s="61"/>
+      <c r="CA46" s="64"/>
+      <c r="CB46" s="64"/>
+      <c r="CC46" s="62"/>
+      <c r="CD46" s="64"/>
+      <c r="CE46" s="62"/>
+      <c r="CF46" s="64"/>
+      <c r="CG46" s="64"/>
       <c r="CH46" s="61"/>
       <c r="CI46" s="61"/>
       <c r="CJ46" s="60"/>
@@ -12085,17 +12063,13 @@
       <c r="IF46" s="10"/>
     </row>
     <row r="47" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="72">
-        <v>0</v>
-      </c>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="73"/>
       <c r="H47" s="60"/>
       <c r="I47" s="61"/>
       <c r="J47" s="61"/>
@@ -12153,12 +12127,12 @@
       <c r="BK47" s="61"/>
       <c r="BL47" s="61"/>
       <c r="BM47" s="60"/>
-      <c r="BN47" s="64"/>
-      <c r="BO47" s="62"/>
-      <c r="BP47" s="64"/>
-      <c r="BQ47" s="64"/>
-      <c r="BR47" s="64"/>
-      <c r="BS47" s="64"/>
+      <c r="BN47" s="61"/>
+      <c r="BO47" s="60"/>
+      <c r="BP47" s="61"/>
+      <c r="BQ47" s="61"/>
+      <c r="BR47" s="61"/>
+      <c r="BS47" s="61"/>
       <c r="BT47" s="61"/>
       <c r="BU47" s="60"/>
       <c r="BV47" s="61"/>
@@ -12333,10 +12307,14 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="53"/>
-      <c r="D48" s="71"/>
+      <c r="D48" s="72" t="s">
+        <v>32</v>
+      </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="72"/>
+      <c r="G48" s="71">
+        <v>0</v>
+      </c>
       <c r="H48" s="60"/>
       <c r="I48" s="61"/>
       <c r="J48" s="61"/>
@@ -12407,13 +12385,13 @@
       <c r="BX48" s="61"/>
       <c r="BY48" s="61"/>
       <c r="BZ48" s="61"/>
-      <c r="CA48" s="61"/>
-      <c r="CB48" s="61"/>
-      <c r="CC48" s="60"/>
-      <c r="CD48" s="61"/>
-      <c r="CE48" s="60"/>
-      <c r="CF48" s="61"/>
-      <c r="CG48" s="61"/>
+      <c r="CA48" s="64"/>
+      <c r="CB48" s="64"/>
+      <c r="CC48" s="62"/>
+      <c r="CD48" s="64"/>
+      <c r="CE48" s="62"/>
+      <c r="CF48" s="64"/>
+      <c r="CG48" s="64"/>
       <c r="CH48" s="61"/>
       <c r="CI48" s="61"/>
       <c r="CJ48" s="60"/>
@@ -12571,17 +12549,13 @@
       <c r="IF48" s="10"/>
     </row>
     <row r="49" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="74">
-        <v>0</v>
-      </c>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="71"/>
       <c r="H49" s="60"/>
       <c r="I49" s="61"/>
       <c r="J49" s="61"/>
@@ -12645,13 +12619,13 @@
       <c r="BQ49" s="61"/>
       <c r="BR49" s="61"/>
       <c r="BS49" s="61"/>
-      <c r="BT49" s="64"/>
-      <c r="BU49" s="62"/>
-      <c r="BV49" s="64"/>
-      <c r="BW49" s="62"/>
-      <c r="BX49" s="64"/>
-      <c r="BY49" s="64"/>
-      <c r="BZ49" s="64"/>
+      <c r="BT49" s="61"/>
+      <c r="BU49" s="60"/>
+      <c r="BV49" s="61"/>
+      <c r="BW49" s="60"/>
+      <c r="BX49" s="61"/>
+      <c r="BY49" s="61"/>
+      <c r="BZ49" s="61"/>
       <c r="CA49" s="61"/>
       <c r="CB49" s="61"/>
       <c r="CC49" s="60"/>
@@ -12819,10 +12793,14 @@
       <c r="A50" s="48"/>
       <c r="B50" s="48"/>
       <c r="C50" s="59"/>
-      <c r="D50" s="73"/>
+      <c r="D50" s="75" t="s">
+        <v>32</v>
+      </c>
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
-      <c r="G50" s="74"/>
+      <c r="G50" s="73">
+        <v>0</v>
+      </c>
       <c r="H50" s="60"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -12900,13 +12878,13 @@
       <c r="CE50" s="60"/>
       <c r="CF50" s="61"/>
       <c r="CG50" s="61"/>
-      <c r="CH50" s="61"/>
-      <c r="CI50" s="61"/>
-      <c r="CJ50" s="60"/>
-      <c r="CK50" s="61"/>
-      <c r="CL50" s="60"/>
-      <c r="CM50" s="61"/>
-      <c r="CN50" s="61"/>
+      <c r="CH50" s="64"/>
+      <c r="CI50" s="64"/>
+      <c r="CJ50" s="62"/>
+      <c r="CK50" s="64"/>
+      <c r="CL50" s="62"/>
+      <c r="CM50" s="64"/>
+      <c r="CN50" s="64"/>
       <c r="CO50" s="61"/>
       <c r="CP50" s="61"/>
       <c r="CQ50" s="61"/>
@@ -13057,17 +13035,13 @@
       <c r="IF50" s="10"/>
     </row>
     <row r="51" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="72">
-        <v>0</v>
-      </c>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="73"/>
       <c r="H51" s="60"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -13131,13 +13105,13 @@
       <c r="BQ51" s="61"/>
       <c r="BR51" s="61"/>
       <c r="BS51" s="61"/>
-      <c r="BT51" s="64"/>
-      <c r="BU51" s="62"/>
-      <c r="BV51" s="64"/>
-      <c r="BW51" s="62"/>
-      <c r="BX51" s="64"/>
-      <c r="BY51" s="64"/>
-      <c r="BZ51" s="64"/>
+      <c r="BT51" s="61"/>
+      <c r="BU51" s="60"/>
+      <c r="BV51" s="61"/>
+      <c r="BW51" s="60"/>
+      <c r="BX51" s="61"/>
+      <c r="BY51" s="61"/>
+      <c r="BZ51" s="61"/>
       <c r="CA51" s="61"/>
       <c r="CB51" s="61"/>
       <c r="CC51" s="60"/>
@@ -13304,11 +13278,15 @@
     <row r="52" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="71"/>
+      <c r="C52" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="76"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="72"/>
+      <c r="G52" s="71">
+        <v>0</v>
+      </c>
       <c r="H52" s="60"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -13344,62 +13322,62 @@
       <c r="AO52" s="60"/>
       <c r="AP52" s="61"/>
       <c r="AQ52" s="60"/>
-      <c r="AR52" s="61"/>
-      <c r="AS52" s="61"/>
-      <c r="AT52" s="61"/>
-      <c r="AU52" s="61"/>
-      <c r="AV52" s="61"/>
-      <c r="AW52" s="60"/>
-      <c r="AX52" s="61"/>
-      <c r="AY52" s="60"/>
-      <c r="AZ52" s="61"/>
-      <c r="BA52" s="61"/>
-      <c r="BB52" s="61"/>
-      <c r="BC52" s="61"/>
-      <c r="BD52" s="61"/>
-      <c r="BE52" s="60"/>
-      <c r="BF52" s="61"/>
-      <c r="BG52" s="60"/>
-      <c r="BH52" s="61"/>
-      <c r="BI52" s="61"/>
-      <c r="BJ52" s="61"/>
-      <c r="BK52" s="61"/>
-      <c r="BL52" s="61"/>
-      <c r="BM52" s="60"/>
-      <c r="BN52" s="61"/>
-      <c r="BO52" s="60"/>
-      <c r="BP52" s="61"/>
-      <c r="BQ52" s="61"/>
-      <c r="BR52" s="61"/>
-      <c r="BS52" s="61"/>
-      <c r="BT52" s="61"/>
-      <c r="BU52" s="60"/>
-      <c r="BV52" s="61"/>
-      <c r="BW52" s="60"/>
-      <c r="BX52" s="61"/>
-      <c r="BY52" s="61"/>
-      <c r="BZ52" s="61"/>
-      <c r="CA52" s="61"/>
-      <c r="CB52" s="61"/>
-      <c r="CC52" s="60"/>
-      <c r="CD52" s="61"/>
-      <c r="CE52" s="60"/>
-      <c r="CF52" s="61"/>
-      <c r="CG52" s="61"/>
-      <c r="CH52" s="61"/>
-      <c r="CI52" s="61"/>
-      <c r="CJ52" s="60"/>
-      <c r="CK52" s="61"/>
-      <c r="CL52" s="60"/>
-      <c r="CM52" s="61"/>
-      <c r="CN52" s="61"/>
-      <c r="CO52" s="61"/>
-      <c r="CP52" s="61"/>
-      <c r="CQ52" s="61"/>
-      <c r="CR52" s="60"/>
-      <c r="CS52" s="61"/>
-      <c r="CT52" s="60"/>
-      <c r="CU52" s="61"/>
+      <c r="AR52" s="64"/>
+      <c r="AS52" s="64"/>
+      <c r="AT52" s="64"/>
+      <c r="AU52" s="64"/>
+      <c r="AV52" s="64"/>
+      <c r="AW52" s="62"/>
+      <c r="AX52" s="64"/>
+      <c r="AY52" s="62"/>
+      <c r="AZ52" s="64"/>
+      <c r="BA52" s="64"/>
+      <c r="BB52" s="64"/>
+      <c r="BC52" s="64"/>
+      <c r="BD52" s="64"/>
+      <c r="BE52" s="62"/>
+      <c r="BF52" s="64"/>
+      <c r="BG52" s="62"/>
+      <c r="BH52" s="64"/>
+      <c r="BI52" s="64"/>
+      <c r="BJ52" s="64"/>
+      <c r="BK52" s="64"/>
+      <c r="BL52" s="64"/>
+      <c r="BM52" s="62"/>
+      <c r="BN52" s="64"/>
+      <c r="BO52" s="62"/>
+      <c r="BP52" s="64"/>
+      <c r="BQ52" s="64"/>
+      <c r="BR52" s="64"/>
+      <c r="BS52" s="64"/>
+      <c r="BT52" s="64"/>
+      <c r="BU52" s="62"/>
+      <c r="BV52" s="64"/>
+      <c r="BW52" s="62"/>
+      <c r="BX52" s="64"/>
+      <c r="BY52" s="64"/>
+      <c r="BZ52" s="64"/>
+      <c r="CA52" s="64"/>
+      <c r="CB52" s="64"/>
+      <c r="CC52" s="62"/>
+      <c r="CD52" s="64"/>
+      <c r="CE52" s="62"/>
+      <c r="CF52" s="64"/>
+      <c r="CG52" s="64"/>
+      <c r="CH52" s="64"/>
+      <c r="CI52" s="64"/>
+      <c r="CJ52" s="62"/>
+      <c r="CK52" s="64"/>
+      <c r="CL52" s="62"/>
+      <c r="CM52" s="64"/>
+      <c r="CN52" s="64"/>
+      <c r="CO52" s="66"/>
+      <c r="CP52" s="66"/>
+      <c r="CQ52" s="66"/>
+      <c r="CR52" s="67"/>
+      <c r="CS52" s="66"/>
+      <c r="CT52" s="67"/>
+      <c r="CU52" s="66"/>
       <c r="CV52" s="61"/>
       <c r="CW52" s="61"/>
       <c r="CX52" s="61"/>
@@ -13543,17 +13521,13 @@
       <c r="IF52" s="10"/>
     </row>
     <row r="53" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="74">
-        <v>0</v>
-      </c>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="71"/>
       <c r="H53" s="60"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
@@ -13624,27 +13598,27 @@
       <c r="BX53" s="61"/>
       <c r="BY53" s="61"/>
       <c r="BZ53" s="61"/>
-      <c r="CA53" s="64"/>
-      <c r="CB53" s="64"/>
-      <c r="CC53" s="62"/>
-      <c r="CD53" s="64"/>
-      <c r="CE53" s="62"/>
-      <c r="CF53" s="64"/>
-      <c r="CG53" s="64"/>
-      <c r="CH53" s="61"/>
-      <c r="CI53" s="61"/>
-      <c r="CJ53" s="60"/>
-      <c r="CK53" s="61"/>
-      <c r="CL53" s="60"/>
-      <c r="CM53" s="61"/>
-      <c r="CN53" s="61"/>
-      <c r="CO53" s="61"/>
-      <c r="CP53" s="61"/>
-      <c r="CQ53" s="61"/>
-      <c r="CR53" s="60"/>
-      <c r="CS53" s="61"/>
-      <c r="CT53" s="60"/>
-      <c r="CU53" s="61"/>
+      <c r="CA53" s="61"/>
+      <c r="CB53" s="61"/>
+      <c r="CC53" s="60"/>
+      <c r="CD53" s="61"/>
+      <c r="CE53" s="60"/>
+      <c r="CF53" s="61"/>
+      <c r="CG53" s="61"/>
+      <c r="CH53" s="66"/>
+      <c r="CI53" s="66"/>
+      <c r="CJ53" s="67"/>
+      <c r="CK53" s="66"/>
+      <c r="CL53" s="67"/>
+      <c r="CM53" s="66"/>
+      <c r="CN53" s="66"/>
+      <c r="CO53" s="66"/>
+      <c r="CP53" s="66"/>
+      <c r="CQ53" s="66"/>
+      <c r="CR53" s="67"/>
+      <c r="CS53" s="66"/>
+      <c r="CT53" s="67"/>
+      <c r="CU53" s="66"/>
       <c r="CV53" s="61"/>
       <c r="CW53" s="61"/>
       <c r="CX53" s="61"/>
@@ -13790,11 +13764,15 @@
     <row r="54" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="48"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="73"/>
+      <c r="C54" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="74"/>
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
-      <c r="G54" s="74"/>
+      <c r="G54" s="73">
+        <v>0</v>
+      </c>
       <c r="H54" s="60"/>
       <c r="I54" s="61"/>
       <c r="J54" s="61"/>
@@ -13886,19 +13864,19 @@
       <c r="CS54" s="61"/>
       <c r="CT54" s="60"/>
       <c r="CU54" s="61"/>
-      <c r="CV54" s="61"/>
-      <c r="CW54" s="61"/>
-      <c r="CX54" s="61"/>
-      <c r="CY54" s="61"/>
-      <c r="CZ54" s="60"/>
-      <c r="DA54" s="61"/>
-      <c r="DB54" s="60"/>
-      <c r="DC54" s="61"/>
-      <c r="DD54" s="61"/>
-      <c r="DE54" s="61"/>
-      <c r="DF54" s="61"/>
-      <c r="DG54" s="61"/>
-      <c r="DH54" s="60"/>
+      <c r="CV54" s="64"/>
+      <c r="CW54" s="64"/>
+      <c r="CX54" s="64"/>
+      <c r="CY54" s="64"/>
+      <c r="CZ54" s="62"/>
+      <c r="DA54" s="64"/>
+      <c r="DB54" s="62"/>
+      <c r="DC54" s="64"/>
+      <c r="DD54" s="64"/>
+      <c r="DE54" s="64"/>
+      <c r="DF54" s="64"/>
+      <c r="DG54" s="64"/>
+      <c r="DH54" s="62"/>
       <c r="DI54" s="61"/>
       <c r="DJ54" s="60"/>
       <c r="DK54" s="61"/>
@@ -14029,17 +14007,13 @@
       <c r="IF54" s="10"/>
     </row>
     <row r="55" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="72">
-        <v>0</v>
-      </c>
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="73"/>
       <c r="H55" s="60"/>
       <c r="I55" s="61"/>
       <c r="J55" s="61"/>
@@ -14110,13 +14084,13 @@
       <c r="BX55" s="61"/>
       <c r="BY55" s="61"/>
       <c r="BZ55" s="61"/>
-      <c r="CA55" s="64"/>
-      <c r="CB55" s="64"/>
-      <c r="CC55" s="62"/>
-      <c r="CD55" s="64"/>
-      <c r="CE55" s="62"/>
-      <c r="CF55" s="64"/>
-      <c r="CG55" s="64"/>
+      <c r="CA55" s="61"/>
+      <c r="CB55" s="61"/>
+      <c r="CC55" s="60"/>
+      <c r="CD55" s="61"/>
+      <c r="CE55" s="60"/>
+      <c r="CF55" s="61"/>
+      <c r="CG55" s="61"/>
       <c r="CH55" s="61"/>
       <c r="CI55" s="61"/>
       <c r="CJ55" s="60"/>
@@ -14273,14 +14247,16 @@
       <c r="IE55" s="10"/>
       <c r="IF55" s="10"/>
     </row>
-    <row r="56" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="72"/>
+    <row r="56" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
       <c r="H56" s="60"/>
       <c r="I56" s="61"/>
       <c r="J56" s="61"/>
@@ -14515,15 +14491,15 @@
       <c r="IF56" s="10"/>
     </row>
     <row r="57" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="74">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="72"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="71">
         <v>0</v>
       </c>
       <c r="H57" s="60"/>
@@ -14603,13 +14579,13 @@
       <c r="CE57" s="60"/>
       <c r="CF57" s="61"/>
       <c r="CG57" s="61"/>
-      <c r="CH57" s="64"/>
-      <c r="CI57" s="64"/>
-      <c r="CJ57" s="62"/>
-      <c r="CK57" s="64"/>
-      <c r="CL57" s="62"/>
-      <c r="CM57" s="64"/>
-      <c r="CN57" s="64"/>
+      <c r="CH57" s="61"/>
+      <c r="CI57" s="61"/>
+      <c r="CJ57" s="60"/>
+      <c r="CK57" s="61"/>
+      <c r="CL57" s="60"/>
+      <c r="CM57" s="61"/>
+      <c r="CN57" s="61"/>
       <c r="CO57" s="61"/>
       <c r="CP57" s="61"/>
       <c r="CQ57" s="61"/>
@@ -14760,13 +14736,13 @@
       <c r="IF57" s="10"/>
     </row>
     <row r="58" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="74"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="71"/>
       <c r="H58" s="60"/>
       <c r="I58" s="61"/>
       <c r="J58" s="61"/>
@@ -15001,15 +14977,15 @@
       <c r="IF58" s="10"/>
     </row>
     <row r="59" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="72">
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="75"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="73">
         <v>0</v>
       </c>
       <c r="H59" s="60"/>
@@ -15089,20 +15065,20 @@
       <c r="CE59" s="60"/>
       <c r="CF59" s="61"/>
       <c r="CG59" s="61"/>
-      <c r="CH59" s="64"/>
-      <c r="CI59" s="64"/>
-      <c r="CJ59" s="62"/>
-      <c r="CK59" s="64"/>
-      <c r="CL59" s="62"/>
-      <c r="CM59" s="64"/>
-      <c r="CN59" s="64"/>
-      <c r="CO59" s="64"/>
-      <c r="CP59" s="64"/>
-      <c r="CQ59" s="64"/>
-      <c r="CR59" s="62"/>
-      <c r="CS59" s="64"/>
-      <c r="CT59" s="62"/>
-      <c r="CU59" s="64"/>
+      <c r="CH59" s="61"/>
+      <c r="CI59" s="61"/>
+      <c r="CJ59" s="60"/>
+      <c r="CK59" s="61"/>
+      <c r="CL59" s="60"/>
+      <c r="CM59" s="61"/>
+      <c r="CN59" s="61"/>
+      <c r="CO59" s="61"/>
+      <c r="CP59" s="61"/>
+      <c r="CQ59" s="61"/>
+      <c r="CR59" s="60"/>
+      <c r="CS59" s="61"/>
+      <c r="CT59" s="60"/>
+      <c r="CU59" s="61"/>
       <c r="CV59" s="61"/>
       <c r="CW59" s="61"/>
       <c r="CX59" s="61"/>
@@ -15246,13 +15222,13 @@
       <c r="IF59" s="10"/>
     </row>
     <row r="60" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="72"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="73"/>
       <c r="H60" s="60"/>
       <c r="I60" s="61"/>
       <c r="J60" s="61"/>
@@ -15330,20 +15306,20 @@
       <c r="CE60" s="60"/>
       <c r="CF60" s="61"/>
       <c r="CG60" s="61"/>
-      <c r="CH60" s="66"/>
-      <c r="CI60" s="66"/>
-      <c r="CJ60" s="67"/>
-      <c r="CK60" s="66"/>
-      <c r="CL60" s="67"/>
-      <c r="CM60" s="66"/>
-      <c r="CN60" s="66"/>
-      <c r="CO60" s="66"/>
-      <c r="CP60" s="66"/>
-      <c r="CQ60" s="66"/>
-      <c r="CR60" s="67"/>
-      <c r="CS60" s="66"/>
-      <c r="CT60" s="67"/>
-      <c r="CU60" s="66"/>
+      <c r="CH60" s="61"/>
+      <c r="CI60" s="61"/>
+      <c r="CJ60" s="60"/>
+      <c r="CK60" s="61"/>
+      <c r="CL60" s="60"/>
+      <c r="CM60" s="61"/>
+      <c r="CN60" s="61"/>
+      <c r="CO60" s="61"/>
+      <c r="CP60" s="61"/>
+      <c r="CQ60" s="61"/>
+      <c r="CR60" s="60"/>
+      <c r="CS60" s="61"/>
+      <c r="CT60" s="60"/>
+      <c r="CU60" s="61"/>
       <c r="CV60" s="61"/>
       <c r="CW60" s="61"/>
       <c r="CX60" s="61"/>
@@ -15486,18 +15462,16 @@
       <c r="IE60" s="10"/>
       <c r="IF60" s="10"/>
     </row>
-    <row r="61" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="75"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="74">
-        <v>0</v>
-      </c>
+    <row r="61" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
       <c r="H61" s="60"/>
       <c r="I61" s="61"/>
       <c r="J61" s="61"/>
@@ -15589,19 +15563,19 @@
       <c r="CS61" s="61"/>
       <c r="CT61" s="60"/>
       <c r="CU61" s="61"/>
-      <c r="CV61" s="64"/>
-      <c r="CW61" s="64"/>
-      <c r="CX61" s="64"/>
-      <c r="CY61" s="64"/>
-      <c r="CZ61" s="62"/>
-      <c r="DA61" s="64"/>
-      <c r="DB61" s="62"/>
-      <c r="DC61" s="64"/>
-      <c r="DD61" s="64"/>
-      <c r="DE61" s="64"/>
-      <c r="DF61" s="64"/>
-      <c r="DG61" s="64"/>
-      <c r="DH61" s="62"/>
+      <c r="CV61" s="61"/>
+      <c r="CW61" s="61"/>
+      <c r="CX61" s="61"/>
+      <c r="CY61" s="61"/>
+      <c r="CZ61" s="60"/>
+      <c r="DA61" s="61"/>
+      <c r="DB61" s="60"/>
+      <c r="DC61" s="61"/>
+      <c r="DD61" s="61"/>
+      <c r="DE61" s="61"/>
+      <c r="DF61" s="61"/>
+      <c r="DG61" s="61"/>
+      <c r="DH61" s="60"/>
       <c r="DI61" s="61"/>
       <c r="DJ61" s="60"/>
       <c r="DK61" s="61"/>
@@ -15732,13 +15706,17 @@
       <c r="IF61" s="10"/>
     </row>
     <row r="62" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="74"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="72"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="71">
+        <v>0</v>
+      </c>
       <c r="H62" s="60"/>
       <c r="I62" s="61"/>
       <c r="J62" s="61"/>
@@ -15972,16 +15950,14 @@
       <c r="IE62" s="10"/>
       <c r="IF62" s="10"/>
     </row>
-    <row r="63" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+    <row r="63" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="71"/>
       <c r="H63" s="60"/>
       <c r="I63" s="61"/>
       <c r="J63" s="61"/>
@@ -16215,1736 +16191,33 @@
       <c r="IE63" s="10"/>
       <c r="IF63" s="10"/>
     </row>
-    <row r="64" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="71"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="72">
-        <v>0</v>
-      </c>
-      <c r="H64" s="60"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="60"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="61"/>
-      <c r="S64" s="61"/>
-      <c r="T64" s="61"/>
-      <c r="U64" s="60"/>
-      <c r="V64" s="61"/>
-      <c r="W64" s="60"/>
-      <c r="X64" s="61"/>
-      <c r="Y64" s="61"/>
-      <c r="Z64" s="61"/>
-      <c r="AA64" s="61"/>
-      <c r="AB64" s="61"/>
-      <c r="AC64" s="60"/>
-      <c r="AD64" s="61"/>
-      <c r="AE64" s="60"/>
-      <c r="AF64" s="61"/>
-      <c r="AG64" s="60"/>
-      <c r="AH64" s="61"/>
-      <c r="AI64" s="61"/>
-      <c r="AK64" s="61"/>
-      <c r="AL64" s="61"/>
-      <c r="AM64" s="61"/>
-      <c r="AN64" s="61"/>
-      <c r="AO64" s="60"/>
-      <c r="AP64" s="61"/>
-      <c r="AQ64" s="60"/>
-      <c r="AR64" s="61"/>
-      <c r="AS64" s="61"/>
-      <c r="AT64" s="61"/>
-      <c r="AU64" s="61"/>
-      <c r="AV64" s="61"/>
-      <c r="AW64" s="60"/>
-      <c r="AX64" s="61"/>
-      <c r="AY64" s="60"/>
-      <c r="AZ64" s="61"/>
-      <c r="BA64" s="61"/>
-      <c r="BB64" s="61"/>
-      <c r="BC64" s="61"/>
-      <c r="BD64" s="61"/>
-      <c r="BE64" s="60"/>
-      <c r="BF64" s="61"/>
-      <c r="BG64" s="60"/>
-      <c r="BH64" s="61"/>
-      <c r="BI64" s="61"/>
-      <c r="BJ64" s="61"/>
-      <c r="BK64" s="61"/>
-      <c r="BL64" s="61"/>
-      <c r="BM64" s="60"/>
-      <c r="BN64" s="61"/>
-      <c r="BO64" s="60"/>
-      <c r="BP64" s="61"/>
-      <c r="BQ64" s="61"/>
-      <c r="BR64" s="61"/>
-      <c r="BS64" s="61"/>
-      <c r="BT64" s="61"/>
-      <c r="BU64" s="60"/>
-      <c r="BV64" s="61"/>
-      <c r="BW64" s="60"/>
-      <c r="BX64" s="61"/>
-      <c r="BY64" s="61"/>
-      <c r="BZ64" s="61"/>
-      <c r="CA64" s="61"/>
-      <c r="CB64" s="61"/>
-      <c r="CC64" s="60"/>
-      <c r="CD64" s="61"/>
-      <c r="CE64" s="60"/>
-      <c r="CF64" s="61"/>
-      <c r="CG64" s="61"/>
-      <c r="CH64" s="61"/>
-      <c r="CI64" s="61"/>
-      <c r="CJ64" s="60"/>
-      <c r="CK64" s="61"/>
-      <c r="CL64" s="60"/>
-      <c r="CM64" s="61"/>
-      <c r="CN64" s="61"/>
-      <c r="CO64" s="61"/>
-      <c r="CP64" s="61"/>
-      <c r="CQ64" s="61"/>
-      <c r="CR64" s="60"/>
-      <c r="CS64" s="61"/>
-      <c r="CT64" s="60"/>
-      <c r="CU64" s="61"/>
-      <c r="CV64" s="61"/>
-      <c r="CW64" s="61"/>
-      <c r="CX64" s="61"/>
-      <c r="CY64" s="61"/>
-      <c r="CZ64" s="60"/>
-      <c r="DA64" s="61"/>
-      <c r="DB64" s="60"/>
-      <c r="DC64" s="61"/>
-      <c r="DD64" s="61"/>
-      <c r="DE64" s="61"/>
-      <c r="DF64" s="61"/>
-      <c r="DG64" s="61"/>
-      <c r="DH64" s="60"/>
-      <c r="DI64" s="61"/>
-      <c r="DJ64" s="60"/>
-      <c r="DK64" s="61"/>
-      <c r="DL64" s="61"/>
-      <c r="DM64" s="61"/>
-      <c r="DN64" s="61"/>
-      <c r="DO64" s="61"/>
-      <c r="DP64" s="60"/>
-      <c r="DQ64" s="61"/>
-      <c r="DR64" s="60"/>
-      <c r="DS64" s="61"/>
-      <c r="DT64" s="61"/>
-      <c r="DU64" s="61"/>
-      <c r="DV64" s="61"/>
-      <c r="DW64" s="60"/>
-      <c r="DX64" s="61"/>
-      <c r="DY64" s="60"/>
-      <c r="DZ64" s="61"/>
-      <c r="EA64" s="61"/>
-      <c r="EB64" s="61"/>
-      <c r="EC64" s="61"/>
-      <c r="ED64" s="61"/>
-      <c r="EE64" s="60"/>
-      <c r="EF64" s="61"/>
-      <c r="EG64" s="60"/>
-      <c r="EH64" s="61"/>
-      <c r="EI64" s="61"/>
-      <c r="EJ64" s="61"/>
-      <c r="EK64" s="61"/>
-      <c r="EL64" s="61"/>
-      <c r="EM64" s="60"/>
-      <c r="EN64" s="61"/>
-      <c r="EO64" s="60"/>
-      <c r="EP64" s="61"/>
-      <c r="EQ64" s="61"/>
-      <c r="ER64" s="61"/>
-      <c r="ES64" s="61"/>
-      <c r="ET64" s="61"/>
-      <c r="EU64" s="60"/>
-      <c r="EV64" s="61"/>
-      <c r="EW64" s="60"/>
-      <c r="EX64" s="61"/>
-      <c r="EY64" s="61"/>
-      <c r="EZ64" s="61"/>
-      <c r="FA64" s="61"/>
-      <c r="FB64" s="61"/>
-      <c r="FC64" s="60"/>
-      <c r="FD64" s="61"/>
-      <c r="FE64" s="60"/>
-      <c r="FF64" s="61"/>
-      <c r="FG64" s="61"/>
-      <c r="FH64" s="61"/>
-      <c r="FI64" s="61"/>
-      <c r="FJ64" s="60"/>
-      <c r="FK64" s="61"/>
-      <c r="FL64" s="60"/>
-      <c r="FM64" s="61"/>
-      <c r="FN64" s="61"/>
-      <c r="FO64" s="61"/>
-      <c r="FP64" s="61"/>
-      <c r="FQ64" s="61"/>
-      <c r="FR64" s="60"/>
-      <c r="FS64" s="61"/>
-      <c r="FT64" s="60"/>
-      <c r="FU64" s="61"/>
-      <c r="FV64" s="61"/>
-      <c r="FW64" s="61"/>
-      <c r="FX64" s="61"/>
-      <c r="FY64" s="61"/>
-      <c r="FZ64" s="60"/>
-      <c r="GA64" s="61"/>
-      <c r="GB64" s="60"/>
-      <c r="GC64" s="61"/>
-      <c r="GD64" s="61"/>
-      <c r="GE64" s="61"/>
-      <c r="GF64" s="61"/>
-      <c r="GG64" s="61"/>
-      <c r="GH64" s="60"/>
-      <c r="GI64" s="61"/>
-      <c r="GJ64" s="60"/>
-      <c r="GK64" s="61"/>
-      <c r="GL64" s="61"/>
-      <c r="GM64" s="61"/>
-      <c r="GN64" s="61"/>
-      <c r="GO64" s="61"/>
-      <c r="GP64" s="60"/>
-      <c r="GQ64" s="61"/>
-      <c r="GR64" s="60"/>
-      <c r="GS64" s="61"/>
-      <c r="GT64" s="61"/>
-      <c r="GU64" s="61"/>
-      <c r="GV64" s="61"/>
-      <c r="GW64" s="60"/>
-      <c r="GX64" s="61"/>
-      <c r="GY64" s="60"/>
-      <c r="GZ64" s="61"/>
-      <c r="HA64" s="61"/>
-      <c r="HB64" s="61"/>
-      <c r="HC64" s="61"/>
-      <c r="HD64" s="61"/>
-      <c r="HE64" s="60"/>
-      <c r="HF64" s="61"/>
-      <c r="HG64" s="60"/>
-      <c r="HH64" s="61"/>
-      <c r="HI64" s="61"/>
-      <c r="HJ64" s="61"/>
-      <c r="HK64" s="10"/>
-      <c r="HL64" s="10"/>
-      <c r="HM64" s="10"/>
-      <c r="HN64" s="10"/>
-      <c r="HO64" s="10"/>
-      <c r="HP64" s="10"/>
-      <c r="HQ64" s="10"/>
-      <c r="HR64" s="10"/>
-      <c r="HS64" s="10"/>
-      <c r="HT64" s="10"/>
-      <c r="HU64" s="10"/>
-      <c r="HV64" s="10"/>
-      <c r="HW64" s="10"/>
-      <c r="HX64" s="10"/>
-      <c r="HY64" s="10"/>
-      <c r="HZ64" s="10"/>
-      <c r="IA64" s="10"/>
-      <c r="IB64" s="10"/>
-      <c r="IC64" s="10"/>
-      <c r="ID64" s="10"/>
-      <c r="IE64" s="10"/>
-      <c r="IF64" s="10"/>
-    </row>
-    <row r="65" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="60"/>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="61"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="61"/>
-      <c r="U65" s="60"/>
-      <c r="V65" s="61"/>
-      <c r="W65" s="60"/>
-      <c r="X65" s="61"/>
-      <c r="Y65" s="61"/>
-      <c r="Z65" s="61"/>
-      <c r="AA65" s="61"/>
-      <c r="AB65" s="61"/>
-      <c r="AC65" s="60"/>
-      <c r="AD65" s="61"/>
-      <c r="AE65" s="60"/>
-      <c r="AF65" s="61"/>
-      <c r="AG65" s="60"/>
-      <c r="AH65" s="61"/>
-      <c r="AI65" s="61"/>
-      <c r="AK65" s="61"/>
-      <c r="AL65" s="61"/>
-      <c r="AM65" s="61"/>
-      <c r="AN65" s="61"/>
-      <c r="AO65" s="60"/>
-      <c r="AP65" s="61"/>
-      <c r="AQ65" s="60"/>
-      <c r="AR65" s="61"/>
-      <c r="AS65" s="61"/>
-      <c r="AT65" s="61"/>
-      <c r="AU65" s="61"/>
-      <c r="AV65" s="61"/>
-      <c r="AW65" s="60"/>
-      <c r="AX65" s="61"/>
-      <c r="AY65" s="60"/>
-      <c r="AZ65" s="61"/>
-      <c r="BA65" s="61"/>
-      <c r="BB65" s="61"/>
-      <c r="BC65" s="61"/>
-      <c r="BD65" s="61"/>
-      <c r="BE65" s="60"/>
-      <c r="BF65" s="61"/>
-      <c r="BG65" s="60"/>
-      <c r="BH65" s="61"/>
-      <c r="BI65" s="61"/>
-      <c r="BJ65" s="61"/>
-      <c r="BK65" s="61"/>
-      <c r="BL65" s="61"/>
-      <c r="BM65" s="60"/>
-      <c r="BN65" s="61"/>
-      <c r="BO65" s="60"/>
-      <c r="BP65" s="61"/>
-      <c r="BQ65" s="61"/>
-      <c r="BR65" s="61"/>
-      <c r="BS65" s="61"/>
-      <c r="BT65" s="61"/>
-      <c r="BU65" s="60"/>
-      <c r="BV65" s="61"/>
-      <c r="BW65" s="60"/>
-      <c r="BX65" s="61"/>
-      <c r="BY65" s="61"/>
-      <c r="BZ65" s="61"/>
-      <c r="CA65" s="61"/>
-      <c r="CB65" s="61"/>
-      <c r="CC65" s="60"/>
-      <c r="CD65" s="61"/>
-      <c r="CE65" s="60"/>
-      <c r="CF65" s="61"/>
-      <c r="CG65" s="61"/>
-      <c r="CH65" s="61"/>
-      <c r="CI65" s="61"/>
-      <c r="CJ65" s="60"/>
-      <c r="CK65" s="61"/>
-      <c r="CL65" s="60"/>
-      <c r="CM65" s="61"/>
-      <c r="CN65" s="61"/>
-      <c r="CO65" s="61"/>
-      <c r="CP65" s="61"/>
-      <c r="CQ65" s="61"/>
-      <c r="CR65" s="60"/>
-      <c r="CS65" s="61"/>
-      <c r="CT65" s="60"/>
-      <c r="CU65" s="61"/>
-      <c r="CV65" s="61"/>
-      <c r="CW65" s="61"/>
-      <c r="CX65" s="61"/>
-      <c r="CY65" s="61"/>
-      <c r="CZ65" s="60"/>
-      <c r="DA65" s="61"/>
-      <c r="DB65" s="60"/>
-      <c r="DC65" s="61"/>
-      <c r="DD65" s="61"/>
-      <c r="DE65" s="61"/>
-      <c r="DF65" s="61"/>
-      <c r="DG65" s="61"/>
-      <c r="DH65" s="60"/>
-      <c r="DI65" s="61"/>
-      <c r="DJ65" s="60"/>
-      <c r="DK65" s="61"/>
-      <c r="DL65" s="61"/>
-      <c r="DM65" s="61"/>
-      <c r="DN65" s="61"/>
-      <c r="DO65" s="61"/>
-      <c r="DP65" s="60"/>
-      <c r="DQ65" s="61"/>
-      <c r="DR65" s="60"/>
-      <c r="DS65" s="61"/>
-      <c r="DT65" s="61"/>
-      <c r="DU65" s="61"/>
-      <c r="DV65" s="61"/>
-      <c r="DW65" s="60"/>
-      <c r="DX65" s="61"/>
-      <c r="DY65" s="60"/>
-      <c r="DZ65" s="61"/>
-      <c r="EA65" s="61"/>
-      <c r="EB65" s="61"/>
-      <c r="EC65" s="61"/>
-      <c r="ED65" s="61"/>
-      <c r="EE65" s="60"/>
-      <c r="EF65" s="61"/>
-      <c r="EG65" s="60"/>
-      <c r="EH65" s="61"/>
-      <c r="EI65" s="61"/>
-      <c r="EJ65" s="61"/>
-      <c r="EK65" s="61"/>
-      <c r="EL65" s="61"/>
-      <c r="EM65" s="60"/>
-      <c r="EN65" s="61"/>
-      <c r="EO65" s="60"/>
-      <c r="EP65" s="61"/>
-      <c r="EQ65" s="61"/>
-      <c r="ER65" s="61"/>
-      <c r="ES65" s="61"/>
-      <c r="ET65" s="61"/>
-      <c r="EU65" s="60"/>
-      <c r="EV65" s="61"/>
-      <c r="EW65" s="60"/>
-      <c r="EX65" s="61"/>
-      <c r="EY65" s="61"/>
-      <c r="EZ65" s="61"/>
-      <c r="FA65" s="61"/>
-      <c r="FB65" s="61"/>
-      <c r="FC65" s="60"/>
-      <c r="FD65" s="61"/>
-      <c r="FE65" s="60"/>
-      <c r="FF65" s="61"/>
-      <c r="FG65" s="61"/>
-      <c r="FH65" s="61"/>
-      <c r="FI65" s="61"/>
-      <c r="FJ65" s="60"/>
-      <c r="FK65" s="61"/>
-      <c r="FL65" s="60"/>
-      <c r="FM65" s="61"/>
-      <c r="FN65" s="61"/>
-      <c r="FO65" s="61"/>
-      <c r="FP65" s="61"/>
-      <c r="FQ65" s="61"/>
-      <c r="FR65" s="60"/>
-      <c r="FS65" s="61"/>
-      <c r="FT65" s="60"/>
-      <c r="FU65" s="61"/>
-      <c r="FV65" s="61"/>
-      <c r="FW65" s="61"/>
-      <c r="FX65" s="61"/>
-      <c r="FY65" s="61"/>
-      <c r="FZ65" s="60"/>
-      <c r="GA65" s="61"/>
-      <c r="GB65" s="60"/>
-      <c r="GC65" s="61"/>
-      <c r="GD65" s="61"/>
-      <c r="GE65" s="61"/>
-      <c r="GF65" s="61"/>
-      <c r="GG65" s="61"/>
-      <c r="GH65" s="60"/>
-      <c r="GI65" s="61"/>
-      <c r="GJ65" s="60"/>
-      <c r="GK65" s="61"/>
-      <c r="GL65" s="61"/>
-      <c r="GM65" s="61"/>
-      <c r="GN65" s="61"/>
-      <c r="GO65" s="61"/>
-      <c r="GP65" s="60"/>
-      <c r="GQ65" s="61"/>
-      <c r="GR65" s="60"/>
-      <c r="GS65" s="61"/>
-      <c r="GT65" s="61"/>
-      <c r="GU65" s="61"/>
-      <c r="GV65" s="61"/>
-      <c r="GW65" s="60"/>
-      <c r="GX65" s="61"/>
-      <c r="GY65" s="60"/>
-      <c r="GZ65" s="61"/>
-      <c r="HA65" s="61"/>
-      <c r="HB65" s="61"/>
-      <c r="HC65" s="61"/>
-      <c r="HD65" s="61"/>
-      <c r="HE65" s="60"/>
-      <c r="HF65" s="61"/>
-      <c r="HG65" s="60"/>
-      <c r="HH65" s="61"/>
-      <c r="HI65" s="61"/>
-      <c r="HJ65" s="61"/>
-      <c r="HK65" s="10"/>
-      <c r="HL65" s="10"/>
-      <c r="HM65" s="10"/>
-      <c r="HN65" s="10"/>
-      <c r="HO65" s="10"/>
-      <c r="HP65" s="10"/>
-      <c r="HQ65" s="10"/>
-      <c r="HR65" s="10"/>
-      <c r="HS65" s="10"/>
-      <c r="HT65" s="10"/>
-      <c r="HU65" s="10"/>
-      <c r="HV65" s="10"/>
-      <c r="HW65" s="10"/>
-      <c r="HX65" s="10"/>
-      <c r="HY65" s="10"/>
-      <c r="HZ65" s="10"/>
-      <c r="IA65" s="10"/>
-      <c r="IB65" s="10"/>
-      <c r="IC65" s="10"/>
-      <c r="ID65" s="10"/>
-      <c r="IE65" s="10"/>
-      <c r="IF65" s="10"/>
-    </row>
-    <row r="66" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="73"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="74">
-        <v>0</v>
-      </c>
-      <c r="H66" s="60"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="60"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="61"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="61"/>
-      <c r="U66" s="60"/>
-      <c r="V66" s="61"/>
-      <c r="W66" s="60"/>
-      <c r="X66" s="61"/>
-      <c r="Y66" s="61"/>
-      <c r="Z66" s="61"/>
-      <c r="AA66" s="61"/>
-      <c r="AB66" s="61"/>
-      <c r="AC66" s="60"/>
-      <c r="AD66" s="61"/>
-      <c r="AE66" s="60"/>
-      <c r="AF66" s="61"/>
-      <c r="AG66" s="60"/>
-      <c r="AH66" s="61"/>
-      <c r="AI66" s="61"/>
-      <c r="AK66" s="61"/>
-      <c r="AL66" s="61"/>
-      <c r="AM66" s="61"/>
-      <c r="AN66" s="61"/>
-      <c r="AO66" s="60"/>
-      <c r="AP66" s="61"/>
-      <c r="AQ66" s="60"/>
-      <c r="AR66" s="61"/>
-      <c r="AS66" s="61"/>
-      <c r="AT66" s="61"/>
-      <c r="AU66" s="61"/>
-      <c r="AV66" s="61"/>
-      <c r="AW66" s="60"/>
-      <c r="AX66" s="61"/>
-      <c r="AY66" s="60"/>
-      <c r="AZ66" s="61"/>
-      <c r="BA66" s="61"/>
-      <c r="BB66" s="61"/>
-      <c r="BC66" s="61"/>
-      <c r="BD66" s="61"/>
-      <c r="BE66" s="60"/>
-      <c r="BF66" s="61"/>
-      <c r="BG66" s="60"/>
-      <c r="BH66" s="61"/>
-      <c r="BI66" s="61"/>
-      <c r="BJ66" s="61"/>
-      <c r="BK66" s="61"/>
-      <c r="BL66" s="61"/>
-      <c r="BM66" s="60"/>
-      <c r="BN66" s="61"/>
-      <c r="BO66" s="60"/>
-      <c r="BP66" s="61"/>
-      <c r="BQ66" s="61"/>
-      <c r="BR66" s="61"/>
-      <c r="BS66" s="61"/>
-      <c r="BT66" s="61"/>
-      <c r="BU66" s="60"/>
-      <c r="BV66" s="61"/>
-      <c r="BW66" s="60"/>
-      <c r="BX66" s="61"/>
-      <c r="BY66" s="61"/>
-      <c r="BZ66" s="61"/>
-      <c r="CA66" s="61"/>
-      <c r="CB66" s="61"/>
-      <c r="CC66" s="60"/>
-      <c r="CD66" s="61"/>
-      <c r="CE66" s="60"/>
-      <c r="CF66" s="61"/>
-      <c r="CG66" s="61"/>
-      <c r="CH66" s="61"/>
-      <c r="CI66" s="61"/>
-      <c r="CJ66" s="60"/>
-      <c r="CK66" s="61"/>
-      <c r="CL66" s="60"/>
-      <c r="CM66" s="61"/>
-      <c r="CN66" s="61"/>
-      <c r="CO66" s="61"/>
-      <c r="CP66" s="61"/>
-      <c r="CQ66" s="61"/>
-      <c r="CR66" s="60"/>
-      <c r="CS66" s="61"/>
-      <c r="CT66" s="60"/>
-      <c r="CU66" s="61"/>
-      <c r="CV66" s="61"/>
-      <c r="CW66" s="61"/>
-      <c r="CX66" s="61"/>
-      <c r="CY66" s="61"/>
-      <c r="CZ66" s="60"/>
-      <c r="DA66" s="61"/>
-      <c r="DB66" s="60"/>
-      <c r="DC66" s="61"/>
-      <c r="DD66" s="61"/>
-      <c r="DE66" s="61"/>
-      <c r="DF66" s="61"/>
-      <c r="DG66" s="61"/>
-      <c r="DH66" s="60"/>
-      <c r="DI66" s="61"/>
-      <c r="DJ66" s="60"/>
-      <c r="DK66" s="61"/>
-      <c r="DL66" s="61"/>
-      <c r="DM66" s="61"/>
-      <c r="DN66" s="61"/>
-      <c r="DO66" s="61"/>
-      <c r="DP66" s="60"/>
-      <c r="DQ66" s="61"/>
-      <c r="DR66" s="60"/>
-      <c r="DS66" s="61"/>
-      <c r="DT66" s="61"/>
-      <c r="DU66" s="61"/>
-      <c r="DV66" s="61"/>
-      <c r="DW66" s="60"/>
-      <c r="DX66" s="61"/>
-      <c r="DY66" s="60"/>
-      <c r="DZ66" s="61"/>
-      <c r="EA66" s="61"/>
-      <c r="EB66" s="61"/>
-      <c r="EC66" s="61"/>
-      <c r="ED66" s="61"/>
-      <c r="EE66" s="60"/>
-      <c r="EF66" s="61"/>
-      <c r="EG66" s="60"/>
-      <c r="EH66" s="61"/>
-      <c r="EI66" s="61"/>
-      <c r="EJ66" s="61"/>
-      <c r="EK66" s="61"/>
-      <c r="EL66" s="61"/>
-      <c r="EM66" s="60"/>
-      <c r="EN66" s="61"/>
-      <c r="EO66" s="60"/>
-      <c r="EP66" s="61"/>
-      <c r="EQ66" s="61"/>
-      <c r="ER66" s="61"/>
-      <c r="ES66" s="61"/>
-      <c r="ET66" s="61"/>
-      <c r="EU66" s="60"/>
-      <c r="EV66" s="61"/>
-      <c r="EW66" s="60"/>
-      <c r="EX66" s="61"/>
-      <c r="EY66" s="61"/>
-      <c r="EZ66" s="61"/>
-      <c r="FA66" s="61"/>
-      <c r="FB66" s="61"/>
-      <c r="FC66" s="60"/>
-      <c r="FD66" s="61"/>
-      <c r="FE66" s="60"/>
-      <c r="FF66" s="61"/>
-      <c r="FG66" s="61"/>
-      <c r="FH66" s="61"/>
-      <c r="FI66" s="61"/>
-      <c r="FJ66" s="60"/>
-      <c r="FK66" s="61"/>
-      <c r="FL66" s="60"/>
-      <c r="FM66" s="61"/>
-      <c r="FN66" s="61"/>
-      <c r="FO66" s="61"/>
-      <c r="FP66" s="61"/>
-      <c r="FQ66" s="61"/>
-      <c r="FR66" s="60"/>
-      <c r="FS66" s="61"/>
-      <c r="FT66" s="60"/>
-      <c r="FU66" s="61"/>
-      <c r="FV66" s="61"/>
-      <c r="FW66" s="61"/>
-      <c r="FX66" s="61"/>
-      <c r="FY66" s="61"/>
-      <c r="FZ66" s="60"/>
-      <c r="GA66" s="61"/>
-      <c r="GB66" s="60"/>
-      <c r="GC66" s="61"/>
-      <c r="GD66" s="61"/>
-      <c r="GE66" s="61"/>
-      <c r="GF66" s="61"/>
-      <c r="GG66" s="61"/>
-      <c r="GH66" s="60"/>
-      <c r="GI66" s="61"/>
-      <c r="GJ66" s="60"/>
-      <c r="GK66" s="61"/>
-      <c r="GL66" s="61"/>
-      <c r="GM66" s="61"/>
-      <c r="GN66" s="61"/>
-      <c r="GO66" s="61"/>
-      <c r="GP66" s="60"/>
-      <c r="GQ66" s="61"/>
-      <c r="GR66" s="60"/>
-      <c r="GS66" s="61"/>
-      <c r="GT66" s="61"/>
-      <c r="GU66" s="61"/>
-      <c r="GV66" s="61"/>
-      <c r="GW66" s="60"/>
-      <c r="GX66" s="61"/>
-      <c r="GY66" s="60"/>
-      <c r="GZ66" s="61"/>
-      <c r="HA66" s="61"/>
-      <c r="HB66" s="61"/>
-      <c r="HC66" s="61"/>
-      <c r="HD66" s="61"/>
-      <c r="HE66" s="60"/>
-      <c r="HF66" s="61"/>
-      <c r="HG66" s="60"/>
-      <c r="HH66" s="61"/>
-      <c r="HI66" s="61"/>
-      <c r="HJ66" s="61"/>
-      <c r="HK66" s="10"/>
-      <c r="HL66" s="10"/>
-      <c r="HM66" s="10"/>
-      <c r="HN66" s="10"/>
-      <c r="HO66" s="10"/>
-      <c r="HP66" s="10"/>
-      <c r="HQ66" s="10"/>
-      <c r="HR66" s="10"/>
-      <c r="HS66" s="10"/>
-      <c r="HT66" s="10"/>
-      <c r="HU66" s="10"/>
-      <c r="HV66" s="10"/>
-      <c r="HW66" s="10"/>
-      <c r="HX66" s="10"/>
-      <c r="HY66" s="10"/>
-      <c r="HZ66" s="10"/>
-      <c r="IA66" s="10"/>
-      <c r="IB66" s="10"/>
-      <c r="IC66" s="10"/>
-      <c r="ID66" s="10"/>
-      <c r="IE66" s="10"/>
-      <c r="IF66" s="10"/>
-    </row>
-    <row r="67" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="61"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="60"/>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="61"/>
-      <c r="S67" s="61"/>
-      <c r="T67" s="61"/>
-      <c r="U67" s="60"/>
-      <c r="V67" s="61"/>
-      <c r="W67" s="60"/>
-      <c r="X67" s="61"/>
-      <c r="Y67" s="61"/>
-      <c r="Z67" s="61"/>
-      <c r="AA67" s="61"/>
-      <c r="AB67" s="61"/>
-      <c r="AC67" s="60"/>
-      <c r="AD67" s="61"/>
-      <c r="AE67" s="60"/>
-      <c r="AF67" s="61"/>
-      <c r="AG67" s="60"/>
-      <c r="AH67" s="61"/>
-      <c r="AI67" s="61"/>
-      <c r="AK67" s="61"/>
-      <c r="AL67" s="61"/>
-      <c r="AM67" s="61"/>
-      <c r="AN67" s="61"/>
-      <c r="AO67" s="60"/>
-      <c r="AP67" s="61"/>
-      <c r="AQ67" s="60"/>
-      <c r="AR67" s="61"/>
-      <c r="AS67" s="61"/>
-      <c r="AT67" s="61"/>
-      <c r="AU67" s="61"/>
-      <c r="AV67" s="61"/>
-      <c r="AW67" s="60"/>
-      <c r="AX67" s="61"/>
-      <c r="AY67" s="60"/>
-      <c r="AZ67" s="61"/>
-      <c r="BA67" s="61"/>
-      <c r="BB67" s="61"/>
-      <c r="BC67" s="61"/>
-      <c r="BD67" s="61"/>
-      <c r="BE67" s="60"/>
-      <c r="BF67" s="61"/>
-      <c r="BG67" s="60"/>
-      <c r="BH67" s="61"/>
-      <c r="BI67" s="61"/>
-      <c r="BJ67" s="61"/>
-      <c r="BK67" s="61"/>
-      <c r="BL67" s="61"/>
-      <c r="BM67" s="60"/>
-      <c r="BN67" s="61"/>
-      <c r="BO67" s="60"/>
-      <c r="BP67" s="61"/>
-      <c r="BQ67" s="61"/>
-      <c r="BR67" s="61"/>
-      <c r="BS67" s="61"/>
-      <c r="BT67" s="61"/>
-      <c r="BU67" s="60"/>
-      <c r="BV67" s="61"/>
-      <c r="BW67" s="60"/>
-      <c r="BX67" s="61"/>
-      <c r="BY67" s="61"/>
-      <c r="BZ67" s="61"/>
-      <c r="CA67" s="61"/>
-      <c r="CB67" s="61"/>
-      <c r="CC67" s="60"/>
-      <c r="CD67" s="61"/>
-      <c r="CE67" s="60"/>
-      <c r="CF67" s="61"/>
-      <c r="CG67" s="61"/>
-      <c r="CH67" s="61"/>
-      <c r="CI67" s="61"/>
-      <c r="CJ67" s="60"/>
-      <c r="CK67" s="61"/>
-      <c r="CL67" s="60"/>
-      <c r="CM67" s="61"/>
-      <c r="CN67" s="61"/>
-      <c r="CO67" s="61"/>
-      <c r="CP67" s="61"/>
-      <c r="CQ67" s="61"/>
-      <c r="CR67" s="60"/>
-      <c r="CS67" s="61"/>
-      <c r="CT67" s="60"/>
-      <c r="CU67" s="61"/>
-      <c r="CV67" s="61"/>
-      <c r="CW67" s="61"/>
-      <c r="CX67" s="61"/>
-      <c r="CY67" s="61"/>
-      <c r="CZ67" s="60"/>
-      <c r="DA67" s="61"/>
-      <c r="DB67" s="60"/>
-      <c r="DC67" s="61"/>
-      <c r="DD67" s="61"/>
-      <c r="DE67" s="61"/>
-      <c r="DF67" s="61"/>
-      <c r="DG67" s="61"/>
-      <c r="DH67" s="60"/>
-      <c r="DI67" s="61"/>
-      <c r="DJ67" s="60"/>
-      <c r="DK67" s="61"/>
-      <c r="DL67" s="61"/>
-      <c r="DM67" s="61"/>
-      <c r="DN67" s="61"/>
-      <c r="DO67" s="61"/>
-      <c r="DP67" s="60"/>
-      <c r="DQ67" s="61"/>
-      <c r="DR67" s="60"/>
-      <c r="DS67" s="61"/>
-      <c r="DT67" s="61"/>
-      <c r="DU67" s="61"/>
-      <c r="DV67" s="61"/>
-      <c r="DW67" s="60"/>
-      <c r="DX67" s="61"/>
-      <c r="DY67" s="60"/>
-      <c r="DZ67" s="61"/>
-      <c r="EA67" s="61"/>
-      <c r="EB67" s="61"/>
-      <c r="EC67" s="61"/>
-      <c r="ED67" s="61"/>
-      <c r="EE67" s="60"/>
-      <c r="EF67" s="61"/>
-      <c r="EG67" s="60"/>
-      <c r="EH67" s="61"/>
-      <c r="EI67" s="61"/>
-      <c r="EJ67" s="61"/>
-      <c r="EK67" s="61"/>
-      <c r="EL67" s="61"/>
-      <c r="EM67" s="60"/>
-      <c r="EN67" s="61"/>
-      <c r="EO67" s="60"/>
-      <c r="EP67" s="61"/>
-      <c r="EQ67" s="61"/>
-      <c r="ER67" s="61"/>
-      <c r="ES67" s="61"/>
-      <c r="ET67" s="61"/>
-      <c r="EU67" s="60"/>
-      <c r="EV67" s="61"/>
-      <c r="EW67" s="60"/>
-      <c r="EX67" s="61"/>
-      <c r="EY67" s="61"/>
-      <c r="EZ67" s="61"/>
-      <c r="FA67" s="61"/>
-      <c r="FB67" s="61"/>
-      <c r="FC67" s="60"/>
-      <c r="FD67" s="61"/>
-      <c r="FE67" s="60"/>
-      <c r="FF67" s="61"/>
-      <c r="FG67" s="61"/>
-      <c r="FH67" s="61"/>
-      <c r="FI67" s="61"/>
-      <c r="FJ67" s="60"/>
-      <c r="FK67" s="61"/>
-      <c r="FL67" s="60"/>
-      <c r="FM67" s="61"/>
-      <c r="FN67" s="61"/>
-      <c r="FO67" s="61"/>
-      <c r="FP67" s="61"/>
-      <c r="FQ67" s="61"/>
-      <c r="FR67" s="60"/>
-      <c r="FS67" s="61"/>
-      <c r="FT67" s="60"/>
-      <c r="FU67" s="61"/>
-      <c r="FV67" s="61"/>
-      <c r="FW67" s="61"/>
-      <c r="FX67" s="61"/>
-      <c r="FY67" s="61"/>
-      <c r="FZ67" s="60"/>
-      <c r="GA67" s="61"/>
-      <c r="GB67" s="60"/>
-      <c r="GC67" s="61"/>
-      <c r="GD67" s="61"/>
-      <c r="GE67" s="61"/>
-      <c r="GF67" s="61"/>
-      <c r="GG67" s="61"/>
-      <c r="GH67" s="60"/>
-      <c r="GI67" s="61"/>
-      <c r="GJ67" s="60"/>
-      <c r="GK67" s="61"/>
-      <c r="GL67" s="61"/>
-      <c r="GM67" s="61"/>
-      <c r="GN67" s="61"/>
-      <c r="GO67" s="61"/>
-      <c r="GP67" s="60"/>
-      <c r="GQ67" s="61"/>
-      <c r="GR67" s="60"/>
-      <c r="GS67" s="61"/>
-      <c r="GT67" s="61"/>
-      <c r="GU67" s="61"/>
-      <c r="GV67" s="61"/>
-      <c r="GW67" s="60"/>
-      <c r="GX67" s="61"/>
-      <c r="GY67" s="60"/>
-      <c r="GZ67" s="61"/>
-      <c r="HA67" s="61"/>
-      <c r="HB67" s="61"/>
-      <c r="HC67" s="61"/>
-      <c r="HD67" s="61"/>
-      <c r="HE67" s="60"/>
-      <c r="HF67" s="61"/>
-      <c r="HG67" s="60"/>
-      <c r="HH67" s="61"/>
-      <c r="HI67" s="61"/>
-      <c r="HJ67" s="61"/>
-      <c r="HK67" s="10"/>
-      <c r="HL67" s="10"/>
-      <c r="HM67" s="10"/>
-      <c r="HN67" s="10"/>
-      <c r="HO67" s="10"/>
-      <c r="HP67" s="10"/>
-      <c r="HQ67" s="10"/>
-      <c r="HR67" s="10"/>
-      <c r="HS67" s="10"/>
-      <c r="HT67" s="10"/>
-      <c r="HU67" s="10"/>
-      <c r="HV67" s="10"/>
-      <c r="HW67" s="10"/>
-      <c r="HX67" s="10"/>
-      <c r="HY67" s="10"/>
-      <c r="HZ67" s="10"/>
-      <c r="IA67" s="10"/>
-      <c r="IB67" s="10"/>
-      <c r="IC67" s="10"/>
-      <c r="ID67" s="10"/>
-      <c r="IE67" s="10"/>
-      <c r="IF67" s="10"/>
-    </row>
-    <row r="68" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="61"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="60"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="61"/>
-      <c r="S68" s="61"/>
-      <c r="T68" s="61"/>
-      <c r="U68" s="60"/>
-      <c r="V68" s="61"/>
-      <c r="W68" s="60"/>
-      <c r="X68" s="61"/>
-      <c r="Y68" s="61"/>
-      <c r="Z68" s="61"/>
-      <c r="AA68" s="61"/>
-      <c r="AB68" s="61"/>
-      <c r="AC68" s="60"/>
-      <c r="AD68" s="61"/>
-      <c r="AE68" s="60"/>
-      <c r="AF68" s="61"/>
-      <c r="AG68" s="60"/>
-      <c r="AH68" s="61"/>
-      <c r="AI68" s="61"/>
-      <c r="AK68" s="61"/>
-      <c r="AL68" s="61"/>
-      <c r="AM68" s="61"/>
-      <c r="AN68" s="61"/>
-      <c r="AO68" s="60"/>
-      <c r="AP68" s="61"/>
-      <c r="AQ68" s="60"/>
-      <c r="AR68" s="61"/>
-      <c r="AS68" s="61"/>
-      <c r="AT68" s="61"/>
-      <c r="AU68" s="61"/>
-      <c r="AV68" s="61"/>
-      <c r="AW68" s="60"/>
-      <c r="AX68" s="61"/>
-      <c r="AY68" s="60"/>
-      <c r="AZ68" s="61"/>
-      <c r="BA68" s="61"/>
-      <c r="BB68" s="61"/>
-      <c r="BC68" s="61"/>
-      <c r="BD68" s="61"/>
-      <c r="BE68" s="60"/>
-      <c r="BF68" s="61"/>
-      <c r="BG68" s="60"/>
-      <c r="BH68" s="61"/>
-      <c r="BI68" s="61"/>
-      <c r="BJ68" s="61"/>
-      <c r="BK68" s="61"/>
-      <c r="BL68" s="61"/>
-      <c r="BM68" s="60"/>
-      <c r="BN68" s="61"/>
-      <c r="BO68" s="60"/>
-      <c r="BP68" s="61"/>
-      <c r="BQ68" s="61"/>
-      <c r="BR68" s="61"/>
-      <c r="BS68" s="61"/>
-      <c r="BT68" s="61"/>
-      <c r="BU68" s="60"/>
-      <c r="BV68" s="61"/>
-      <c r="BW68" s="60"/>
-      <c r="BX68" s="61"/>
-      <c r="BY68" s="61"/>
-      <c r="BZ68" s="61"/>
-      <c r="CA68" s="61"/>
-      <c r="CB68" s="61"/>
-      <c r="CC68" s="60"/>
-      <c r="CD68" s="61"/>
-      <c r="CE68" s="60"/>
-      <c r="CF68" s="61"/>
-      <c r="CG68" s="61"/>
-      <c r="CH68" s="61"/>
-      <c r="CI68" s="61"/>
-      <c r="CJ68" s="60"/>
-      <c r="CK68" s="61"/>
-      <c r="CL68" s="60"/>
-      <c r="CM68" s="61"/>
-      <c r="CN68" s="61"/>
-      <c r="CO68" s="61"/>
-      <c r="CP68" s="61"/>
-      <c r="CQ68" s="61"/>
-      <c r="CR68" s="60"/>
-      <c r="CS68" s="61"/>
-      <c r="CT68" s="60"/>
-      <c r="CU68" s="61"/>
-      <c r="CV68" s="61"/>
-      <c r="CW68" s="61"/>
-      <c r="CX68" s="61"/>
-      <c r="CY68" s="61"/>
-      <c r="CZ68" s="60"/>
-      <c r="DA68" s="61"/>
-      <c r="DB68" s="60"/>
-      <c r="DC68" s="61"/>
-      <c r="DD68" s="61"/>
-      <c r="DE68" s="61"/>
-      <c r="DF68" s="61"/>
-      <c r="DG68" s="61"/>
-      <c r="DH68" s="60"/>
-      <c r="DI68" s="61"/>
-      <c r="DJ68" s="60"/>
-      <c r="DK68" s="61"/>
-      <c r="DL68" s="61"/>
-      <c r="DM68" s="61"/>
-      <c r="DN68" s="61"/>
-      <c r="DO68" s="61"/>
-      <c r="DP68" s="60"/>
-      <c r="DQ68" s="61"/>
-      <c r="DR68" s="60"/>
-      <c r="DS68" s="61"/>
-      <c r="DT68" s="61"/>
-      <c r="DU68" s="61"/>
-      <c r="DV68" s="61"/>
-      <c r="DW68" s="60"/>
-      <c r="DX68" s="61"/>
-      <c r="DY68" s="60"/>
-      <c r="DZ68" s="61"/>
-      <c r="EA68" s="61"/>
-      <c r="EB68" s="61"/>
-      <c r="EC68" s="61"/>
-      <c r="ED68" s="61"/>
-      <c r="EE68" s="60"/>
-      <c r="EF68" s="61"/>
-      <c r="EG68" s="60"/>
-      <c r="EH68" s="61"/>
-      <c r="EI68" s="61"/>
-      <c r="EJ68" s="61"/>
-      <c r="EK68" s="61"/>
-      <c r="EL68" s="61"/>
-      <c r="EM68" s="60"/>
-      <c r="EN68" s="61"/>
-      <c r="EO68" s="60"/>
-      <c r="EP68" s="61"/>
-      <c r="EQ68" s="61"/>
-      <c r="ER68" s="61"/>
-      <c r="ES68" s="61"/>
-      <c r="ET68" s="61"/>
-      <c r="EU68" s="60"/>
-      <c r="EV68" s="61"/>
-      <c r="EW68" s="60"/>
-      <c r="EX68" s="61"/>
-      <c r="EY68" s="61"/>
-      <c r="EZ68" s="61"/>
-      <c r="FA68" s="61"/>
-      <c r="FB68" s="61"/>
-      <c r="FC68" s="60"/>
-      <c r="FD68" s="61"/>
-      <c r="FE68" s="60"/>
-      <c r="FF68" s="61"/>
-      <c r="FG68" s="61"/>
-      <c r="FH68" s="61"/>
-      <c r="FI68" s="61"/>
-      <c r="FJ68" s="60"/>
-      <c r="FK68" s="61"/>
-      <c r="FL68" s="60"/>
-      <c r="FM68" s="61"/>
-      <c r="FN68" s="61"/>
-      <c r="FO68" s="61"/>
-      <c r="FP68" s="61"/>
-      <c r="FQ68" s="61"/>
-      <c r="FR68" s="60"/>
-      <c r="FS68" s="61"/>
-      <c r="FT68" s="60"/>
-      <c r="FU68" s="61"/>
-      <c r="FV68" s="61"/>
-      <c r="FW68" s="61"/>
-      <c r="FX68" s="61"/>
-      <c r="FY68" s="61"/>
-      <c r="FZ68" s="60"/>
-      <c r="GA68" s="61"/>
-      <c r="GB68" s="60"/>
-      <c r="GC68" s="61"/>
-      <c r="GD68" s="61"/>
-      <c r="GE68" s="61"/>
-      <c r="GF68" s="61"/>
-      <c r="GG68" s="61"/>
-      <c r="GH68" s="60"/>
-      <c r="GI68" s="61"/>
-      <c r="GJ68" s="60"/>
-      <c r="GK68" s="61"/>
-      <c r="GL68" s="61"/>
-      <c r="GM68" s="61"/>
-      <c r="GN68" s="61"/>
-      <c r="GO68" s="61"/>
-      <c r="GP68" s="60"/>
-      <c r="GQ68" s="61"/>
-      <c r="GR68" s="60"/>
-      <c r="GS68" s="61"/>
-      <c r="GT68" s="61"/>
-      <c r="GU68" s="61"/>
-      <c r="GV68" s="61"/>
-      <c r="GW68" s="60"/>
-      <c r="GX68" s="61"/>
-      <c r="GY68" s="60"/>
-      <c r="GZ68" s="61"/>
-      <c r="HA68" s="61"/>
-      <c r="HB68" s="61"/>
-      <c r="HC68" s="61"/>
-      <c r="HD68" s="61"/>
-      <c r="HE68" s="60"/>
-      <c r="HF68" s="61"/>
-      <c r="HG68" s="60"/>
-      <c r="HH68" s="61"/>
-      <c r="HI68" s="61"/>
-      <c r="HJ68" s="61"/>
-      <c r="HK68" s="10"/>
-      <c r="HL68" s="10"/>
-      <c r="HM68" s="10"/>
-      <c r="HN68" s="10"/>
-      <c r="HO68" s="10"/>
-      <c r="HP68" s="10"/>
-      <c r="HQ68" s="10"/>
-      <c r="HR68" s="10"/>
-      <c r="HS68" s="10"/>
-      <c r="HT68" s="10"/>
-      <c r="HU68" s="10"/>
-      <c r="HV68" s="10"/>
-      <c r="HW68" s="10"/>
-      <c r="HX68" s="10"/>
-      <c r="HY68" s="10"/>
-      <c r="HZ68" s="10"/>
-      <c r="IA68" s="10"/>
-      <c r="IB68" s="10"/>
-      <c r="IC68" s="10"/>
-      <c r="ID68" s="10"/>
-      <c r="IE68" s="10"/>
-      <c r="IF68" s="10"/>
-    </row>
-    <row r="69" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="71"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="72">
-        <v>0</v>
-      </c>
-      <c r="H69" s="60"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="61"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="60"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="61"/>
-      <c r="S69" s="61"/>
-      <c r="T69" s="61"/>
-      <c r="U69" s="60"/>
-      <c r="V69" s="61"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="61"/>
-      <c r="Z69" s="61"/>
-      <c r="AA69" s="61"/>
-      <c r="AB69" s="61"/>
-      <c r="AC69" s="60"/>
-      <c r="AD69" s="61"/>
-      <c r="AE69" s="60"/>
-      <c r="AF69" s="61"/>
-      <c r="AG69" s="60"/>
-      <c r="AH69" s="61"/>
-      <c r="AI69" s="61"/>
-      <c r="AK69" s="61"/>
-      <c r="AL69" s="61"/>
-      <c r="AM69" s="61"/>
-      <c r="AN69" s="61"/>
-      <c r="AO69" s="60"/>
-      <c r="AP69" s="61"/>
-      <c r="AQ69" s="60"/>
-      <c r="AR69" s="61"/>
-      <c r="AS69" s="61"/>
-      <c r="AT69" s="61"/>
-      <c r="AU69" s="61"/>
-      <c r="AV69" s="61"/>
-      <c r="AW69" s="60"/>
-      <c r="AX69" s="61"/>
-      <c r="AY69" s="60"/>
-      <c r="AZ69" s="61"/>
-      <c r="BA69" s="61"/>
-      <c r="BB69" s="61"/>
-      <c r="BC69" s="61"/>
-      <c r="BD69" s="61"/>
-      <c r="BE69" s="60"/>
-      <c r="BF69" s="61"/>
-      <c r="BG69" s="60"/>
-      <c r="BH69" s="61"/>
-      <c r="BI69" s="61"/>
-      <c r="BJ69" s="61"/>
-      <c r="BK69" s="61"/>
-      <c r="BL69" s="61"/>
-      <c r="BM69" s="60"/>
-      <c r="BN69" s="61"/>
-      <c r="BO69" s="60"/>
-      <c r="BP69" s="61"/>
-      <c r="BQ69" s="61"/>
-      <c r="BR69" s="61"/>
-      <c r="BS69" s="61"/>
-      <c r="BT69" s="61"/>
-      <c r="BU69" s="60"/>
-      <c r="BV69" s="61"/>
-      <c r="BW69" s="60"/>
-      <c r="BX69" s="61"/>
-      <c r="BY69" s="61"/>
-      <c r="BZ69" s="61"/>
-      <c r="CA69" s="61"/>
-      <c r="CB69" s="61"/>
-      <c r="CC69" s="60"/>
-      <c r="CD69" s="61"/>
-      <c r="CE69" s="60"/>
-      <c r="CF69" s="61"/>
-      <c r="CG69" s="61"/>
-      <c r="CH69" s="61"/>
-      <c r="CI69" s="61"/>
-      <c r="CJ69" s="60"/>
-      <c r="CK69" s="61"/>
-      <c r="CL69" s="60"/>
-      <c r="CM69" s="61"/>
-      <c r="CN69" s="61"/>
-      <c r="CO69" s="61"/>
-      <c r="CP69" s="61"/>
-      <c r="CQ69" s="61"/>
-      <c r="CR69" s="60"/>
-      <c r="CS69" s="61"/>
-      <c r="CT69" s="60"/>
-      <c r="CU69" s="61"/>
-      <c r="CV69" s="61"/>
-      <c r="CW69" s="61"/>
-      <c r="CX69" s="61"/>
-      <c r="CY69" s="61"/>
-      <c r="CZ69" s="60"/>
-      <c r="DA69" s="61"/>
-      <c r="DB69" s="60"/>
-      <c r="DC69" s="61"/>
-      <c r="DD69" s="61"/>
-      <c r="DE69" s="61"/>
-      <c r="DF69" s="61"/>
-      <c r="DG69" s="61"/>
-      <c r="DH69" s="60"/>
-      <c r="DI69" s="61"/>
-      <c r="DJ69" s="60"/>
-      <c r="DK69" s="61"/>
-      <c r="DL69" s="61"/>
-      <c r="DM69" s="61"/>
-      <c r="DN69" s="61"/>
-      <c r="DO69" s="61"/>
-      <c r="DP69" s="60"/>
-      <c r="DQ69" s="61"/>
-      <c r="DR69" s="60"/>
-      <c r="DS69" s="61"/>
-      <c r="DT69" s="61"/>
-      <c r="DU69" s="61"/>
-      <c r="DV69" s="61"/>
-      <c r="DW69" s="60"/>
-      <c r="DX69" s="61"/>
-      <c r="DY69" s="60"/>
-      <c r="DZ69" s="61"/>
-      <c r="EA69" s="61"/>
-      <c r="EB69" s="61"/>
-      <c r="EC69" s="61"/>
-      <c r="ED69" s="61"/>
-      <c r="EE69" s="60"/>
-      <c r="EF69" s="61"/>
-      <c r="EG69" s="60"/>
-      <c r="EH69" s="61"/>
-      <c r="EI69" s="61"/>
-      <c r="EJ69" s="61"/>
-      <c r="EK69" s="61"/>
-      <c r="EL69" s="61"/>
-      <c r="EM69" s="60"/>
-      <c r="EN69" s="61"/>
-      <c r="EO69" s="60"/>
-      <c r="EP69" s="61"/>
-      <c r="EQ69" s="61"/>
-      <c r="ER69" s="61"/>
-      <c r="ES69" s="61"/>
-      <c r="ET69" s="61"/>
-      <c r="EU69" s="60"/>
-      <c r="EV69" s="61"/>
-      <c r="EW69" s="60"/>
-      <c r="EX69" s="61"/>
-      <c r="EY69" s="61"/>
-      <c r="EZ69" s="61"/>
-      <c r="FA69" s="61"/>
-      <c r="FB69" s="61"/>
-      <c r="FC69" s="60"/>
-      <c r="FD69" s="61"/>
-      <c r="FE69" s="60"/>
-      <c r="FF69" s="61"/>
-      <c r="FG69" s="61"/>
-      <c r="FH69" s="61"/>
-      <c r="FI69" s="61"/>
-      <c r="FJ69" s="60"/>
-      <c r="FK69" s="61"/>
-      <c r="FL69" s="60"/>
-      <c r="FM69" s="61"/>
-      <c r="FN69" s="61"/>
-      <c r="FO69" s="61"/>
-      <c r="FP69" s="61"/>
-      <c r="FQ69" s="61"/>
-      <c r="FR69" s="60"/>
-      <c r="FS69" s="61"/>
-      <c r="FT69" s="60"/>
-      <c r="FU69" s="61"/>
-      <c r="FV69" s="61"/>
-      <c r="FW69" s="61"/>
-      <c r="FX69" s="61"/>
-      <c r="FY69" s="61"/>
-      <c r="FZ69" s="60"/>
-      <c r="GA69" s="61"/>
-      <c r="GB69" s="60"/>
-      <c r="GC69" s="61"/>
-      <c r="GD69" s="61"/>
-      <c r="GE69" s="61"/>
-      <c r="GF69" s="61"/>
-      <c r="GG69" s="61"/>
-      <c r="GH69" s="60"/>
-      <c r="GI69" s="61"/>
-      <c r="GJ69" s="60"/>
-      <c r="GK69" s="61"/>
-      <c r="GL69" s="61"/>
-      <c r="GM69" s="61"/>
-      <c r="GN69" s="61"/>
-      <c r="GO69" s="61"/>
-      <c r="GP69" s="60"/>
-      <c r="GQ69" s="61"/>
-      <c r="GR69" s="60"/>
-      <c r="GS69" s="61"/>
-      <c r="GT69" s="61"/>
-      <c r="GU69" s="61"/>
-      <c r="GV69" s="61"/>
-      <c r="GW69" s="60"/>
-      <c r="GX69" s="61"/>
-      <c r="GY69" s="60"/>
-      <c r="GZ69" s="61"/>
-      <c r="HA69" s="61"/>
-      <c r="HB69" s="61"/>
-      <c r="HC69" s="61"/>
-      <c r="HD69" s="61"/>
-      <c r="HE69" s="60"/>
-      <c r="HF69" s="61"/>
-      <c r="HG69" s="60"/>
-      <c r="HH69" s="61"/>
-      <c r="HI69" s="61"/>
-      <c r="HJ69" s="61"/>
-      <c r="HK69" s="10"/>
-      <c r="HL69" s="10"/>
-      <c r="HM69" s="10"/>
-      <c r="HN69" s="10"/>
-      <c r="HO69" s="10"/>
-      <c r="HP69" s="10"/>
-      <c r="HQ69" s="10"/>
-      <c r="HR69" s="10"/>
-      <c r="HS69" s="10"/>
-      <c r="HT69" s="10"/>
-      <c r="HU69" s="10"/>
-      <c r="HV69" s="10"/>
-      <c r="HW69" s="10"/>
-      <c r="HX69" s="10"/>
-      <c r="HY69" s="10"/>
-      <c r="HZ69" s="10"/>
-      <c r="IA69" s="10"/>
-      <c r="IB69" s="10"/>
-      <c r="IC69" s="10"/>
-      <c r="ID69" s="10"/>
-      <c r="IE69" s="10"/>
-      <c r="IF69" s="10"/>
-    </row>
-    <row r="70" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="60"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="60"/>
-      <c r="P70" s="61"/>
-      <c r="Q70" s="61"/>
-      <c r="R70" s="61"/>
-      <c r="S70" s="61"/>
-      <c r="T70" s="61"/>
-      <c r="U70" s="60"/>
-      <c r="V70" s="61"/>
-      <c r="W70" s="60"/>
-      <c r="X70" s="61"/>
-      <c r="Y70" s="61"/>
-      <c r="Z70" s="61"/>
-      <c r="AA70" s="61"/>
-      <c r="AB70" s="61"/>
-      <c r="AC70" s="60"/>
-      <c r="AD70" s="61"/>
-      <c r="AE70" s="60"/>
-      <c r="AF70" s="61"/>
-      <c r="AG70" s="60"/>
-      <c r="AH70" s="61"/>
-      <c r="AI70" s="61"/>
-      <c r="AK70" s="61"/>
-      <c r="AL70" s="61"/>
-      <c r="AM70" s="61"/>
-      <c r="AN70" s="61"/>
-      <c r="AO70" s="60"/>
-      <c r="AP70" s="61"/>
-      <c r="AQ70" s="60"/>
-      <c r="AR70" s="61"/>
-      <c r="AS70" s="61"/>
-      <c r="AT70" s="61"/>
-      <c r="AU70" s="61"/>
-      <c r="AV70" s="61"/>
-      <c r="AW70" s="60"/>
-      <c r="AX70" s="61"/>
-      <c r="AY70" s="60"/>
-      <c r="AZ70" s="61"/>
-      <c r="BA70" s="61"/>
-      <c r="BB70" s="61"/>
-      <c r="BC70" s="61"/>
-      <c r="BD70" s="61"/>
-      <c r="BE70" s="60"/>
-      <c r="BF70" s="61"/>
-      <c r="BG70" s="60"/>
-      <c r="BH70" s="61"/>
-      <c r="BI70" s="61"/>
-      <c r="BJ70" s="61"/>
-      <c r="BK70" s="61"/>
-      <c r="BL70" s="61"/>
-      <c r="BM70" s="60"/>
-      <c r="BN70" s="61"/>
-      <c r="BO70" s="60"/>
-      <c r="BP70" s="61"/>
-      <c r="BQ70" s="61"/>
-      <c r="BR70" s="61"/>
-      <c r="BS70" s="61"/>
-      <c r="BT70" s="61"/>
-      <c r="BU70" s="60"/>
-      <c r="BV70" s="61"/>
-      <c r="BW70" s="60"/>
-      <c r="BX70" s="61"/>
-      <c r="BY70" s="61"/>
-      <c r="BZ70" s="61"/>
-      <c r="CA70" s="61"/>
-      <c r="CB70" s="61"/>
-      <c r="CC70" s="60"/>
-      <c r="CD70" s="61"/>
-      <c r="CE70" s="60"/>
-      <c r="CF70" s="61"/>
-      <c r="CG70" s="61"/>
-      <c r="CH70" s="61"/>
-      <c r="CI70" s="61"/>
-      <c r="CJ70" s="60"/>
-      <c r="CK70" s="61"/>
-      <c r="CL70" s="60"/>
-      <c r="CM70" s="61"/>
-      <c r="CN70" s="61"/>
-      <c r="CO70" s="61"/>
-      <c r="CP70" s="61"/>
-      <c r="CQ70" s="61"/>
-      <c r="CR70" s="60"/>
-      <c r="CS70" s="61"/>
-      <c r="CT70" s="60"/>
-      <c r="CU70" s="61"/>
-      <c r="CV70" s="61"/>
-      <c r="CW70" s="61"/>
-      <c r="CX70" s="61"/>
-      <c r="CY70" s="61"/>
-      <c r="CZ70" s="60"/>
-      <c r="DA70" s="61"/>
-      <c r="DB70" s="60"/>
-      <c r="DC70" s="61"/>
-      <c r="DD70" s="61"/>
-      <c r="DE70" s="61"/>
-      <c r="DF70" s="61"/>
-      <c r="DG70" s="61"/>
-      <c r="DH70" s="60"/>
-      <c r="DI70" s="61"/>
-      <c r="DJ70" s="60"/>
-      <c r="DK70" s="61"/>
-      <c r="DL70" s="61"/>
-      <c r="DM70" s="61"/>
-      <c r="DN70" s="61"/>
-      <c r="DO70" s="61"/>
-      <c r="DP70" s="60"/>
-      <c r="DQ70" s="61"/>
-      <c r="DR70" s="60"/>
-      <c r="DS70" s="61"/>
-      <c r="DT70" s="61"/>
-      <c r="DU70" s="61"/>
-      <c r="DV70" s="61"/>
-      <c r="DW70" s="60"/>
-      <c r="DX70" s="61"/>
-      <c r="DY70" s="60"/>
-      <c r="DZ70" s="61"/>
-      <c r="EA70" s="61"/>
-      <c r="EB70" s="61"/>
-      <c r="EC70" s="61"/>
-      <c r="ED70" s="61"/>
-      <c r="EE70" s="60"/>
-      <c r="EF70" s="61"/>
-      <c r="EG70" s="60"/>
-      <c r="EH70" s="61"/>
-      <c r="EI70" s="61"/>
-      <c r="EJ70" s="61"/>
-      <c r="EK70" s="61"/>
-      <c r="EL70" s="61"/>
-      <c r="EM70" s="60"/>
-      <c r="EN70" s="61"/>
-      <c r="EO70" s="60"/>
-      <c r="EP70" s="61"/>
-      <c r="EQ70" s="61"/>
-      <c r="ER70" s="61"/>
-      <c r="ES70" s="61"/>
-      <c r="ET70" s="61"/>
-      <c r="EU70" s="60"/>
-      <c r="EV70" s="61"/>
-      <c r="EW70" s="60"/>
-      <c r="EX70" s="61"/>
-      <c r="EY70" s="61"/>
-      <c r="EZ70" s="61"/>
-      <c r="FA70" s="61"/>
-      <c r="FB70" s="61"/>
-      <c r="FC70" s="60"/>
-      <c r="FD70" s="61"/>
-      <c r="FE70" s="60"/>
-      <c r="FF70" s="61"/>
-      <c r="FG70" s="61"/>
-      <c r="FH70" s="61"/>
-      <c r="FI70" s="61"/>
-      <c r="FJ70" s="60"/>
-      <c r="FK70" s="61"/>
-      <c r="FL70" s="60"/>
-      <c r="FM70" s="61"/>
-      <c r="FN70" s="61"/>
-      <c r="FO70" s="61"/>
-      <c r="FP70" s="61"/>
-      <c r="FQ70" s="61"/>
-      <c r="FR70" s="60"/>
-      <c r="FS70" s="61"/>
-      <c r="FT70" s="60"/>
-      <c r="FU70" s="61"/>
-      <c r="FV70" s="61"/>
-      <c r="FW70" s="61"/>
-      <c r="FX70" s="61"/>
-      <c r="FY70" s="61"/>
-      <c r="FZ70" s="60"/>
-      <c r="GA70" s="61"/>
-      <c r="GB70" s="60"/>
-      <c r="GC70" s="61"/>
-      <c r="GD70" s="61"/>
-      <c r="GE70" s="61"/>
-      <c r="GF70" s="61"/>
-      <c r="GG70" s="61"/>
-      <c r="GH70" s="60"/>
-      <c r="GI70" s="61"/>
-      <c r="GJ70" s="60"/>
-      <c r="GK70" s="61"/>
-      <c r="GL70" s="61"/>
-      <c r="GM70" s="61"/>
-      <c r="GN70" s="61"/>
-      <c r="GO70" s="61"/>
-      <c r="GP70" s="60"/>
-      <c r="GQ70" s="61"/>
-      <c r="GR70" s="60"/>
-      <c r="GS70" s="61"/>
-      <c r="GT70" s="61"/>
-      <c r="GU70" s="61"/>
-      <c r="GV70" s="61"/>
-      <c r="GW70" s="60"/>
-      <c r="GX70" s="61"/>
-      <c r="GY70" s="60"/>
-      <c r="GZ70" s="61"/>
-      <c r="HA70" s="61"/>
-      <c r="HB70" s="61"/>
-      <c r="HC70" s="61"/>
-      <c r="HD70" s="61"/>
-      <c r="HE70" s="60"/>
-      <c r="HF70" s="61"/>
-      <c r="HG70" s="60"/>
-      <c r="HH70" s="61"/>
-      <c r="HI70" s="61"/>
-      <c r="HJ70" s="61"/>
-      <c r="HK70" s="10"/>
-      <c r="HL70" s="10"/>
-      <c r="HM70" s="10"/>
-      <c r="HN70" s="10"/>
-      <c r="HO70" s="10"/>
-      <c r="HP70" s="10"/>
-      <c r="HQ70" s="10"/>
-      <c r="HR70" s="10"/>
-      <c r="HS70" s="10"/>
-      <c r="HT70" s="10"/>
-      <c r="HU70" s="10"/>
-      <c r="HV70" s="10"/>
-      <c r="HW70" s="10"/>
-      <c r="HX70" s="10"/>
-      <c r="HY70" s="10"/>
-      <c r="HZ70" s="10"/>
-      <c r="IA70" s="10"/>
-      <c r="IB70" s="10"/>
-      <c r="IC70" s="10"/>
-      <c r="ID70" s="10"/>
-      <c r="IE70" s="10"/>
-      <c r="IF70" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
+  <mergeCells count="58">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E14"/>
@@ -17954,34 +16227,30 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="C52:D53"/>
   </mergeCells>
   <conditionalFormatting sqref="G7">
     <cfRule type="dataBar" priority="27">
@@ -18095,21 +16364,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C004DD3F-C5FD-4042-B414-93CED9F713A8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G26">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18123,7 +16378,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G28">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18137,7 +16392,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G30">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18151,7 +16406,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
+  <conditionalFormatting sqref="G32">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18165,7 +16420,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G34">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18179,7 +16434,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
+  <conditionalFormatting sqref="G36">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18193,7 +16448,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="G38">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18207,7 +16462,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
+  <conditionalFormatting sqref="G40">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18221,7 +16476,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="G42">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18235,7 +16490,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
+  <conditionalFormatting sqref="G44">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18249,7 +16504,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
+  <conditionalFormatting sqref="G46">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18263,7 +16518,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
+  <conditionalFormatting sqref="G48">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18277,7 +16532,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
+  <conditionalFormatting sqref="G50">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18291,7 +16546,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
+  <conditionalFormatting sqref="G52">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18305,7 +16560,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
+  <conditionalFormatting sqref="G54">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18319,7 +16574,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
+  <conditionalFormatting sqref="G57">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18333,7 +16588,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G59">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18347,7 +16602,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G69">
+  <conditionalFormatting sqref="G62">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18488,21 +16743,6 @@
           <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C004DD3F-C5FD-4042-B414-93CED9F713A8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A58C0529-7B5F-4E7D-8ACA-A7F1FC5C303F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -18515,7 +16755,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G33</xm:sqref>
+          <xm:sqref>G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3D2CA4DF-0793-45D5-8B0A-C230986F2CC9}">
@@ -18530,7 +16770,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G35</xm:sqref>
+          <xm:sqref>G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{254313EB-0134-4E64-BC40-B71813EC0194}">
@@ -18545,7 +16785,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G37</xm:sqref>
+          <xm:sqref>G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{102C7E99-020B-40F3-9850-AA7520741565}">
@@ -18560,7 +16800,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G39</xm:sqref>
+          <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BFEE3BD5-E0BF-4D3A-8B66-BBD71904E513}">
@@ -18575,7 +16815,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G41</xm:sqref>
+          <xm:sqref>G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2141A177-098F-4C9B-8041-098FCB94929E}">
@@ -18590,7 +16830,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G43</xm:sqref>
+          <xm:sqref>G36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{192B1008-3B69-466B-8D07-2781A916CCFC}">
@@ -18605,7 +16845,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G45</xm:sqref>
+          <xm:sqref>G38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{53597C18-21EB-4165-95BB-BFBED50C1E20}">
@@ -18620,7 +16860,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G47</xm:sqref>
+          <xm:sqref>G40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6CBFFC38-F30E-4864-8439-B82F59E84118}">
@@ -18635,7 +16875,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G49</xm:sqref>
+          <xm:sqref>G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9F94C85F-5A41-4BBA-8001-3FF46D321E8B}">
@@ -18650,7 +16890,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G51</xm:sqref>
+          <xm:sqref>G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8D122C58-A2B6-463E-B6A2-98BA8BD92A55}">
@@ -18665,7 +16905,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G53</xm:sqref>
+          <xm:sqref>G46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3ED07220-432D-4021-BD43-ADB92C1C25D9}">
@@ -18680,7 +16920,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G55</xm:sqref>
+          <xm:sqref>G48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4A60A957-72F6-4310-B501-2591110E4FB2}">
@@ -18695,7 +16935,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G57</xm:sqref>
+          <xm:sqref>G50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D9AAE81B-F368-4BE4-87CD-B69F1DDCBB1E}">
@@ -18710,7 +16950,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G59</xm:sqref>
+          <xm:sqref>G52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{371D6C62-FC5B-444E-9257-CB98541F6ACD}">
@@ -18725,7 +16965,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G61</xm:sqref>
+          <xm:sqref>G54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7A2902D7-C7C5-49C6-81E2-FFCD6F52476B}">
@@ -18740,7 +16980,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G64</xm:sqref>
+          <xm:sqref>G57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D9BECF7-D0EF-4C9B-B9C2-F1E2DA77384C}">
@@ -18755,7 +16995,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G66</xm:sqref>
+          <xm:sqref>G59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F295F70C-D655-4AF4-8C45-F94FC41224B3}">
@@ -18770,7 +17010,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G69</xm:sqref>
+          <xm:sqref>G62</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -23,8 +23,282 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Anggi Triklin</author>
+  </authors>
+  <commentList>
+    <comment ref="AO6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anggi Triklin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hari Raya Nyepi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CF6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anggi Triklin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Wafat Isa Almasih</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CH6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anggi Triklin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hari Paskah</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CR6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anggi Triklin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hari Buruh Internasional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DJ6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anggi Triklin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hari Raya Waisak</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DU6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anggi Triklin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kenaikan Yesus Kristus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DW6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anggi Triklin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hari Lahir Pancasila</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DY6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anggi Triklin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cuti Bersama 3,4,7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="EA6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anggi Triklin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Idul Fitri 5-6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="GP6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anggi Triklin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Idul Adha</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="GV6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anggi Triklin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+HUT RI</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="45">
   <si>
     <t>Progress</t>
   </si>
@@ -145,12 +419,27 @@
   <si>
     <t>Pengujian Program &amp; Rancangan</t>
   </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,8 +559,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,8 +652,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -430,13 +744,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -540,10 +917,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="14" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,11 +932,45 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -888,14 +1302,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IF63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IF64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="S18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CW54" sqref="CW54"/>
+      <selection pane="bottomRight" activeCell="HK5" sqref="HK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,40 +1580,40 @@
       <c r="L4" s="23"/>
       <c r="M4" s="24"/>
       <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="69" t="s">
+      <c r="O4" s="25"/>
+      <c r="P4" s="22" t="s">
         <v>14</v>
       </c>
+      <c r="Q4" s="22"/>
       <c r="R4" s="23"/>
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
       <c r="U4" s="24"/>
       <c r="V4" s="23"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="69" t="s">
+      <c r="W4" s="69" t="s">
         <v>15</v>
       </c>
+      <c r="X4" s="22"/>
       <c r="Y4" s="24"/>
       <c r="Z4" s="23"/>
       <c r="AA4" s="23"/>
       <c r="AB4" s="23"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22" t="s">
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="69" t="s">
         <v>16</v>
       </c>
+      <c r="AE4" s="22"/>
       <c r="AF4" s="23"/>
       <c r="AG4" s="24"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="23" t="s">
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="22" t="s">
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="AL4" s="23"/>
+      <c r="AL4" s="22"/>
       <c r="AM4" s="24"/>
       <c r="AN4" s="23"/>
       <c r="AO4" s="23"/>
@@ -1208,16 +1622,16 @@
       <c r="AR4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AS4" s="23"/>
+      <c r="AS4" s="22"/>
       <c r="AT4" s="23"/>
       <c r="AU4" s="24"/>
       <c r="AV4" s="23"/>
       <c r="AW4" s="22"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="22" t="s">
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="23"/>
+      <c r="AZ4" s="22"/>
       <c r="BA4" s="23"/>
       <c r="BB4" s="23"/>
       <c r="BC4" s="24"/>
@@ -1226,7 +1640,7 @@
       <c r="BF4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="BG4" s="24"/>
+      <c r="BG4" s="22"/>
       <c r="BH4" s="23"/>
       <c r="BI4" s="29"/>
       <c r="BJ4" s="29"/>
@@ -1240,11 +1654,11 @@
       <c r="BP4" s="22"/>
       <c r="BQ4" s="23"/>
       <c r="BR4" s="24"/>
-      <c r="BS4" s="25"/>
-      <c r="BT4" s="23" t="s">
+      <c r="BS4" s="23"/>
+      <c r="BT4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="BU4" s="29"/>
+      <c r="BU4" s="23"/>
       <c r="BV4" s="24"/>
       <c r="BW4" s="22"/>
       <c r="BX4" s="23"/>
@@ -1258,8 +1672,8 @@
       <c r="CD4" s="22"/>
       <c r="CE4" s="23"/>
       <c r="CF4" s="23"/>
-      <c r="CG4" s="25"/>
-      <c r="CH4" s="23" t="s">
+      <c r="CG4" s="23"/>
+      <c r="CH4" s="46" t="s">
         <v>16</v>
       </c>
       <c r="CI4" s="22"/>
@@ -1273,7 +1687,7 @@
       </c>
       <c r="CP4" s="29"/>
       <c r="CQ4" s="31"/>
-      <c r="CR4" s="46" t="s">
+      <c r="CR4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="CS4" s="23"/>
@@ -1435,1149 +1849,1543 @@
       <c r="HI4" s="29"/>
       <c r="HJ4" s="31"/>
     </row>
-    <row r="5" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:240" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ5" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="BN5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="BT5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="BW5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="BX5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="CA5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="CB5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="CC5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="CD5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="CE5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG5" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="CH5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="CI5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="CJ5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="CK5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="CL5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="CM5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN5" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="CO5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="CP5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="CQ5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="CR5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="CS5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="CT5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="CU5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="CV5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="CX5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="CY5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="CZ5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="DA5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="DB5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="DC5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="DE5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="DF5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="DG5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="DH5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="DI5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="DJ5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="DK5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="DL5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="DM5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="DN5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="DO5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="DP5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="DQ5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="DR5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="DS5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="DT5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="DU5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="DV5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="DW5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="DX5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="DY5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="DZ5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="EA5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="EB5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="EC5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="ED5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="EE5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="EF5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="EG5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="EH5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="EI5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="EJ5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="EK5" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="EL5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="EM5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="EN5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="EO5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="EP5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="EQ5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="ER5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="ES5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="ET5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="EU5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="EV5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="EW5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="EX5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="EY5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="EZ5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="FA5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="FB5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="FC5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="FD5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="FE5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="FF5" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="FG5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="FH5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="FI5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="FJ5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="FK5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="FL5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="FM5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="FN5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="FO5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="FP5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="FQ5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="FR5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="FS5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="FT5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="FU5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="FV5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="FW5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="FX5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="FY5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="FZ5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="GA5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="GB5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="GC5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="GD5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="GE5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="GF5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="GG5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="GH5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="GI5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="GJ5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="GK5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="GL5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="GM5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="GN5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="GO5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="GP5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="GQ5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="GR5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="GS5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="GT5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="GU5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="GV5" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="GW5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="GX5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="GY5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="GZ5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="HA5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="HB5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="HC5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="HD5" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="HE5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="HF5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="HG5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="HH5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="HI5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="HJ5" s="86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="11">
+      <c r="H6" s="13"/>
+      <c r="I6" s="79">
         <v>3</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J6" s="12">
         <v>4</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K6" s="12">
         <v>5</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L6" s="12">
         <v>6</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M6" s="12">
         <v>7</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N6" s="12">
         <v>8</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O6" s="87">
         <v>9</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P6" s="80">
         <v>10</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q6" s="12">
         <v>11</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R6" s="12">
         <v>12</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S6" s="12">
         <v>13</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T6" s="12">
         <v>14</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U6" s="12">
         <v>15</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V6" s="87">
         <v>16</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W6" s="80">
         <v>17</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X6" s="12">
         <v>18</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y6" s="12">
         <v>19</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Z6" s="12">
         <v>20</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA6" s="12">
         <v>21</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB6" s="12">
         <v>22</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC6" s="87">
         <v>23</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AD6" s="80">
         <v>24</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AE6" s="12">
         <v>25</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AF6" s="12">
         <v>26</v>
       </c>
-      <c r="AG5" s="12">
+      <c r="AG6" s="12">
         <v>27</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AH6" s="12">
         <v>28</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI6" s="11">
         <v>1</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AJ6" s="80">
         <v>2</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="AK6" s="79">
         <v>3</v>
       </c>
-      <c r="AL5" s="12">
+      <c r="AL6" s="12">
         <v>4</v>
       </c>
-      <c r="AM5" s="11">
+      <c r="AM6" s="11">
         <v>5</v>
       </c>
-      <c r="AN5" s="12">
+      <c r="AN6" s="12">
         <v>6</v>
       </c>
-      <c r="AO5" s="11">
+      <c r="AO6" s="77">
         <v>7</v>
       </c>
-      <c r="AP5" s="12">
+      <c r="AP6" s="12">
         <v>8</v>
       </c>
-      <c r="AQ5" s="11">
+      <c r="AQ6" s="87">
         <v>9</v>
       </c>
-      <c r="AR5" s="12">
+      <c r="AR6" s="80">
         <v>10</v>
       </c>
-      <c r="AS5" s="11">
+      <c r="AS6" s="11">
         <v>11</v>
       </c>
-      <c r="AT5" s="12">
+      <c r="AT6" s="12">
         <v>12</v>
       </c>
-      <c r="AU5" s="11">
+      <c r="AU6" s="11">
         <v>13</v>
       </c>
-      <c r="AV5" s="12">
+      <c r="AV6" s="12">
         <v>14</v>
       </c>
-      <c r="AW5" s="11">
+      <c r="AW6" s="11">
         <v>15</v>
       </c>
-      <c r="AX5" s="12">
+      <c r="AX6" s="87">
         <v>16</v>
       </c>
-      <c r="AY5" s="11">
+      <c r="AY6" s="79">
         <v>17</v>
       </c>
-      <c r="AZ5" s="12">
+      <c r="AZ6" s="12">
         <v>18</v>
       </c>
-      <c r="BA5" s="11">
+      <c r="BA6" s="11">
         <v>19</v>
       </c>
-      <c r="BB5" s="12">
+      <c r="BB6" s="12">
         <v>20</v>
       </c>
-      <c r="BC5" s="11">
+      <c r="BC6" s="11">
         <v>21</v>
       </c>
-      <c r="BD5" s="12">
+      <c r="BD6" s="12">
         <v>22</v>
       </c>
-      <c r="BE5" s="11">
+      <c r="BE6" s="87">
         <v>23</v>
       </c>
-      <c r="BF5" s="12">
+      <c r="BF6" s="80">
         <v>24</v>
       </c>
-      <c r="BG5" s="11">
+      <c r="BG6" s="11">
         <v>25</v>
       </c>
-      <c r="BH5" s="12">
+      <c r="BH6" s="12">
         <v>26</v>
       </c>
-      <c r="BI5" s="12">
+      <c r="BI6" s="12">
         <v>27</v>
       </c>
-      <c r="BJ5" s="11">
+      <c r="BJ6" s="11">
         <v>28</v>
       </c>
-      <c r="BK5" s="12">
+      <c r="BK6" s="12">
         <v>29</v>
       </c>
-      <c r="BL5" s="12">
+      <c r="BL6" s="87">
         <v>30</v>
       </c>
-      <c r="BM5" s="12">
+      <c r="BM6" s="80">
         <v>31</v>
       </c>
-      <c r="BN5" s="11">
+      <c r="BN6" s="11">
         <v>1</v>
       </c>
-      <c r="BO5" s="12">
+      <c r="BO6" s="12">
         <v>2</v>
       </c>
-      <c r="BP5" s="11">
+      <c r="BP6" s="11">
         <v>3</v>
       </c>
-      <c r="BQ5" s="12">
+      <c r="BQ6" s="12">
         <v>4</v>
       </c>
-      <c r="BR5" s="11">
+      <c r="BR6" s="11">
         <v>5</v>
       </c>
-      <c r="BS5" s="12">
+      <c r="BS6" s="87">
         <v>6</v>
       </c>
-      <c r="BT5" s="11">
+      <c r="BT6" s="79">
         <v>7</v>
       </c>
-      <c r="BU5" s="12">
+      <c r="BU6" s="12">
         <v>8</v>
       </c>
-      <c r="BV5" s="11">
+      <c r="BV6" s="11">
         <v>9</v>
       </c>
-      <c r="BW5" s="12">
+      <c r="BW6" s="12">
         <v>10</v>
       </c>
-      <c r="BX5" s="11">
+      <c r="BX6" s="11">
         <v>11</v>
       </c>
-      <c r="BY5" s="12">
+      <c r="BY6" s="12">
         <v>12</v>
       </c>
-      <c r="BZ5" s="11">
+      <c r="BZ6" s="87">
         <v>13</v>
       </c>
-      <c r="CA5" s="12">
+      <c r="CA6" s="80">
         <v>14</v>
       </c>
-      <c r="CB5" s="11">
+      <c r="CB6" s="11">
         <v>15</v>
       </c>
-      <c r="CC5" s="12">
+      <c r="CC6" s="12">
         <v>16</v>
       </c>
-      <c r="CD5" s="11">
+      <c r="CD6" s="11">
         <v>17</v>
       </c>
-      <c r="CE5" s="12">
+      <c r="CE6" s="12">
         <v>18</v>
       </c>
-      <c r="CF5" s="11">
+      <c r="CF6" s="77">
         <v>19</v>
       </c>
-      <c r="CG5" s="12">
+      <c r="CG6" s="80">
         <v>20</v>
       </c>
-      <c r="CH5" s="11">
+      <c r="CH6" s="77">
         <v>21</v>
       </c>
-      <c r="CI5" s="12">
+      <c r="CI6" s="12">
         <v>22</v>
       </c>
-      <c r="CJ5" s="11">
+      <c r="CJ6" s="11">
         <v>23</v>
       </c>
-      <c r="CK5" s="12">
+      <c r="CK6" s="12">
         <v>24</v>
       </c>
-      <c r="CL5" s="11">
+      <c r="CL6" s="11">
         <v>25</v>
       </c>
-      <c r="CM5" s="12">
+      <c r="CM6" s="12">
         <v>26</v>
       </c>
-      <c r="CN5" s="12">
+      <c r="CN6" s="80">
         <v>27</v>
       </c>
-      <c r="CO5" s="11">
+      <c r="CO6" s="79">
         <v>28</v>
       </c>
-      <c r="CP5" s="12">
+      <c r="CP6" s="12">
         <v>29</v>
       </c>
-      <c r="CQ5" s="12">
+      <c r="CQ6" s="12">
         <v>30</v>
       </c>
-      <c r="CR5" s="11">
+      <c r="CR6" s="77">
         <v>1</v>
       </c>
-      <c r="CS5" s="12">
+      <c r="CS6" s="12">
         <v>2</v>
       </c>
-      <c r="CT5" s="11">
+      <c r="CT6" s="11">
         <v>3</v>
       </c>
-      <c r="CU5" s="12">
+      <c r="CU6" s="87">
         <v>4</v>
       </c>
-      <c r="CV5" s="11">
+      <c r="CV6" s="79">
         <v>5</v>
       </c>
-      <c r="CW5" s="12">
+      <c r="CW6" s="12">
         <v>6</v>
       </c>
-      <c r="CX5" s="11">
+      <c r="CX6" s="11">
         <v>7</v>
       </c>
-      <c r="CY5" s="12">
+      <c r="CY6" s="12">
         <v>8</v>
       </c>
-      <c r="CZ5" s="11">
+      <c r="CZ6" s="11">
         <v>9</v>
       </c>
-      <c r="DA5" s="12">
+      <c r="DA6" s="12">
         <v>10</v>
       </c>
-      <c r="DB5" s="11">
+      <c r="DB6" s="87">
         <v>11</v>
       </c>
-      <c r="DC5" s="12">
+      <c r="DC6" s="80">
         <v>12</v>
       </c>
-      <c r="DD5" s="11">
+      <c r="DD6" s="11">
         <v>13</v>
       </c>
-      <c r="DE5" s="12">
+      <c r="DE6" s="12">
         <v>14</v>
       </c>
-      <c r="DF5" s="11">
+      <c r="DF6" s="11">
         <v>15</v>
       </c>
-      <c r="DG5" s="12">
+      <c r="DG6" s="12">
         <v>16</v>
       </c>
-      <c r="DH5" s="11">
+      <c r="DH6" s="11">
         <v>17</v>
       </c>
-      <c r="DI5" s="12">
+      <c r="DI6" s="80">
         <v>18</v>
       </c>
-      <c r="DJ5" s="11">
+      <c r="DJ6" s="77">
         <v>19</v>
       </c>
-      <c r="DK5" s="12">
+      <c r="DK6" s="12">
         <v>20</v>
       </c>
-      <c r="DL5" s="11">
+      <c r="DL6" s="11">
         <v>21</v>
       </c>
-      <c r="DM5" s="12">
+      <c r="DM6" s="12">
         <v>22</v>
       </c>
-      <c r="DN5" s="11">
+      <c r="DN6" s="11">
         <v>23</v>
       </c>
-      <c r="DO5" s="12">
+      <c r="DO6" s="12">
         <v>24</v>
       </c>
-      <c r="DP5" s="11">
+      <c r="DP6" s="87">
         <v>25</v>
       </c>
-      <c r="DQ5" s="12">
+      <c r="DQ6" s="80">
         <v>26</v>
       </c>
-      <c r="DR5" s="12">
+      <c r="DR6" s="12">
         <v>27</v>
       </c>
-      <c r="DS5" s="11">
+      <c r="DS6" s="11">
         <v>28</v>
       </c>
-      <c r="DT5" s="12">
+      <c r="DT6" s="12">
         <v>29</v>
       </c>
-      <c r="DU5" s="12">
+      <c r="DU6" s="78">
         <v>30</v>
       </c>
-      <c r="DV5" s="12">
+      <c r="DV6" s="12">
         <v>31</v>
       </c>
-      <c r="DW5" s="11">
+      <c r="DW6" s="89">
         <v>1</v>
       </c>
-      <c r="DX5" s="12">
+      <c r="DX6" s="80">
         <v>2</v>
       </c>
-      <c r="DY5" s="11">
+      <c r="DY6" s="77">
         <v>3</v>
       </c>
-      <c r="DZ5" s="12">
+      <c r="DZ6" s="78">
         <v>4</v>
       </c>
-      <c r="EA5" s="11">
+      <c r="EA6" s="77">
         <v>5</v>
       </c>
-      <c r="EB5" s="12">
+      <c r="EB6" s="78">
         <v>6</v>
       </c>
-      <c r="EC5" s="11">
+      <c r="EC6" s="77">
         <v>7</v>
       </c>
-      <c r="ED5" s="12">
+      <c r="ED6" s="87">
         <v>8</v>
       </c>
-      <c r="EE5" s="11">
+      <c r="EE6" s="79">
         <v>9</v>
       </c>
-      <c r="EF5" s="12">
+      <c r="EF6" s="12">
         <v>10</v>
       </c>
-      <c r="EG5" s="11">
+      <c r="EG6" s="11">
         <v>11</v>
       </c>
-      <c r="EH5" s="12">
+      <c r="EH6" s="12">
         <v>12</v>
       </c>
-      <c r="EI5" s="11">
+      <c r="EI6" s="11">
         <v>13</v>
       </c>
-      <c r="EJ5" s="12">
+      <c r="EJ6" s="12">
         <v>14</v>
       </c>
-      <c r="EK5" s="11">
+      <c r="EK6" s="79">
         <v>15</v>
       </c>
-      <c r="EL5" s="12">
+      <c r="EL6" s="80">
         <v>16</v>
       </c>
-      <c r="EM5" s="11">
+      <c r="EM6" s="11">
         <v>17</v>
       </c>
-      <c r="EN5" s="12">
+      <c r="EN6" s="12">
         <v>18</v>
       </c>
-      <c r="EO5" s="11">
+      <c r="EO6" s="11">
         <v>19</v>
       </c>
-      <c r="EP5" s="12">
+      <c r="EP6" s="12">
         <v>20</v>
       </c>
-      <c r="EQ5" s="11">
+      <c r="EQ6" s="11">
         <v>21</v>
       </c>
-      <c r="ER5" s="12">
+      <c r="ER6" s="80">
         <v>22</v>
       </c>
-      <c r="ES5" s="11">
+      <c r="ES6" s="79">
         <v>23</v>
       </c>
-      <c r="ET5" s="12">
+      <c r="ET6" s="12">
         <v>24</v>
       </c>
-      <c r="EU5" s="11">
+      <c r="EU6" s="11">
         <v>25</v>
       </c>
-      <c r="EV5" s="12">
+      <c r="EV6" s="12">
         <v>26</v>
       </c>
-      <c r="EW5" s="12">
+      <c r="EW6" s="12">
         <v>27</v>
       </c>
-      <c r="EX5" s="11">
+      <c r="EX6" s="11">
         <v>28</v>
       </c>
-      <c r="EY5" s="12">
+      <c r="EY6" s="87">
         <v>29</v>
       </c>
-      <c r="EZ5" s="12">
+      <c r="EZ6" s="80">
         <v>30</v>
       </c>
-      <c r="FA5" s="11">
+      <c r="FA6" s="11">
         <v>1</v>
       </c>
-      <c r="FB5" s="12">
+      <c r="FB6" s="12">
         <v>2</v>
       </c>
-      <c r="FC5" s="11">
+      <c r="FC6" s="11">
         <v>3</v>
       </c>
-      <c r="FD5" s="12">
+      <c r="FD6" s="12">
         <v>4</v>
       </c>
-      <c r="FE5" s="11">
+      <c r="FE6" s="11">
         <v>5</v>
       </c>
-      <c r="FF5" s="12">
+      <c r="FF6" s="80">
         <v>6</v>
       </c>
-      <c r="FG5" s="11">
+      <c r="FG6" s="79">
         <v>7</v>
       </c>
-      <c r="FH5" s="12">
+      <c r="FH6" s="12">
         <v>8</v>
       </c>
-      <c r="FI5" s="11">
+      <c r="FI6" s="11">
         <v>9</v>
       </c>
-      <c r="FJ5" s="12">
+      <c r="FJ6" s="12">
         <v>10</v>
       </c>
-      <c r="FK5" s="11">
+      <c r="FK6" s="11">
         <v>11</v>
       </c>
-      <c r="FL5" s="12">
+      <c r="FL6" s="12">
         <v>12</v>
       </c>
-      <c r="FM5" s="11">
+      <c r="FM6" s="87">
         <v>13</v>
       </c>
-      <c r="FN5" s="12">
+      <c r="FN6" s="80">
         <v>14</v>
       </c>
-      <c r="FO5" s="11">
+      <c r="FO6" s="11">
         <v>15</v>
       </c>
-      <c r="FP5" s="12">
+      <c r="FP6" s="12">
         <v>16</v>
       </c>
-      <c r="FQ5" s="11">
+      <c r="FQ6" s="11">
         <v>17</v>
       </c>
-      <c r="FR5" s="12">
+      <c r="FR6" s="12">
         <v>18</v>
       </c>
-      <c r="FS5" s="11">
+      <c r="FS6" s="11">
         <v>19</v>
       </c>
-      <c r="FT5" s="12">
+      <c r="FT6" s="80">
         <v>20</v>
       </c>
-      <c r="FU5" s="11">
+      <c r="FU6" s="79">
         <v>21</v>
       </c>
-      <c r="FV5" s="12">
+      <c r="FV6" s="12">
         <v>22</v>
       </c>
-      <c r="FW5" s="11">
+      <c r="FW6" s="11">
         <v>23</v>
       </c>
-      <c r="FX5" s="12">
+      <c r="FX6" s="12">
         <v>24</v>
       </c>
-      <c r="FY5" s="11">
+      <c r="FY6" s="11">
         <v>25</v>
       </c>
-      <c r="FZ5" s="12">
+      <c r="FZ6" s="12">
         <v>26</v>
       </c>
-      <c r="GA5" s="12">
+      <c r="GA6" s="87">
         <v>27</v>
       </c>
-      <c r="GB5" s="11">
+      <c r="GB6" s="79">
         <v>28</v>
       </c>
-      <c r="GC5" s="12">
+      <c r="GC6" s="12">
         <v>29</v>
       </c>
-      <c r="GD5" s="12">
+      <c r="GD6" s="12">
         <v>30</v>
       </c>
-      <c r="GE5" s="12">
+      <c r="GE6" s="12">
         <v>31</v>
       </c>
-      <c r="GF5" s="11">
+      <c r="GF6" s="11">
         <v>1</v>
       </c>
-      <c r="GG5" s="12">
+      <c r="GG6" s="12">
         <v>2</v>
       </c>
-      <c r="GH5" s="11">
+      <c r="GH6" s="87">
         <v>3</v>
       </c>
-      <c r="GI5" s="12">
+      <c r="GI6" s="80">
         <v>4</v>
       </c>
-      <c r="GJ5" s="11">
+      <c r="GJ6" s="11">
         <v>5</v>
       </c>
-      <c r="GK5" s="12">
+      <c r="GK6" s="12">
         <v>6</v>
       </c>
-      <c r="GL5" s="11">
+      <c r="GL6" s="11">
         <v>7</v>
       </c>
-      <c r="GM5" s="12">
+      <c r="GM6" s="12">
         <v>8</v>
       </c>
-      <c r="GN5" s="11">
+      <c r="GN6" s="11">
         <v>9</v>
       </c>
-      <c r="GO5" s="12">
+      <c r="GO6" s="87">
         <v>10</v>
       </c>
-      <c r="GP5" s="11">
+      <c r="GP6" s="77">
         <v>11</v>
       </c>
-      <c r="GQ5" s="12">
+      <c r="GQ6" s="12">
         <v>12</v>
       </c>
-      <c r="GR5" s="11">
+      <c r="GR6" s="11">
         <v>13</v>
       </c>
-      <c r="GS5" s="12">
+      <c r="GS6" s="12">
         <v>14</v>
       </c>
-      <c r="GT5" s="11">
+      <c r="GT6" s="11">
         <v>15</v>
       </c>
-      <c r="GU5" s="12">
+      <c r="GU6" s="12">
         <v>16</v>
       </c>
-      <c r="GV5" s="11">
+      <c r="GV6" s="77">
         <v>17</v>
       </c>
-      <c r="GW5" s="12">
+      <c r="GW6" s="80">
         <v>18</v>
       </c>
-      <c r="GX5" s="11">
+      <c r="GX6" s="11">
         <v>19</v>
       </c>
-      <c r="GY5" s="12">
+      <c r="GY6" s="12">
         <v>20</v>
       </c>
-      <c r="GZ5" s="11">
+      <c r="GZ6" s="11">
         <v>21</v>
       </c>
-      <c r="HA5" s="12">
+      <c r="HA6" s="12">
         <v>22</v>
       </c>
-      <c r="HB5" s="11">
+      <c r="HB6" s="11">
         <v>23</v>
       </c>
-      <c r="HC5" s="12">
+      <c r="HC6" s="87">
         <v>24</v>
       </c>
-      <c r="HD5" s="11">
+      <c r="HD6" s="79">
         <v>25</v>
       </c>
-      <c r="HE5" s="12">
+      <c r="HE6" s="12">
         <v>26</v>
       </c>
-      <c r="HF5" s="12">
+      <c r="HF6" s="12">
         <v>27</v>
       </c>
-      <c r="HG5" s="11">
+      <c r="HG6" s="11">
         <v>28</v>
       </c>
-      <c r="HH5" s="12">
+      <c r="HH6" s="12">
         <v>29</v>
       </c>
-      <c r="HI5" s="12">
+      <c r="HI6" s="12">
         <v>30</v>
       </c>
-      <c r="HJ5" s="12">
+      <c r="HJ6" s="87">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="55" t="s">
+    <row r="7" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="60"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="60"/>
-      <c r="AR6" s="61"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="61"/>
-      <c r="AV6" s="61"/>
-      <c r="AW6" s="60"/>
-      <c r="AX6" s="61"/>
-      <c r="AY6" s="60"/>
-      <c r="AZ6" s="61"/>
-      <c r="BA6" s="61"/>
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="61"/>
-      <c r="BD6" s="61"/>
-      <c r="BE6" s="60"/>
-      <c r="BF6" s="61"/>
-      <c r="BG6" s="60"/>
-      <c r="BH6" s="61"/>
-      <c r="BI6" s="61"/>
-      <c r="BJ6" s="61"/>
-      <c r="BK6" s="61"/>
-      <c r="BL6" s="61"/>
-      <c r="BM6" s="60"/>
-      <c r="BN6" s="61"/>
-      <c r="BO6" s="60"/>
-      <c r="BP6" s="61"/>
-      <c r="BQ6" s="61"/>
-      <c r="BR6" s="61"/>
-      <c r="BS6" s="61"/>
-      <c r="BT6" s="61"/>
-      <c r="BU6" s="60"/>
-      <c r="BV6" s="61"/>
-      <c r="BW6" s="60"/>
-      <c r="BX6" s="61"/>
-      <c r="BY6" s="61"/>
-      <c r="BZ6" s="61"/>
-      <c r="CA6" s="61"/>
-      <c r="CB6" s="61"/>
-      <c r="CC6" s="60"/>
-      <c r="CD6" s="61"/>
-      <c r="CE6" s="60"/>
-      <c r="CF6" s="61"/>
-      <c r="CG6" s="61"/>
-      <c r="CH6" s="61"/>
-      <c r="CI6" s="61"/>
-      <c r="CJ6" s="60"/>
-      <c r="CK6" s="61"/>
-      <c r="CL6" s="60"/>
-      <c r="CM6" s="61"/>
-      <c r="CN6" s="61"/>
-      <c r="CO6" s="61"/>
-      <c r="CP6" s="61"/>
-      <c r="CQ6" s="61"/>
-      <c r="CR6" s="60"/>
-      <c r="CS6" s="61"/>
-      <c r="CT6" s="60"/>
-      <c r="CU6" s="61"/>
-      <c r="CV6" s="61"/>
-      <c r="CW6" s="61"/>
-      <c r="CX6" s="61"/>
-      <c r="CY6" s="61"/>
-      <c r="CZ6" s="60"/>
-      <c r="DA6" s="61"/>
-      <c r="DB6" s="60"/>
-      <c r="DC6" s="61"/>
-      <c r="DD6" s="61"/>
-      <c r="DE6" s="61"/>
-      <c r="DF6" s="61"/>
-      <c r="DG6" s="61"/>
-      <c r="DH6" s="60"/>
-      <c r="DI6" s="61"/>
-      <c r="DJ6" s="60"/>
-      <c r="DK6" s="61"/>
-      <c r="DL6" s="61"/>
-      <c r="DM6" s="61"/>
-      <c r="DN6" s="61"/>
-      <c r="DO6" s="61"/>
-      <c r="DP6" s="60"/>
-      <c r="DQ6" s="61"/>
-      <c r="DR6" s="60"/>
-      <c r="DS6" s="61"/>
-      <c r="DT6" s="61"/>
-      <c r="DU6" s="61"/>
-      <c r="DV6" s="61"/>
-      <c r="DW6" s="60"/>
-      <c r="DX6" s="61"/>
-      <c r="DY6" s="60"/>
-      <c r="DZ6" s="61"/>
-      <c r="EA6" s="61"/>
-      <c r="EB6" s="61"/>
-      <c r="EC6" s="61"/>
-      <c r="ED6" s="61"/>
-      <c r="EE6" s="60"/>
-      <c r="EF6" s="61"/>
-      <c r="EG6" s="60"/>
-      <c r="EH6" s="61"/>
-      <c r="EI6" s="61"/>
-      <c r="EJ6" s="61"/>
-      <c r="EK6" s="61"/>
-      <c r="EL6" s="61"/>
-      <c r="EM6" s="60"/>
-      <c r="EN6" s="61"/>
-      <c r="EO6" s="60"/>
-      <c r="EP6" s="61"/>
-      <c r="EQ6" s="61"/>
-      <c r="ER6" s="61"/>
-      <c r="ES6" s="61"/>
-      <c r="ET6" s="61"/>
-      <c r="EU6" s="60"/>
-      <c r="EV6" s="61"/>
-      <c r="EW6" s="60"/>
-      <c r="EX6" s="61"/>
-      <c r="EY6" s="61"/>
-      <c r="EZ6" s="61"/>
-      <c r="FA6" s="61"/>
-      <c r="FB6" s="61"/>
-      <c r="FC6" s="60"/>
-      <c r="FD6" s="61"/>
-      <c r="FE6" s="60"/>
-      <c r="FF6" s="61"/>
-      <c r="FG6" s="61"/>
-      <c r="FH6" s="61"/>
-      <c r="FI6" s="61"/>
-      <c r="FJ6" s="60"/>
-      <c r="FK6" s="61"/>
-      <c r="FL6" s="60"/>
-      <c r="FM6" s="61"/>
-      <c r="FN6" s="61"/>
-      <c r="FO6" s="61"/>
-      <c r="FP6" s="61"/>
-      <c r="FQ6" s="61"/>
-      <c r="FR6" s="60"/>
-      <c r="FS6" s="61"/>
-      <c r="FT6" s="60"/>
-      <c r="FU6" s="61"/>
-      <c r="FV6" s="61"/>
-      <c r="FW6" s="61"/>
-      <c r="FX6" s="61"/>
-      <c r="FY6" s="61"/>
-      <c r="FZ6" s="60"/>
-      <c r="GA6" s="61"/>
-      <c r="GB6" s="60"/>
-      <c r="GC6" s="61"/>
-      <c r="GD6" s="61"/>
-      <c r="GE6" s="61"/>
-      <c r="GF6" s="61"/>
-      <c r="GG6" s="61"/>
-      <c r="GH6" s="60"/>
-      <c r="GI6" s="61"/>
-      <c r="GJ6" s="60"/>
-      <c r="GK6" s="61"/>
-      <c r="GL6" s="61"/>
-      <c r="GM6" s="61"/>
-      <c r="GN6" s="61"/>
-      <c r="GO6" s="61"/>
-      <c r="GP6" s="60"/>
-      <c r="GQ6" s="61"/>
-      <c r="GR6" s="60"/>
-      <c r="GS6" s="61"/>
-      <c r="GT6" s="61"/>
-      <c r="GU6" s="61"/>
-      <c r="GV6" s="61"/>
-      <c r="GW6" s="60"/>
-      <c r="GX6" s="61"/>
-      <c r="GY6" s="60"/>
-      <c r="GZ6" s="61"/>
-      <c r="HA6" s="61"/>
-      <c r="HB6" s="61"/>
-      <c r="HC6" s="61"/>
-      <c r="HD6" s="61"/>
-      <c r="HE6" s="60"/>
-      <c r="HF6" s="61"/>
-      <c r="HG6" s="60"/>
-      <c r="HH6" s="61"/>
-      <c r="HI6" s="61"/>
-      <c r="HJ6" s="61"/>
-      <c r="HK6" s="10"/>
-      <c r="HL6" s="10"/>
-      <c r="HM6" s="10"/>
-      <c r="HN6" s="10"/>
-      <c r="HO6" s="10"/>
-      <c r="HP6" s="10"/>
-      <c r="HQ6" s="10"/>
-      <c r="HR6" s="10"/>
-      <c r="HS6" s="10"/>
-      <c r="HT6" s="10"/>
-      <c r="HU6" s="10"/>
-      <c r="HV6" s="10"/>
-      <c r="HW6" s="10"/>
-      <c r="HX6" s="10"/>
-      <c r="HY6" s="10"/>
-      <c r="HZ6" s="10"/>
-      <c r="IA6" s="10"/>
-      <c r="IB6" s="10"/>
-      <c r="IC6" s="10"/>
-      <c r="ID6" s="10"/>
-      <c r="IE6" s="10"/>
-      <c r="IF6" s="10"/>
-    </row>
-    <row r="7" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="71">
-        <v>0</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="60"/>
       <c r="I7" s="61"/>
       <c r="J7" s="61"/>
       <c r="K7" s="61"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="66"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="61"/>
       <c r="Y7" s="61"/>
       <c r="Z7" s="61"/>
       <c r="AA7" s="61"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="66"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="61"/>
       <c r="AI7" s="61"/>
       <c r="AK7" s="61"/>
       <c r="AL7" s="61"/>
       <c r="AM7" s="61"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="66"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="61"/>
       <c r="AS7" s="61"/>
       <c r="AT7" s="61"/>
       <c r="AU7" s="61"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="66"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="61"/>
       <c r="BA7" s="61"/>
       <c r="BB7" s="61"/>
       <c r="BC7" s="61"/>
-      <c r="BD7" s="66"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="66"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="66"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="60"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="60"/>
+      <c r="BH7" s="61"/>
       <c r="BI7" s="61"/>
       <c r="BJ7" s="61"/>
       <c r="BK7" s="61"/>
-      <c r="BL7" s="66"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="66"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="66"/>
+      <c r="BL7" s="61"/>
+      <c r="BM7" s="60"/>
+      <c r="BN7" s="61"/>
+      <c r="BO7" s="60"/>
+      <c r="BP7" s="61"/>
       <c r="BQ7" s="61"/>
       <c r="BR7" s="61"/>
       <c r="BS7" s="61"/>
-      <c r="BT7" s="66"/>
-      <c r="BU7" s="67"/>
-      <c r="BV7" s="66"/>
-      <c r="BW7" s="67"/>
-      <c r="BX7" s="66"/>
+      <c r="BT7" s="61"/>
+      <c r="BU7" s="60"/>
+      <c r="BV7" s="61"/>
+      <c r="BW7" s="60"/>
+      <c r="BX7" s="61"/>
       <c r="BY7" s="61"/>
       <c r="BZ7" s="61"/>
       <c r="CA7" s="61"/>
-      <c r="CB7" s="66"/>
-      <c r="CC7" s="67"/>
-      <c r="CD7" s="66"/>
-      <c r="CE7" s="67"/>
-      <c r="CF7" s="66"/>
+      <c r="CB7" s="61"/>
+      <c r="CC7" s="60"/>
+      <c r="CD7" s="61"/>
+      <c r="CE7" s="60"/>
+      <c r="CF7" s="61"/>
       <c r="CG7" s="61"/>
       <c r="CH7" s="61"/>
-      <c r="CI7" s="66"/>
-      <c r="CJ7" s="67"/>
-      <c r="CK7" s="66"/>
-      <c r="CL7" s="67"/>
-      <c r="CM7" s="66"/>
+      <c r="CI7" s="61"/>
+      <c r="CJ7" s="60"/>
+      <c r="CK7" s="61"/>
+      <c r="CL7" s="60"/>
+      <c r="CM7" s="61"/>
       <c r="CN7" s="61"/>
       <c r="CO7" s="61"/>
       <c r="CP7" s="61"/>
-      <c r="CQ7" s="66"/>
-      <c r="CR7" s="67"/>
-      <c r="CS7" s="66"/>
-      <c r="CT7" s="67"/>
-      <c r="CU7" s="66"/>
+      <c r="CQ7" s="61"/>
+      <c r="CR7" s="60"/>
+      <c r="CS7" s="61"/>
+      <c r="CT7" s="60"/>
+      <c r="CU7" s="61"/>
       <c r="CV7" s="61"/>
       <c r="CW7" s="61"/>
       <c r="CX7" s="61"/>
-      <c r="CY7" s="66"/>
-      <c r="CZ7" s="67"/>
-      <c r="DA7" s="66"/>
-      <c r="DB7" s="67"/>
-      <c r="DC7" s="66"/>
+      <c r="CY7" s="61"/>
+      <c r="CZ7" s="60"/>
+      <c r="DA7" s="61"/>
+      <c r="DB7" s="60"/>
+      <c r="DC7" s="61"/>
       <c r="DD7" s="61"/>
       <c r="DE7" s="61"/>
       <c r="DF7" s="61"/>
-      <c r="DG7" s="66"/>
-      <c r="DH7" s="67"/>
-      <c r="DI7" s="66"/>
-      <c r="DJ7" s="67"/>
-      <c r="DK7" s="66"/>
+      <c r="DG7" s="61"/>
+      <c r="DH7" s="60"/>
+      <c r="DI7" s="61"/>
+      <c r="DJ7" s="60"/>
+      <c r="DK7" s="61"/>
       <c r="DL7" s="61"/>
       <c r="DM7" s="61"/>
       <c r="DN7" s="61"/>
-      <c r="DO7" s="66"/>
-      <c r="DP7" s="67"/>
-      <c r="DQ7" s="66"/>
-      <c r="DR7" s="67"/>
-      <c r="DS7" s="66"/>
+      <c r="DO7" s="61"/>
+      <c r="DP7" s="60"/>
+      <c r="DQ7" s="61"/>
+      <c r="DR7" s="60"/>
+      <c r="DS7" s="61"/>
       <c r="DT7" s="61"/>
       <c r="DU7" s="61"/>
-      <c r="DV7" s="66"/>
-      <c r="DW7" s="67"/>
-      <c r="DX7" s="66"/>
-      <c r="DY7" s="67"/>
-      <c r="DZ7" s="66"/>
+      <c r="DV7" s="61"/>
+      <c r="DW7" s="60"/>
+      <c r="DX7" s="61"/>
+      <c r="DY7" s="60"/>
+      <c r="DZ7" s="61"/>
       <c r="EA7" s="61"/>
       <c r="EB7" s="61"/>
       <c r="EC7" s="61"/>
-      <c r="ED7" s="66"/>
-      <c r="EE7" s="67"/>
-      <c r="EF7" s="66"/>
-      <c r="EG7" s="67"/>
-      <c r="EH7" s="66"/>
+      <c r="ED7" s="61"/>
+      <c r="EE7" s="60"/>
+      <c r="EF7" s="61"/>
+      <c r="EG7" s="60"/>
+      <c r="EH7" s="61"/>
       <c r="EI7" s="61"/>
       <c r="EJ7" s="61"/>
       <c r="EK7" s="61"/>
-      <c r="EL7" s="66"/>
-      <c r="EM7" s="67"/>
-      <c r="EN7" s="66"/>
-      <c r="EO7" s="67"/>
-      <c r="EP7" s="66"/>
+      <c r="EL7" s="61"/>
+      <c r="EM7" s="60"/>
+      <c r="EN7" s="61"/>
+      <c r="EO7" s="60"/>
+      <c r="EP7" s="61"/>
       <c r="EQ7" s="61"/>
       <c r="ER7" s="61"/>
       <c r="ES7" s="61"/>
-      <c r="ET7" s="66"/>
-      <c r="EU7" s="67"/>
-      <c r="EV7" s="66"/>
-      <c r="EW7" s="67"/>
-      <c r="EX7" s="66"/>
+      <c r="ET7" s="61"/>
+      <c r="EU7" s="60"/>
+      <c r="EV7" s="61"/>
+      <c r="EW7" s="60"/>
+      <c r="EX7" s="61"/>
       <c r="EY7" s="61"/>
       <c r="EZ7" s="61"/>
       <c r="FA7" s="61"/>
-      <c r="FB7" s="66"/>
-      <c r="FC7" s="67"/>
-      <c r="FD7" s="66"/>
-      <c r="FE7" s="67"/>
-      <c r="FF7" s="66"/>
+      <c r="FB7" s="61"/>
+      <c r="FC7" s="60"/>
+      <c r="FD7" s="61"/>
+      <c r="FE7" s="60"/>
+      <c r="FF7" s="61"/>
       <c r="FG7" s="61"/>
       <c r="FH7" s="61"/>
-      <c r="FI7" s="66"/>
-      <c r="FJ7" s="67"/>
-      <c r="FK7" s="66"/>
-      <c r="FL7" s="67"/>
-      <c r="FM7" s="66"/>
+      <c r="FI7" s="61"/>
+      <c r="FJ7" s="60"/>
+      <c r="FK7" s="61"/>
+      <c r="FL7" s="60"/>
+      <c r="FM7" s="61"/>
       <c r="FN7" s="61"/>
       <c r="FO7" s="61"/>
       <c r="FP7" s="61"/>
-      <c r="FQ7" s="66"/>
-      <c r="FR7" s="67"/>
-      <c r="FS7" s="66"/>
-      <c r="FT7" s="67"/>
-      <c r="FU7" s="66"/>
+      <c r="FQ7" s="61"/>
+      <c r="FR7" s="60"/>
+      <c r="FS7" s="61"/>
+      <c r="FT7" s="60"/>
+      <c r="FU7" s="61"/>
       <c r="FV7" s="61"/>
       <c r="FW7" s="61"/>
       <c r="FX7" s="61"/>
-      <c r="FY7" s="66"/>
-      <c r="FZ7" s="67"/>
-      <c r="GA7" s="66"/>
-      <c r="GB7" s="67"/>
-      <c r="GC7" s="66"/>
+      <c r="FY7" s="61"/>
+      <c r="FZ7" s="60"/>
+      <c r="GA7" s="61"/>
+      <c r="GB7" s="60"/>
+      <c r="GC7" s="61"/>
       <c r="GD7" s="61"/>
       <c r="GE7" s="61"/>
       <c r="GF7" s="61"/>
-      <c r="GG7" s="66"/>
-      <c r="GH7" s="67"/>
-      <c r="GI7" s="66"/>
-      <c r="GJ7" s="67"/>
-      <c r="GK7" s="66"/>
+      <c r="GG7" s="61"/>
+      <c r="GH7" s="60"/>
+      <c r="GI7" s="61"/>
+      <c r="GJ7" s="60"/>
+      <c r="GK7" s="61"/>
       <c r="GL7" s="61"/>
       <c r="GM7" s="61"/>
       <c r="GN7" s="61"/>
-      <c r="GO7" s="66"/>
-      <c r="GP7" s="67"/>
-      <c r="GQ7" s="66"/>
-      <c r="GR7" s="67"/>
-      <c r="GS7" s="66"/>
+      <c r="GO7" s="61"/>
+      <c r="GP7" s="60"/>
+      <c r="GQ7" s="61"/>
+      <c r="GR7" s="60"/>
+      <c r="GS7" s="61"/>
       <c r="GT7" s="61"/>
       <c r="GU7" s="61"/>
-      <c r="GV7" s="66"/>
-      <c r="GW7" s="67"/>
-      <c r="GX7" s="66"/>
-      <c r="GY7" s="67"/>
-      <c r="GZ7" s="66"/>
+      <c r="GV7" s="61"/>
+      <c r="GW7" s="60"/>
+      <c r="GX7" s="61"/>
+      <c r="GY7" s="60"/>
+      <c r="GZ7" s="61"/>
       <c r="HA7" s="61"/>
       <c r="HB7" s="61"/>
       <c r="HC7" s="61"/>
-      <c r="HD7" s="66"/>
-      <c r="HE7" s="67"/>
-      <c r="HF7" s="66"/>
-      <c r="HG7" s="67"/>
-      <c r="HH7" s="66"/>
+      <c r="HD7" s="61"/>
+      <c r="HE7" s="60"/>
+      <c r="HF7" s="61"/>
+      <c r="HG7" s="60"/>
+      <c r="HH7" s="61"/>
       <c r="HI7" s="61"/>
       <c r="HJ7" s="61"/>
       <c r="HK7" s="10"/>
-      <c r="HL7" s="68"/>
-      <c r="HM7" s="68"/>
-      <c r="HN7" s="68"/>
-      <c r="HO7" s="68"/>
-      <c r="HP7" s="68"/>
+      <c r="HL7" s="10"/>
+      <c r="HM7" s="10"/>
+      <c r="HN7" s="10"/>
+      <c r="HO7" s="10"/>
+      <c r="HP7" s="10"/>
       <c r="HQ7" s="10"/>
       <c r="HR7" s="10"/>
       <c r="HS7" s="10"/>
-      <c r="HT7" s="68"/>
-      <c r="HU7" s="68"/>
-      <c r="HV7" s="68"/>
-      <c r="HW7" s="68"/>
-      <c r="HX7" s="68"/>
+      <c r="HT7" s="10"/>
+      <c r="HU7" s="10"/>
+      <c r="HV7" s="10"/>
+      <c r="HW7" s="10"/>
+      <c r="HX7" s="10"/>
       <c r="HY7" s="10"/>
       <c r="HZ7" s="10"/>
       <c r="IA7" s="10"/>
-      <c r="IB7" s="68"/>
-      <c r="IC7" s="68"/>
-      <c r="ID7" s="68"/>
-      <c r="IE7" s="68"/>
-      <c r="IF7" s="68"/>
+      <c r="IB7" s="10"/>
+      <c r="IC7" s="10"/>
+      <c r="ID7" s="10"/>
+      <c r="IE7" s="10"/>
+      <c r="IF7" s="10"/>
     </row>
     <row r="8" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="C8" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="52"/>
-      <c r="G8" s="71"/>
+      <c r="G8" s="72">
+        <v>0</v>
+      </c>
       <c r="H8" s="60"/>
       <c r="I8" s="61"/>
       <c r="J8" s="61"/>
@@ -2586,14 +3394,14 @@
       <c r="M8" s="67"/>
       <c r="N8" s="66"/>
       <c r="O8" s="67"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="67"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="62"/>
       <c r="X8" s="66"/>
       <c r="Y8" s="61"/>
       <c r="Z8" s="61"/>
@@ -2812,19 +3620,13 @@
       <c r="IF8" s="68"/>
     </row>
     <row r="9" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="73">
-        <v>0</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="60"/>
       <c r="I9" s="61"/>
       <c r="J9" s="61"/>
@@ -2833,14 +3635,14 @@
       <c r="M9" s="67"/>
       <c r="N9" s="66"/>
       <c r="O9" s="67"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="62"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="67"/>
       <c r="X9" s="66"/>
       <c r="Y9" s="61"/>
       <c r="Z9" s="61"/>
@@ -2874,7 +3676,7 @@
       <c r="BC9" s="61"/>
       <c r="BD9" s="66"/>
       <c r="BE9" s="67"/>
-      <c r="BF9" s="66"/>
+      <c r="BF9" s="81"/>
       <c r="BG9" s="67"/>
       <c r="BH9" s="66"/>
       <c r="BI9" s="61"/>
@@ -3061,11 +3863,17 @@
     <row r="10" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
+      <c r="C10" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="51"/>
-      <c r="G10" s="73"/>
+      <c r="G10" s="74">
+        <v>0</v>
+      </c>
       <c r="H10" s="60"/>
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
@@ -3074,14 +3882,14 @@
       <c r="M10" s="67"/>
       <c r="N10" s="66"/>
       <c r="O10" s="67"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="67"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="62"/>
       <c r="X10" s="66"/>
       <c r="Y10" s="61"/>
       <c r="Z10" s="61"/>
@@ -3300,19 +4108,13 @@
       <c r="IF10" s="68"/>
     </row>
     <row r="11" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="71">
-        <v>0</v>
-      </c>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="74"/>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
@@ -3321,14 +4123,14 @@
       <c r="M11" s="67"/>
       <c r="N11" s="66"/>
       <c r="O11" s="67"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="62"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="67"/>
       <c r="X11" s="66"/>
       <c r="Y11" s="61"/>
       <c r="Z11" s="61"/>
@@ -3549,11 +4351,17 @@
     <row r="12" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
+      <c r="C12" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71" t="s">
+        <v>21</v>
+      </c>
       <c r="F12" s="52"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="72">
+        <v>1</v>
+      </c>
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
@@ -3562,14 +4370,14 @@
       <c r="M12" s="67"/>
       <c r="N12" s="66"/>
       <c r="O12" s="67"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="67"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="62"/>
       <c r="X12" s="66"/>
       <c r="Y12" s="61"/>
       <c r="Z12" s="61"/>
@@ -3788,19 +4596,13 @@
       <c r="IF12" s="68"/>
     </row>
     <row r="13" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="73">
-        <v>0</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="60"/>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
@@ -3809,14 +4611,14 @@
       <c r="M13" s="67"/>
       <c r="N13" s="66"/>
       <c r="O13" s="67"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="62"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="63"/>
       <c r="X13" s="66"/>
       <c r="Y13" s="61"/>
       <c r="Z13" s="61"/>
@@ -4037,11 +4839,17 @@
     <row r="14" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="48"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
+      <c r="C14" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="51"/>
-      <c r="G14" s="73"/>
+      <c r="G14" s="74">
+        <v>0</v>
+      </c>
       <c r="H14" s="60"/>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
@@ -4050,14 +4858,14 @@
       <c r="M14" s="67"/>
       <c r="N14" s="66"/>
       <c r="O14" s="67"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="67"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="62"/>
       <c r="X14" s="66"/>
       <c r="Y14" s="61"/>
       <c r="Z14" s="61"/>
@@ -4276,19 +5084,13 @@
       <c r="IF14" s="68"/>
     </row>
     <row r="15" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="71">
-        <v>0</v>
-      </c>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="60"/>
       <c r="I15" s="61"/>
       <c r="J15" s="61"/>
@@ -4297,14 +5099,14 @@
       <c r="M15" s="67"/>
       <c r="N15" s="66"/>
       <c r="O15" s="67"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="62"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="67"/>
       <c r="X15" s="66"/>
       <c r="Y15" s="61"/>
       <c r="Z15" s="61"/>
@@ -4525,11 +5327,17 @@
     <row r="16" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
+      <c r="C16" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="52"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="72">
+        <v>0</v>
+      </c>
       <c r="H16" s="60"/>
       <c r="I16" s="61"/>
       <c r="J16" s="61"/>
@@ -4538,14 +5346,14 @@
       <c r="M16" s="67"/>
       <c r="N16" s="66"/>
       <c r="O16" s="67"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="67"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="62"/>
       <c r="X16" s="66"/>
       <c r="Y16" s="61"/>
       <c r="Z16" s="61"/>
@@ -4764,35 +5572,29 @@
       <c r="IF16" s="68"/>
     </row>
     <row r="17" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="73">
-        <v>1</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="60"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="62"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="67"/>
       <c r="X17" s="66"/>
       <c r="Y17" s="61"/>
       <c r="Z17" s="61"/>
@@ -5013,27 +5815,33 @@
     <row r="18" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
+      <c r="C18" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73" t="s">
+        <v>22</v>
+      </c>
       <c r="F18" s="51"/>
-      <c r="G18" s="73"/>
+      <c r="G18" s="74">
+        <v>1</v>
+      </c>
       <c r="H18" s="60"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="63"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="62"/>
       <c r="X18" s="66"/>
       <c r="Y18" s="61"/>
       <c r="Z18" s="61"/>
@@ -5251,36 +6059,34 @@
       <c r="IE18" s="68"/>
       <c r="IF18" s="68"/>
     </row>
-    <row r="19" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="4"/>
+    <row r="19" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="74"/>
       <c r="H19" s="60"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
       <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="67"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="63"/>
       <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
       <c r="AB19" s="66"/>
       <c r="AC19" s="67"/>
       <c r="AD19" s="66"/>
@@ -5288,225 +6094,222 @@
       <c r="AF19" s="66"/>
       <c r="AG19" s="67"/>
       <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="70"/>
+      <c r="AI19" s="61"/>
       <c r="AK19" s="61"/>
       <c r="AL19" s="61"/>
       <c r="AM19" s="61"/>
-      <c r="AN19" s="61"/>
-      <c r="AO19" s="60"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="60"/>
-      <c r="AR19" s="61"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="67"/>
+      <c r="AR19" s="66"/>
       <c r="AS19" s="61"/>
       <c r="AT19" s="61"/>
       <c r="AU19" s="61"/>
-      <c r="AV19" s="61"/>
-      <c r="AW19" s="60"/>
-      <c r="AX19" s="61"/>
-      <c r="AY19" s="60"/>
-      <c r="AZ19" s="61"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="66"/>
       <c r="BA19" s="61"/>
       <c r="BB19" s="61"/>
       <c r="BC19" s="61"/>
-      <c r="BD19" s="61"/>
-      <c r="BE19" s="60"/>
-      <c r="BF19" s="61"/>
-      <c r="BG19" s="60"/>
-      <c r="BH19" s="61"/>
+      <c r="BD19" s="66"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="66"/>
+      <c r="BG19" s="67"/>
+      <c r="BH19" s="66"/>
       <c r="BI19" s="61"/>
       <c r="BJ19" s="61"/>
       <c r="BK19" s="61"/>
-      <c r="BL19" s="61"/>
-      <c r="BM19" s="60"/>
-      <c r="BN19" s="61"/>
-      <c r="BO19" s="60"/>
-      <c r="BP19" s="61"/>
+      <c r="BL19" s="66"/>
+      <c r="BM19" s="67"/>
+      <c r="BN19" s="66"/>
+      <c r="BO19" s="67"/>
+      <c r="BP19" s="66"/>
       <c r="BQ19" s="61"/>
       <c r="BR19" s="61"/>
       <c r="BS19" s="61"/>
-      <c r="BT19" s="61"/>
-      <c r="BU19" s="60"/>
-      <c r="BV19" s="61"/>
-      <c r="BW19" s="60"/>
-      <c r="BX19" s="61"/>
+      <c r="BT19" s="66"/>
+      <c r="BU19" s="67"/>
+      <c r="BV19" s="66"/>
+      <c r="BW19" s="67"/>
+      <c r="BX19" s="66"/>
       <c r="BY19" s="61"/>
       <c r="BZ19" s="61"/>
       <c r="CA19" s="61"/>
-      <c r="CB19" s="61"/>
-      <c r="CC19" s="60"/>
-      <c r="CD19" s="61"/>
-      <c r="CE19" s="60"/>
-      <c r="CF19" s="61"/>
+      <c r="CB19" s="66"/>
+      <c r="CC19" s="67"/>
+      <c r="CD19" s="66"/>
+      <c r="CE19" s="67"/>
+      <c r="CF19" s="66"/>
       <c r="CG19" s="61"/>
       <c r="CH19" s="61"/>
-      <c r="CI19" s="61"/>
-      <c r="CJ19" s="60"/>
-      <c r="CK19" s="61"/>
-      <c r="CL19" s="60"/>
-      <c r="CM19" s="61"/>
+      <c r="CI19" s="66"/>
+      <c r="CJ19" s="67"/>
+      <c r="CK19" s="66"/>
+      <c r="CL19" s="67"/>
+      <c r="CM19" s="66"/>
       <c r="CN19" s="61"/>
       <c r="CO19" s="61"/>
       <c r="CP19" s="61"/>
-      <c r="CQ19" s="61"/>
-      <c r="CR19" s="60"/>
-      <c r="CS19" s="61"/>
-      <c r="CT19" s="60"/>
-      <c r="CU19" s="61"/>
+      <c r="CQ19" s="66"/>
+      <c r="CR19" s="67"/>
+      <c r="CS19" s="66"/>
+      <c r="CT19" s="67"/>
+      <c r="CU19" s="66"/>
       <c r="CV19" s="61"/>
       <c r="CW19" s="61"/>
       <c r="CX19" s="61"/>
-      <c r="CY19" s="61"/>
-      <c r="CZ19" s="60"/>
-      <c r="DA19" s="61"/>
-      <c r="DB19" s="60"/>
-      <c r="DC19" s="61"/>
+      <c r="CY19" s="66"/>
+      <c r="CZ19" s="67"/>
+      <c r="DA19" s="66"/>
+      <c r="DB19" s="67"/>
+      <c r="DC19" s="66"/>
       <c r="DD19" s="61"/>
       <c r="DE19" s="61"/>
       <c r="DF19" s="61"/>
-      <c r="DG19" s="61"/>
-      <c r="DH19" s="60"/>
-      <c r="DI19" s="61"/>
-      <c r="DJ19" s="60"/>
-      <c r="DK19" s="61"/>
+      <c r="DG19" s="66"/>
+      <c r="DH19" s="67"/>
+      <c r="DI19" s="66"/>
+      <c r="DJ19" s="67"/>
+      <c r="DK19" s="66"/>
       <c r="DL19" s="61"/>
       <c r="DM19" s="61"/>
       <c r="DN19" s="61"/>
-      <c r="DO19" s="61"/>
-      <c r="DP19" s="60"/>
-      <c r="DQ19" s="61"/>
-      <c r="DR19" s="60"/>
-      <c r="DS19" s="61"/>
+      <c r="DO19" s="66"/>
+      <c r="DP19" s="67"/>
+      <c r="DQ19" s="66"/>
+      <c r="DR19" s="67"/>
+      <c r="DS19" s="66"/>
       <c r="DT19" s="61"/>
       <c r="DU19" s="61"/>
-      <c r="DV19" s="61"/>
-      <c r="DW19" s="60"/>
-      <c r="DX19" s="61"/>
-      <c r="DY19" s="60"/>
-      <c r="DZ19" s="61"/>
+      <c r="DV19" s="66"/>
+      <c r="DW19" s="67"/>
+      <c r="DX19" s="66"/>
+      <c r="DY19" s="67"/>
+      <c r="DZ19" s="66"/>
       <c r="EA19" s="61"/>
       <c r="EB19" s="61"/>
       <c r="EC19" s="61"/>
-      <c r="ED19" s="61"/>
-      <c r="EE19" s="60"/>
-      <c r="EF19" s="61"/>
-      <c r="EG19" s="60"/>
-      <c r="EH19" s="61"/>
+      <c r="ED19" s="66"/>
+      <c r="EE19" s="67"/>
+      <c r="EF19" s="66"/>
+      <c r="EG19" s="67"/>
+      <c r="EH19" s="66"/>
       <c r="EI19" s="61"/>
       <c r="EJ19" s="61"/>
       <c r="EK19" s="61"/>
-      <c r="EL19" s="61"/>
-      <c r="EM19" s="60"/>
-      <c r="EN19" s="61"/>
-      <c r="EO19" s="60"/>
-      <c r="EP19" s="61"/>
+      <c r="EL19" s="66"/>
+      <c r="EM19" s="67"/>
+      <c r="EN19" s="66"/>
+      <c r="EO19" s="67"/>
+      <c r="EP19" s="66"/>
       <c r="EQ19" s="61"/>
       <c r="ER19" s="61"/>
       <c r="ES19" s="61"/>
-      <c r="ET19" s="61"/>
-      <c r="EU19" s="60"/>
-      <c r="EV19" s="61"/>
-      <c r="EW19" s="60"/>
-      <c r="EX19" s="61"/>
+      <c r="ET19" s="66"/>
+      <c r="EU19" s="67"/>
+      <c r="EV19" s="66"/>
+      <c r="EW19" s="67"/>
+      <c r="EX19" s="66"/>
       <c r="EY19" s="61"/>
       <c r="EZ19" s="61"/>
       <c r="FA19" s="61"/>
-      <c r="FB19" s="61"/>
-      <c r="FC19" s="60"/>
-      <c r="FD19" s="61"/>
-      <c r="FE19" s="60"/>
-      <c r="FF19" s="61"/>
+      <c r="FB19" s="66"/>
+      <c r="FC19" s="67"/>
+      <c r="FD19" s="66"/>
+      <c r="FE19" s="67"/>
+      <c r="FF19" s="66"/>
       <c r="FG19" s="61"/>
       <c r="FH19" s="61"/>
-      <c r="FI19" s="61"/>
-      <c r="FJ19" s="60"/>
-      <c r="FK19" s="61"/>
-      <c r="FL19" s="60"/>
-      <c r="FM19" s="61"/>
+      <c r="FI19" s="66"/>
+      <c r="FJ19" s="67"/>
+      <c r="FK19" s="66"/>
+      <c r="FL19" s="67"/>
+      <c r="FM19" s="66"/>
       <c r="FN19" s="61"/>
       <c r="FO19" s="61"/>
       <c r="FP19" s="61"/>
-      <c r="FQ19" s="61"/>
-      <c r="FR19" s="60"/>
-      <c r="FS19" s="61"/>
-      <c r="FT19" s="60"/>
-      <c r="FU19" s="61"/>
+      <c r="FQ19" s="66"/>
+      <c r="FR19" s="67"/>
+      <c r="FS19" s="66"/>
+      <c r="FT19" s="67"/>
+      <c r="FU19" s="66"/>
       <c r="FV19" s="61"/>
       <c r="FW19" s="61"/>
       <c r="FX19" s="61"/>
-      <c r="FY19" s="61"/>
-      <c r="FZ19" s="60"/>
-      <c r="GA19" s="61"/>
-      <c r="GB19" s="60"/>
-      <c r="GC19" s="61"/>
+      <c r="FY19" s="66"/>
+      <c r="FZ19" s="67"/>
+      <c r="GA19" s="66"/>
+      <c r="GB19" s="67"/>
+      <c r="GC19" s="66"/>
       <c r="GD19" s="61"/>
       <c r="GE19" s="61"/>
       <c r="GF19" s="61"/>
-      <c r="GG19" s="61"/>
-      <c r="GH19" s="60"/>
-      <c r="GI19" s="61"/>
-      <c r="GJ19" s="60"/>
-      <c r="GK19" s="61"/>
+      <c r="GG19" s="66"/>
+      <c r="GH19" s="67"/>
+      <c r="GI19" s="66"/>
+      <c r="GJ19" s="67"/>
+      <c r="GK19" s="66"/>
       <c r="GL19" s="61"/>
       <c r="GM19" s="61"/>
       <c r="GN19" s="61"/>
-      <c r="GO19" s="61"/>
-      <c r="GP19" s="60"/>
-      <c r="GQ19" s="61"/>
-      <c r="GR19" s="60"/>
-      <c r="GS19" s="61"/>
+      <c r="GO19" s="66"/>
+      <c r="GP19" s="67"/>
+      <c r="GQ19" s="66"/>
+      <c r="GR19" s="67"/>
+      <c r="GS19" s="66"/>
       <c r="GT19" s="61"/>
       <c r="GU19" s="61"/>
-      <c r="GV19" s="61"/>
-      <c r="GW19" s="60"/>
-      <c r="GX19" s="61"/>
-      <c r="GY19" s="60"/>
-      <c r="GZ19" s="61"/>
+      <c r="GV19" s="66"/>
+      <c r="GW19" s="67"/>
+      <c r="GX19" s="66"/>
+      <c r="GY19" s="67"/>
+      <c r="GZ19" s="66"/>
       <c r="HA19" s="61"/>
       <c r="HB19" s="61"/>
       <c r="HC19" s="61"/>
-      <c r="HD19" s="61"/>
-      <c r="HE19" s="60"/>
-      <c r="HF19" s="61"/>
-      <c r="HG19" s="60"/>
-      <c r="HH19" s="61"/>
+      <c r="HD19" s="66"/>
+      <c r="HE19" s="67"/>
+      <c r="HF19" s="66"/>
+      <c r="HG19" s="67"/>
+      <c r="HH19" s="66"/>
       <c r="HI19" s="61"/>
       <c r="HJ19" s="61"/>
       <c r="HK19" s="10"/>
-      <c r="HL19" s="10"/>
-      <c r="HM19" s="10"/>
-      <c r="HN19" s="10"/>
-      <c r="HO19" s="10"/>
-      <c r="HP19" s="10"/>
+      <c r="HL19" s="68"/>
+      <c r="HM19" s="68"/>
+      <c r="HN19" s="68"/>
+      <c r="HO19" s="68"/>
+      <c r="HP19" s="68"/>
       <c r="HQ19" s="10"/>
       <c r="HR19" s="10"/>
       <c r="HS19" s="10"/>
-      <c r="HT19" s="10"/>
-      <c r="HU19" s="10"/>
-      <c r="HV19" s="10"/>
-      <c r="HW19" s="10"/>
-      <c r="HX19" s="10"/>
+      <c r="HT19" s="68"/>
+      <c r="HU19" s="68"/>
+      <c r="HV19" s="68"/>
+      <c r="HW19" s="68"/>
+      <c r="HX19" s="68"/>
       <c r="HY19" s="10"/>
       <c r="HZ19" s="10"/>
       <c r="IA19" s="10"/>
-      <c r="IB19" s="10"/>
-      <c r="IC19" s="10"/>
-      <c r="ID19" s="10"/>
-      <c r="IE19" s="10"/>
-      <c r="IF19" s="10"/>
+      <c r="IB19" s="68"/>
+      <c r="IC19" s="68"/>
+      <c r="ID19" s="68"/>
+      <c r="IE19" s="68"/>
+      <c r="IF19" s="68"/>
     </row>
-    <row r="20" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="71">
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="60"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -5522,20 +6325,20 @@
       <c r="T20" s="61"/>
       <c r="U20" s="60"/>
       <c r="V20" s="61"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="64"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="64"/>
-      <c r="AJ20" s="47"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="70"/>
       <c r="AK20" s="61"/>
       <c r="AL20" s="61"/>
       <c r="AM20" s="61"/>
@@ -5744,11 +6547,15 @@
     <row r="21" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
+      <c r="C21" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="71"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="71"/>
+      <c r="G21" s="72">
+        <v>0</v>
+      </c>
       <c r="H21" s="60"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -5764,27 +6571,27 @@
       <c r="T21" s="61"/>
       <c r="U21" s="60"/>
       <c r="V21" s="61"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="67"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="70"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="67"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="67"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="60"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="60"/>
       <c r="AR21" s="61"/>
       <c r="AS21" s="61"/>
       <c r="AT21" s="61"/>
@@ -5984,17 +6791,13 @@
       <c r="IF21" s="10"/>
     </row>
     <row r="22" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="73">
-        <v>0</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="60"/>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
@@ -6010,27 +6813,27 @@
       <c r="T22" s="61"/>
       <c r="U22" s="60"/>
       <c r="V22" s="61"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="64"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="64"/>
-      <c r="AI22" s="64"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="64"/>
-      <c r="AL22" s="64"/>
-      <c r="AM22" s="64"/>
-      <c r="AN22" s="64"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="64"/>
-      <c r="AQ22" s="62"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="67"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="67"/>
       <c r="AR22" s="61"/>
       <c r="AS22" s="61"/>
       <c r="AT22" s="61"/>
@@ -6232,11 +7035,15 @@
     <row r="23" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
+      <c r="C23" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="73"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="73"/>
+      <c r="G23" s="74">
+        <v>0</v>
+      </c>
       <c r="H23" s="60"/>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
@@ -6252,27 +7059,27 @@
       <c r="T23" s="61"/>
       <c r="U23" s="60"/>
       <c r="V23" s="61"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="70"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="67"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="67"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="64"/>
+      <c r="AL23" s="64"/>
+      <c r="AM23" s="64"/>
+      <c r="AN23" s="64"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="64"/>
+      <c r="AQ23" s="62"/>
       <c r="AR23" s="61"/>
       <c r="AS23" s="61"/>
       <c r="AT23" s="61"/>
@@ -6471,16 +7278,14 @@
       <c r="IE23" s="10"/>
       <c r="IF23" s="10"/>
     </row>
-    <row r="24" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+    <row r="24" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="74"/>
       <c r="H24" s="60"/>
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
@@ -6503,19 +7308,20 @@
       <c r="AA24" s="61"/>
       <c r="AB24" s="61"/>
       <c r="AC24" s="60"/>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="61"/>
-      <c r="AK24" s="61"/>
-      <c r="AL24" s="61"/>
-      <c r="AM24" s="61"/>
-      <c r="AN24" s="61"/>
-      <c r="AO24" s="60"/>
-      <c r="AP24" s="61"/>
-      <c r="AQ24" s="60"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="67"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="67"/>
       <c r="AR24" s="61"/>
       <c r="AS24" s="61"/>
       <c r="AT24" s="61"/>
@@ -6714,16 +7520,16 @@
       <c r="IE24" s="10"/>
       <c r="IF24" s="10"/>
     </row>
-    <row r="25" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+    <row r="25" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="60"/>
       <c r="I25" s="61"/>
       <c r="J25" s="61"/>
@@ -6958,17 +7764,15 @@
       <c r="IF25" s="10"/>
     </row>
     <row r="26" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="73">
-        <v>0</v>
-      </c>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="60"/>
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
@@ -6997,20 +7801,20 @@
       <c r="AG26" s="60"/>
       <c r="AH26" s="61"/>
       <c r="AI26" s="61"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="66"/>
-      <c r="AM26" s="66"/>
-      <c r="AN26" s="66"/>
-      <c r="AO26" s="67"/>
-      <c r="AP26" s="66"/>
-      <c r="AQ26" s="67"/>
-      <c r="AR26" s="64"/>
-      <c r="AS26" s="64"/>
-      <c r="AT26" s="64"/>
-      <c r="AU26" s="64"/>
-      <c r="AV26" s="64"/>
-      <c r="AW26" s="62"/>
-      <c r="AX26" s="64"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="61"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="61"/>
+      <c r="AO26" s="60"/>
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="60"/>
+      <c r="AR26" s="61"/>
+      <c r="AS26" s="61"/>
+      <c r="AT26" s="61"/>
+      <c r="AU26" s="61"/>
+      <c r="AV26" s="61"/>
+      <c r="AW26" s="60"/>
+      <c r="AX26" s="61"/>
       <c r="AY26" s="60"/>
       <c r="AZ26" s="61"/>
       <c r="BA26" s="61"/>
@@ -7206,10 +8010,14 @@
       <c r="A27" s="48"/>
       <c r="B27" s="48"/>
       <c r="C27" s="59"/>
-      <c r="D27" s="75"/>
+      <c r="D27" s="73" t="s">
+        <v>32</v>
+      </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
-      <c r="G27" s="73"/>
+      <c r="G27" s="74">
+        <v>0</v>
+      </c>
       <c r="H27" s="60"/>
       <c r="I27" s="61"/>
       <c r="J27" s="61"/>
@@ -7238,20 +8046,20 @@
       <c r="AG27" s="60"/>
       <c r="AH27" s="61"/>
       <c r="AI27" s="61"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="61"/>
-      <c r="AN27" s="61"/>
-      <c r="AO27" s="60"/>
-      <c r="AP27" s="61"/>
-      <c r="AQ27" s="60"/>
-      <c r="AR27" s="61"/>
-      <c r="AS27" s="61"/>
-      <c r="AT27" s="61"/>
-      <c r="AU27" s="61"/>
-      <c r="AV27" s="61"/>
-      <c r="AW27" s="60"/>
-      <c r="AX27" s="61"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="66"/>
+      <c r="AM27" s="66"/>
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="67"/>
+      <c r="AP27" s="66"/>
+      <c r="AQ27" s="67"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="62"/>
+      <c r="AX27" s="64"/>
       <c r="AY27" s="60"/>
       <c r="AZ27" s="61"/>
       <c r="BA27" s="61"/>
@@ -7444,17 +8252,13 @@
       <c r="IF27" s="10"/>
     </row>
     <row r="28" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="71">
-        <v>0</v>
-      </c>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="74"/>
       <c r="H28" s="60"/>
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
@@ -7490,13 +8294,13 @@
       <c r="AO28" s="60"/>
       <c r="AP28" s="61"/>
       <c r="AQ28" s="60"/>
-      <c r="AR28" s="64"/>
-      <c r="AS28" s="64"/>
-      <c r="AT28" s="64"/>
-      <c r="AU28" s="64"/>
-      <c r="AV28" s="64"/>
-      <c r="AW28" s="62"/>
-      <c r="AX28" s="64"/>
+      <c r="AR28" s="61"/>
+      <c r="AS28" s="61"/>
+      <c r="AT28" s="61"/>
+      <c r="AU28" s="61"/>
+      <c r="AV28" s="61"/>
+      <c r="AW28" s="60"/>
+      <c r="AX28" s="61"/>
       <c r="AY28" s="60"/>
       <c r="AZ28" s="61"/>
       <c r="BA28" s="61"/>
@@ -7692,10 +8496,14 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="53"/>
-      <c r="D29" s="72"/>
+      <c r="D29" s="71" t="s">
+        <v>32</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="71"/>
+      <c r="G29" s="72">
+        <v>0</v>
+      </c>
       <c r="H29" s="60"/>
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
@@ -7731,13 +8539,13 @@
       <c r="AO29" s="60"/>
       <c r="AP29" s="61"/>
       <c r="AQ29" s="60"/>
-      <c r="AR29" s="61"/>
-      <c r="AS29" s="61"/>
-      <c r="AT29" s="61"/>
-      <c r="AU29" s="61"/>
-      <c r="AV29" s="61"/>
-      <c r="AW29" s="60"/>
-      <c r="AX29" s="61"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+      <c r="AT29" s="64"/>
+      <c r="AU29" s="64"/>
+      <c r="AV29" s="64"/>
+      <c r="AW29" s="62"/>
+      <c r="AX29" s="64"/>
       <c r="AY29" s="60"/>
       <c r="AZ29" s="61"/>
       <c r="BA29" s="61"/>
@@ -7930,17 +8738,13 @@
       <c r="IF29" s="10"/>
     </row>
     <row r="30" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="73">
-        <v>0</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="60"/>
       <c r="I30" s="61"/>
       <c r="J30" s="61"/>
@@ -7983,13 +8787,13 @@
       <c r="AV30" s="61"/>
       <c r="AW30" s="60"/>
       <c r="AX30" s="61"/>
-      <c r="AY30" s="62"/>
-      <c r="AZ30" s="64"/>
-      <c r="BA30" s="64"/>
-      <c r="BB30" s="64"/>
-      <c r="BC30" s="64"/>
-      <c r="BD30" s="64"/>
-      <c r="BE30" s="62"/>
+      <c r="AY30" s="60"/>
+      <c r="AZ30" s="61"/>
+      <c r="BA30" s="61"/>
+      <c r="BB30" s="61"/>
+      <c r="BC30" s="61"/>
+      <c r="BD30" s="61"/>
+      <c r="BE30" s="60"/>
       <c r="BF30" s="61"/>
       <c r="BG30" s="60"/>
       <c r="BH30" s="61"/>
@@ -8178,10 +8982,14 @@
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
       <c r="C31" s="59"/>
-      <c r="D31" s="75"/>
+      <c r="D31" s="73" t="s">
+        <v>32</v>
+      </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
-      <c r="G31" s="73"/>
+      <c r="G31" s="74">
+        <v>0</v>
+      </c>
       <c r="H31" s="60"/>
       <c r="I31" s="61"/>
       <c r="J31" s="61"/>
@@ -8224,13 +9032,13 @@
       <c r="AV31" s="61"/>
       <c r="AW31" s="60"/>
       <c r="AX31" s="61"/>
-      <c r="AY31" s="60"/>
-      <c r="AZ31" s="61"/>
-      <c r="BA31" s="61"/>
-      <c r="BB31" s="61"/>
-      <c r="BC31" s="61"/>
-      <c r="BD31" s="61"/>
-      <c r="BE31" s="60"/>
+      <c r="AY31" s="62"/>
+      <c r="AZ31" s="64"/>
+      <c r="BA31" s="64"/>
+      <c r="BB31" s="64"/>
+      <c r="BC31" s="64"/>
+      <c r="BD31" s="64"/>
+      <c r="BE31" s="62"/>
       <c r="BF31" s="61"/>
       <c r="BG31" s="60"/>
       <c r="BH31" s="61"/>
@@ -8416,17 +9224,13 @@
       <c r="IF31" s="10"/>
     </row>
     <row r="32" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="71">
-        <v>0</v>
-      </c>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="74"/>
       <c r="H32" s="60"/>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
@@ -8469,13 +9273,13 @@
       <c r="AV32" s="61"/>
       <c r="AW32" s="60"/>
       <c r="AX32" s="61"/>
-      <c r="AY32" s="62"/>
-      <c r="AZ32" s="64"/>
-      <c r="BA32" s="64"/>
-      <c r="BB32" s="64"/>
-      <c r="BC32" s="64"/>
-      <c r="BD32" s="64"/>
-      <c r="BE32" s="62"/>
+      <c r="AY32" s="60"/>
+      <c r="AZ32" s="61"/>
+      <c r="BA32" s="61"/>
+      <c r="BB32" s="61"/>
+      <c r="BC32" s="61"/>
+      <c r="BD32" s="61"/>
+      <c r="BE32" s="60"/>
       <c r="BF32" s="61"/>
       <c r="BG32" s="60"/>
       <c r="BH32" s="61"/>
@@ -8664,10 +9468,14 @@
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="53"/>
-      <c r="D33" s="72"/>
+      <c r="D33" s="71" t="s">
+        <v>32</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="71"/>
+      <c r="G33" s="72">
+        <v>0</v>
+      </c>
       <c r="H33" s="60"/>
       <c r="I33" s="61"/>
       <c r="J33" s="61"/>
@@ -8710,13 +9518,13 @@
       <c r="AV33" s="61"/>
       <c r="AW33" s="60"/>
       <c r="AX33" s="61"/>
-      <c r="AY33" s="60"/>
-      <c r="AZ33" s="61"/>
-      <c r="BA33" s="61"/>
-      <c r="BB33" s="61"/>
-      <c r="BC33" s="61"/>
-      <c r="BD33" s="61"/>
-      <c r="BE33" s="60"/>
+      <c r="AY33" s="62"/>
+      <c r="AZ33" s="64"/>
+      <c r="BA33" s="64"/>
+      <c r="BB33" s="64"/>
+      <c r="BC33" s="64"/>
+      <c r="BD33" s="64"/>
+      <c r="BE33" s="62"/>
       <c r="BF33" s="61"/>
       <c r="BG33" s="60"/>
       <c r="BH33" s="61"/>
@@ -8902,17 +9710,13 @@
       <c r="IF33" s="10"/>
     </row>
     <row r="34" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="73">
-        <v>0</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="60"/>
       <c r="I34" s="61"/>
       <c r="J34" s="61"/>
@@ -8962,14 +9766,14 @@
       <c r="BC34" s="61"/>
       <c r="BD34" s="61"/>
       <c r="BE34" s="60"/>
-      <c r="BF34" s="64"/>
-      <c r="BG34" s="62"/>
-      <c r="BH34" s="64"/>
-      <c r="BI34" s="64"/>
-      <c r="BJ34" s="64"/>
-      <c r="BK34" s="64"/>
-      <c r="BL34" s="64"/>
-      <c r="BM34" s="62"/>
+      <c r="BF34" s="61"/>
+      <c r="BG34" s="60"/>
+      <c r="BH34" s="61"/>
+      <c r="BI34" s="61"/>
+      <c r="BJ34" s="61"/>
+      <c r="BK34" s="61"/>
+      <c r="BL34" s="61"/>
+      <c r="BM34" s="60"/>
       <c r="BN34" s="61"/>
       <c r="BO34" s="60"/>
       <c r="BP34" s="61"/>
@@ -9150,10 +9954,14 @@
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
       <c r="C35" s="59"/>
-      <c r="D35" s="75"/>
+      <c r="D35" s="73" t="s">
+        <v>32</v>
+      </c>
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
-      <c r="G35" s="73"/>
+      <c r="G35" s="74">
+        <v>0</v>
+      </c>
       <c r="H35" s="60"/>
       <c r="I35" s="61"/>
       <c r="J35" s="61"/>
@@ -9203,14 +10011,14 @@
       <c r="BC35" s="61"/>
       <c r="BD35" s="61"/>
       <c r="BE35" s="60"/>
-      <c r="BF35" s="61"/>
-      <c r="BG35" s="60"/>
-      <c r="BH35" s="61"/>
-      <c r="BI35" s="61"/>
-      <c r="BJ35" s="61"/>
-      <c r="BK35" s="61"/>
-      <c r="BL35" s="61"/>
-      <c r="BM35" s="60"/>
+      <c r="BF35" s="64"/>
+      <c r="BG35" s="62"/>
+      <c r="BH35" s="64"/>
+      <c r="BI35" s="64"/>
+      <c r="BJ35" s="64"/>
+      <c r="BK35" s="64"/>
+      <c r="BL35" s="64"/>
+      <c r="BM35" s="62"/>
       <c r="BN35" s="61"/>
       <c r="BO35" s="60"/>
       <c r="BP35" s="61"/>
@@ -9388,17 +10196,13 @@
       <c r="IF35" s="10"/>
     </row>
     <row r="36" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="71">
-        <v>0</v>
-      </c>
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="74"/>
       <c r="H36" s="60"/>
       <c r="I36" s="61"/>
       <c r="J36" s="61"/>
@@ -9448,14 +10252,14 @@
       <c r="BC36" s="61"/>
       <c r="BD36" s="61"/>
       <c r="BE36" s="60"/>
-      <c r="BF36" s="64"/>
-      <c r="BG36" s="62"/>
-      <c r="BH36" s="64"/>
-      <c r="BI36" s="64"/>
-      <c r="BJ36" s="64"/>
-      <c r="BK36" s="64"/>
-      <c r="BL36" s="64"/>
-      <c r="BM36" s="62"/>
+      <c r="BF36" s="61"/>
+      <c r="BG36" s="60"/>
+      <c r="BH36" s="61"/>
+      <c r="BI36" s="61"/>
+      <c r="BJ36" s="61"/>
+      <c r="BK36" s="61"/>
+      <c r="BL36" s="61"/>
+      <c r="BM36" s="60"/>
       <c r="BN36" s="61"/>
       <c r="BO36" s="60"/>
       <c r="BP36" s="61"/>
@@ -9636,10 +10440,14 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="53"/>
-      <c r="D37" s="72"/>
+      <c r="D37" s="71" t="s">
+        <v>32</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="71"/>
+      <c r="G37" s="72">
+        <v>0</v>
+      </c>
       <c r="H37" s="60"/>
       <c r="I37" s="61"/>
       <c r="J37" s="61"/>
@@ -9689,14 +10497,14 @@
       <c r="BC37" s="61"/>
       <c r="BD37" s="61"/>
       <c r="BE37" s="60"/>
-      <c r="BF37" s="61"/>
-      <c r="BG37" s="60"/>
-      <c r="BH37" s="61"/>
-      <c r="BI37" s="61"/>
-      <c r="BJ37" s="61"/>
-      <c r="BK37" s="61"/>
-      <c r="BL37" s="61"/>
-      <c r="BM37" s="60"/>
+      <c r="BF37" s="64"/>
+      <c r="BG37" s="62"/>
+      <c r="BH37" s="64"/>
+      <c r="BI37" s="64"/>
+      <c r="BJ37" s="64"/>
+      <c r="BK37" s="64"/>
+      <c r="BL37" s="64"/>
+      <c r="BM37" s="62"/>
       <c r="BN37" s="61"/>
       <c r="BO37" s="60"/>
       <c r="BP37" s="61"/>
@@ -9874,17 +10682,13 @@
       <c r="IF37" s="10"/>
     </row>
     <row r="38" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="73">
-        <v>0</v>
-      </c>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="60"/>
       <c r="I38" s="61"/>
       <c r="J38" s="61"/>
@@ -9942,12 +10746,12 @@
       <c r="BK38" s="61"/>
       <c r="BL38" s="61"/>
       <c r="BM38" s="60"/>
-      <c r="BN38" s="64"/>
-      <c r="BO38" s="62"/>
-      <c r="BP38" s="64"/>
-      <c r="BQ38" s="64"/>
-      <c r="BR38" s="64"/>
-      <c r="BS38" s="64"/>
+      <c r="BN38" s="61"/>
+      <c r="BO38" s="60"/>
+      <c r="BP38" s="61"/>
+      <c r="BQ38" s="61"/>
+      <c r="BR38" s="61"/>
+      <c r="BS38" s="61"/>
       <c r="BT38" s="61"/>
       <c r="BU38" s="60"/>
       <c r="BV38" s="61"/>
@@ -10122,10 +10926,14 @@
       <c r="A39" s="48"/>
       <c r="B39" s="48"/>
       <c r="C39" s="59"/>
-      <c r="D39" s="75"/>
+      <c r="D39" s="73" t="s">
+        <v>32</v>
+      </c>
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
-      <c r="G39" s="73"/>
+      <c r="G39" s="74">
+        <v>0</v>
+      </c>
       <c r="H39" s="60"/>
       <c r="I39" s="61"/>
       <c r="J39" s="61"/>
@@ -10183,12 +10991,12 @@
       <c r="BK39" s="61"/>
       <c r="BL39" s="61"/>
       <c r="BM39" s="60"/>
-      <c r="BN39" s="61"/>
-      <c r="BO39" s="60"/>
-      <c r="BP39" s="61"/>
-      <c r="BQ39" s="61"/>
-      <c r="BR39" s="61"/>
-      <c r="BS39" s="61"/>
+      <c r="BN39" s="64"/>
+      <c r="BO39" s="62"/>
+      <c r="BP39" s="64"/>
+      <c r="BQ39" s="64"/>
+      <c r="BR39" s="64"/>
+      <c r="BS39" s="64"/>
       <c r="BT39" s="61"/>
       <c r="BU39" s="60"/>
       <c r="BV39" s="61"/>
@@ -10360,17 +11168,13 @@
       <c r="IF39" s="10"/>
     </row>
     <row r="40" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="71">
-        <v>0</v>
-      </c>
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="74"/>
       <c r="H40" s="60"/>
       <c r="I40" s="61"/>
       <c r="J40" s="61"/>
@@ -10428,12 +11232,12 @@
       <c r="BK40" s="61"/>
       <c r="BL40" s="61"/>
       <c r="BM40" s="60"/>
-      <c r="BN40" s="64"/>
-      <c r="BO40" s="62"/>
-      <c r="BP40" s="64"/>
-      <c r="BQ40" s="64"/>
-      <c r="BR40" s="64"/>
-      <c r="BS40" s="64"/>
+      <c r="BN40" s="61"/>
+      <c r="BO40" s="60"/>
+      <c r="BP40" s="61"/>
+      <c r="BQ40" s="61"/>
+      <c r="BR40" s="61"/>
+      <c r="BS40" s="61"/>
       <c r="BT40" s="61"/>
       <c r="BU40" s="60"/>
       <c r="BV40" s="61"/>
@@ -10608,10 +11412,14 @@
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="53"/>
-      <c r="D41" s="72"/>
+      <c r="D41" s="71" t="s">
+        <v>32</v>
+      </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="71"/>
+      <c r="G41" s="72">
+        <v>0</v>
+      </c>
       <c r="H41" s="60"/>
       <c r="I41" s="61"/>
       <c r="J41" s="61"/>
@@ -10669,12 +11477,12 @@
       <c r="BK41" s="61"/>
       <c r="BL41" s="61"/>
       <c r="BM41" s="60"/>
-      <c r="BN41" s="61"/>
-      <c r="BO41" s="60"/>
-      <c r="BP41" s="61"/>
-      <c r="BQ41" s="61"/>
-      <c r="BR41" s="61"/>
-      <c r="BS41" s="61"/>
+      <c r="BN41" s="64"/>
+      <c r="BO41" s="62"/>
+      <c r="BP41" s="64"/>
+      <c r="BQ41" s="64"/>
+      <c r="BR41" s="64"/>
+      <c r="BS41" s="64"/>
       <c r="BT41" s="61"/>
       <c r="BU41" s="60"/>
       <c r="BV41" s="61"/>
@@ -10846,17 +11654,13 @@
       <c r="IF41" s="10"/>
     </row>
     <row r="42" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="73">
-        <v>0</v>
-      </c>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="60"/>
       <c r="I42" s="61"/>
       <c r="J42" s="61"/>
@@ -10920,13 +11724,13 @@
       <c r="BQ42" s="61"/>
       <c r="BR42" s="61"/>
       <c r="BS42" s="61"/>
-      <c r="BT42" s="64"/>
-      <c r="BU42" s="62"/>
-      <c r="BV42" s="64"/>
-      <c r="BW42" s="62"/>
-      <c r="BX42" s="64"/>
-      <c r="BY42" s="64"/>
-      <c r="BZ42" s="64"/>
+      <c r="BT42" s="61"/>
+      <c r="BU42" s="60"/>
+      <c r="BV42" s="61"/>
+      <c r="BW42" s="60"/>
+      <c r="BX42" s="61"/>
+      <c r="BY42" s="61"/>
+      <c r="BZ42" s="61"/>
       <c r="CA42" s="61"/>
       <c r="CB42" s="61"/>
       <c r="CC42" s="60"/>
@@ -11094,10 +11898,14 @@
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="59"/>
-      <c r="D43" s="75"/>
+      <c r="D43" s="73" t="s">
+        <v>32</v>
+      </c>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
-      <c r="G43" s="73"/>
+      <c r="G43" s="74">
+        <v>0</v>
+      </c>
       <c r="H43" s="60"/>
       <c r="I43" s="61"/>
       <c r="J43" s="61"/>
@@ -11161,13 +11969,13 @@
       <c r="BQ43" s="61"/>
       <c r="BR43" s="61"/>
       <c r="BS43" s="61"/>
-      <c r="BT43" s="61"/>
-      <c r="BU43" s="60"/>
-      <c r="BV43" s="61"/>
-      <c r="BW43" s="60"/>
-      <c r="BX43" s="61"/>
-      <c r="BY43" s="61"/>
-      <c r="BZ43" s="61"/>
+      <c r="BT43" s="64"/>
+      <c r="BU43" s="62"/>
+      <c r="BV43" s="64"/>
+      <c r="BW43" s="62"/>
+      <c r="BX43" s="64"/>
+      <c r="BY43" s="64"/>
+      <c r="BZ43" s="64"/>
       <c r="CA43" s="61"/>
       <c r="CB43" s="61"/>
       <c r="CC43" s="60"/>
@@ -11332,17 +12140,13 @@
       <c r="IF43" s="10"/>
     </row>
     <row r="44" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="71">
-        <v>0</v>
-      </c>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="74"/>
       <c r="H44" s="60"/>
       <c r="I44" s="61"/>
       <c r="J44" s="61"/>
@@ -11406,13 +12210,13 @@
       <c r="BQ44" s="61"/>
       <c r="BR44" s="61"/>
       <c r="BS44" s="61"/>
-      <c r="BT44" s="64"/>
-      <c r="BU44" s="62"/>
-      <c r="BV44" s="64"/>
-      <c r="BW44" s="62"/>
-      <c r="BX44" s="64"/>
-      <c r="BY44" s="64"/>
-      <c r="BZ44" s="64"/>
+      <c r="BT44" s="61"/>
+      <c r="BU44" s="60"/>
+      <c r="BV44" s="61"/>
+      <c r="BW44" s="60"/>
+      <c r="BX44" s="61"/>
+      <c r="BY44" s="61"/>
+      <c r="BZ44" s="61"/>
       <c r="CA44" s="61"/>
       <c r="CB44" s="61"/>
       <c r="CC44" s="60"/>
@@ -11580,10 +12384,14 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="53"/>
-      <c r="D45" s="72"/>
+      <c r="D45" s="71" t="s">
+        <v>32</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="71"/>
+      <c r="G45" s="72">
+        <v>0</v>
+      </c>
       <c r="H45" s="60"/>
       <c r="I45" s="61"/>
       <c r="J45" s="61"/>
@@ -11647,13 +12455,13 @@
       <c r="BQ45" s="61"/>
       <c r="BR45" s="61"/>
       <c r="BS45" s="61"/>
-      <c r="BT45" s="61"/>
-      <c r="BU45" s="60"/>
-      <c r="BV45" s="61"/>
-      <c r="BW45" s="60"/>
-      <c r="BX45" s="61"/>
-      <c r="BY45" s="61"/>
-      <c r="BZ45" s="61"/>
+      <c r="BT45" s="64"/>
+      <c r="BU45" s="62"/>
+      <c r="BV45" s="64"/>
+      <c r="BW45" s="62"/>
+      <c r="BX45" s="64"/>
+      <c r="BY45" s="64"/>
+      <c r="BZ45" s="64"/>
       <c r="CA45" s="61"/>
       <c r="CB45" s="61"/>
       <c r="CC45" s="60"/>
@@ -11818,17 +12626,13 @@
       <c r="IF45" s="10"/>
     </row>
     <row r="46" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="73">
-        <v>0</v>
-      </c>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="72"/>
       <c r="H46" s="60"/>
       <c r="I46" s="61"/>
       <c r="J46" s="61"/>
@@ -11899,13 +12703,13 @@
       <c r="BX46" s="61"/>
       <c r="BY46" s="61"/>
       <c r="BZ46" s="61"/>
-      <c r="CA46" s="64"/>
-      <c r="CB46" s="64"/>
-      <c r="CC46" s="62"/>
-      <c r="CD46" s="64"/>
-      <c r="CE46" s="62"/>
-      <c r="CF46" s="64"/>
-      <c r="CG46" s="64"/>
+      <c r="CA46" s="61"/>
+      <c r="CB46" s="61"/>
+      <c r="CC46" s="60"/>
+      <c r="CD46" s="61"/>
+      <c r="CE46" s="60"/>
+      <c r="CF46" s="61"/>
+      <c r="CG46" s="61"/>
       <c r="CH46" s="61"/>
       <c r="CI46" s="61"/>
       <c r="CJ46" s="60"/>
@@ -12066,10 +12870,14 @@
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="59"/>
-      <c r="D47" s="75"/>
+      <c r="D47" s="73" t="s">
+        <v>32</v>
+      </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
-      <c r="G47" s="73"/>
+      <c r="G47" s="74">
+        <v>0</v>
+      </c>
       <c r="H47" s="60"/>
       <c r="I47" s="61"/>
       <c r="J47" s="61"/>
@@ -12140,13 +12948,13 @@
       <c r="BX47" s="61"/>
       <c r="BY47" s="61"/>
       <c r="BZ47" s="61"/>
-      <c r="CA47" s="61"/>
-      <c r="CB47" s="61"/>
-      <c r="CC47" s="60"/>
-      <c r="CD47" s="61"/>
-      <c r="CE47" s="60"/>
-      <c r="CF47" s="61"/>
-      <c r="CG47" s="61"/>
+      <c r="CA47" s="64"/>
+      <c r="CB47" s="64"/>
+      <c r="CC47" s="62"/>
+      <c r="CD47" s="64"/>
+      <c r="CE47" s="62"/>
+      <c r="CF47" s="64"/>
+      <c r="CG47" s="64"/>
       <c r="CH47" s="61"/>
       <c r="CI47" s="61"/>
       <c r="CJ47" s="60"/>
@@ -12304,17 +13112,13 @@
       <c r="IF47" s="10"/>
     </row>
     <row r="48" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="74"/>
       <c r="H48" s="60"/>
       <c r="I48" s="61"/>
       <c r="J48" s="61"/>
@@ -12385,13 +13189,13 @@
       <c r="BX48" s="61"/>
       <c r="BY48" s="61"/>
       <c r="BZ48" s="61"/>
-      <c r="CA48" s="64"/>
-      <c r="CB48" s="64"/>
-      <c r="CC48" s="62"/>
-      <c r="CD48" s="64"/>
-      <c r="CE48" s="62"/>
-      <c r="CF48" s="64"/>
-      <c r="CG48" s="64"/>
+      <c r="CA48" s="61"/>
+      <c r="CB48" s="61"/>
+      <c r="CC48" s="60"/>
+      <c r="CD48" s="61"/>
+      <c r="CE48" s="60"/>
+      <c r="CF48" s="61"/>
+      <c r="CG48" s="61"/>
       <c r="CH48" s="61"/>
       <c r="CI48" s="61"/>
       <c r="CJ48" s="60"/>
@@ -12552,10 +13356,14 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="53"/>
-      <c r="D49" s="72"/>
+      <c r="D49" s="71" t="s">
+        <v>32</v>
+      </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="71"/>
+      <c r="G49" s="72">
+        <v>0</v>
+      </c>
       <c r="H49" s="60"/>
       <c r="I49" s="61"/>
       <c r="J49" s="61"/>
@@ -12626,13 +13434,13 @@
       <c r="BX49" s="61"/>
       <c r="BY49" s="61"/>
       <c r="BZ49" s="61"/>
-      <c r="CA49" s="61"/>
-      <c r="CB49" s="61"/>
-      <c r="CC49" s="60"/>
-      <c r="CD49" s="61"/>
-      <c r="CE49" s="60"/>
-      <c r="CF49" s="61"/>
-      <c r="CG49" s="61"/>
+      <c r="CA49" s="64"/>
+      <c r="CB49" s="64"/>
+      <c r="CC49" s="62"/>
+      <c r="CD49" s="64"/>
+      <c r="CE49" s="62"/>
+      <c r="CF49" s="64"/>
+      <c r="CG49" s="64"/>
       <c r="CH49" s="61"/>
       <c r="CI49" s="61"/>
       <c r="CJ49" s="60"/>
@@ -12790,17 +13598,13 @@
       <c r="IF49" s="10"/>
     </row>
     <row r="50" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="73">
-        <v>0</v>
-      </c>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="72"/>
       <c r="H50" s="60"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -12878,13 +13682,13 @@
       <c r="CE50" s="60"/>
       <c r="CF50" s="61"/>
       <c r="CG50" s="61"/>
-      <c r="CH50" s="64"/>
-      <c r="CI50" s="64"/>
-      <c r="CJ50" s="62"/>
-      <c r="CK50" s="64"/>
-      <c r="CL50" s="62"/>
-      <c r="CM50" s="64"/>
-      <c r="CN50" s="64"/>
+      <c r="CH50" s="61"/>
+      <c r="CI50" s="61"/>
+      <c r="CJ50" s="60"/>
+      <c r="CK50" s="61"/>
+      <c r="CL50" s="60"/>
+      <c r="CM50" s="61"/>
+      <c r="CN50" s="61"/>
       <c r="CO50" s="61"/>
       <c r="CP50" s="61"/>
       <c r="CQ50" s="61"/>
@@ -13038,10 +13842,14 @@
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="59"/>
-      <c r="D51" s="75"/>
+      <c r="D51" s="73" t="s">
+        <v>32</v>
+      </c>
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
-      <c r="G51" s="73"/>
+      <c r="G51" s="74">
+        <v>0</v>
+      </c>
       <c r="H51" s="60"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -13119,13 +13927,13 @@
       <c r="CE51" s="60"/>
       <c r="CF51" s="61"/>
       <c r="CG51" s="61"/>
-      <c r="CH51" s="61"/>
-      <c r="CI51" s="61"/>
-      <c r="CJ51" s="60"/>
-      <c r="CK51" s="61"/>
-      <c r="CL51" s="60"/>
-      <c r="CM51" s="61"/>
-      <c r="CN51" s="61"/>
+      <c r="CH51" s="64"/>
+      <c r="CI51" s="64"/>
+      <c r="CJ51" s="62"/>
+      <c r="CK51" s="64"/>
+      <c r="CL51" s="62"/>
+      <c r="CM51" s="64"/>
+      <c r="CN51" s="64"/>
       <c r="CO51" s="61"/>
       <c r="CP51" s="61"/>
       <c r="CQ51" s="61"/>
@@ -13276,17 +14084,13 @@
       <c r="IF51" s="10"/>
     </row>
     <row r="52" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="71">
-        <v>0</v>
-      </c>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="74"/>
       <c r="H52" s="60"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -13322,62 +14126,62 @@
       <c r="AO52" s="60"/>
       <c r="AP52" s="61"/>
       <c r="AQ52" s="60"/>
-      <c r="AR52" s="64"/>
-      <c r="AS52" s="64"/>
-      <c r="AT52" s="64"/>
-      <c r="AU52" s="64"/>
-      <c r="AV52" s="64"/>
-      <c r="AW52" s="62"/>
-      <c r="AX52" s="64"/>
-      <c r="AY52" s="62"/>
-      <c r="AZ52" s="64"/>
-      <c r="BA52" s="64"/>
-      <c r="BB52" s="64"/>
-      <c r="BC52" s="64"/>
-      <c r="BD52" s="64"/>
-      <c r="BE52" s="62"/>
-      <c r="BF52" s="64"/>
-      <c r="BG52" s="62"/>
-      <c r="BH52" s="64"/>
-      <c r="BI52" s="64"/>
-      <c r="BJ52" s="64"/>
-      <c r="BK52" s="64"/>
-      <c r="BL52" s="64"/>
-      <c r="BM52" s="62"/>
-      <c r="BN52" s="64"/>
-      <c r="BO52" s="62"/>
-      <c r="BP52" s="64"/>
-      <c r="BQ52" s="64"/>
-      <c r="BR52" s="64"/>
-      <c r="BS52" s="64"/>
-      <c r="BT52" s="64"/>
-      <c r="BU52" s="62"/>
-      <c r="BV52" s="64"/>
-      <c r="BW52" s="62"/>
-      <c r="BX52" s="64"/>
-      <c r="BY52" s="64"/>
-      <c r="BZ52" s="64"/>
-      <c r="CA52" s="64"/>
-      <c r="CB52" s="64"/>
-      <c r="CC52" s="62"/>
-      <c r="CD52" s="64"/>
-      <c r="CE52" s="62"/>
-      <c r="CF52" s="64"/>
-      <c r="CG52" s="64"/>
-      <c r="CH52" s="64"/>
-      <c r="CI52" s="64"/>
-      <c r="CJ52" s="62"/>
-      <c r="CK52" s="64"/>
-      <c r="CL52" s="62"/>
-      <c r="CM52" s="64"/>
-      <c r="CN52" s="64"/>
-      <c r="CO52" s="66"/>
-      <c r="CP52" s="66"/>
-      <c r="CQ52" s="66"/>
-      <c r="CR52" s="67"/>
-      <c r="CS52" s="66"/>
-      <c r="CT52" s="67"/>
-      <c r="CU52" s="66"/>
+      <c r="AR52" s="61"/>
+      <c r="AS52" s="61"/>
+      <c r="AT52" s="61"/>
+      <c r="AU52" s="61"/>
+      <c r="AV52" s="61"/>
+      <c r="AW52" s="60"/>
+      <c r="AX52" s="61"/>
+      <c r="AY52" s="60"/>
+      <c r="AZ52" s="61"/>
+      <c r="BA52" s="61"/>
+      <c r="BB52" s="61"/>
+      <c r="BC52" s="61"/>
+      <c r="BD52" s="61"/>
+      <c r="BE52" s="60"/>
+      <c r="BF52" s="61"/>
+      <c r="BG52" s="60"/>
+      <c r="BH52" s="61"/>
+      <c r="BI52" s="61"/>
+      <c r="BJ52" s="61"/>
+      <c r="BK52" s="61"/>
+      <c r="BL52" s="61"/>
+      <c r="BM52" s="60"/>
+      <c r="BN52" s="61"/>
+      <c r="BO52" s="60"/>
+      <c r="BP52" s="61"/>
+      <c r="BQ52" s="61"/>
+      <c r="BR52" s="61"/>
+      <c r="BS52" s="61"/>
+      <c r="BT52" s="61"/>
+      <c r="BU52" s="60"/>
+      <c r="BV52" s="61"/>
+      <c r="BW52" s="60"/>
+      <c r="BX52" s="61"/>
+      <c r="BY52" s="61"/>
+      <c r="BZ52" s="61"/>
+      <c r="CA52" s="61"/>
+      <c r="CB52" s="61"/>
+      <c r="CC52" s="60"/>
+      <c r="CD52" s="61"/>
+      <c r="CE52" s="60"/>
+      <c r="CF52" s="61"/>
+      <c r="CG52" s="61"/>
+      <c r="CH52" s="61"/>
+      <c r="CI52" s="61"/>
+      <c r="CJ52" s="60"/>
+      <c r="CK52" s="61"/>
+      <c r="CL52" s="60"/>
+      <c r="CM52" s="61"/>
+      <c r="CN52" s="61"/>
+      <c r="CO52" s="61"/>
+      <c r="CP52" s="61"/>
+      <c r="CQ52" s="61"/>
+      <c r="CR52" s="60"/>
+      <c r="CS52" s="61"/>
+      <c r="CT52" s="60"/>
+      <c r="CU52" s="61"/>
       <c r="CV52" s="61"/>
       <c r="CW52" s="61"/>
       <c r="CX52" s="61"/>
@@ -13523,11 +14327,15 @@
     <row r="53" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="76"/>
+      <c r="C53" s="76" t="s">
+        <v>39</v>
+      </c>
       <c r="D53" s="76"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="71"/>
+      <c r="G53" s="72">
+        <v>0</v>
+      </c>
       <c r="H53" s="60"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
@@ -13563,55 +14371,55 @@
       <c r="AO53" s="60"/>
       <c r="AP53" s="61"/>
       <c r="AQ53" s="60"/>
-      <c r="AR53" s="61"/>
-      <c r="AS53" s="61"/>
-      <c r="AT53" s="61"/>
-      <c r="AU53" s="61"/>
-      <c r="AV53" s="61"/>
-      <c r="AW53" s="60"/>
-      <c r="AX53" s="61"/>
-      <c r="AY53" s="60"/>
-      <c r="AZ53" s="61"/>
-      <c r="BA53" s="61"/>
-      <c r="BB53" s="61"/>
-      <c r="BC53" s="61"/>
-      <c r="BD53" s="61"/>
-      <c r="BE53" s="60"/>
-      <c r="BF53" s="61"/>
-      <c r="BG53" s="60"/>
-      <c r="BH53" s="61"/>
-      <c r="BI53" s="61"/>
-      <c r="BJ53" s="61"/>
-      <c r="BK53" s="61"/>
-      <c r="BL53" s="61"/>
-      <c r="BM53" s="60"/>
-      <c r="BN53" s="61"/>
-      <c r="BO53" s="60"/>
-      <c r="BP53" s="61"/>
-      <c r="BQ53" s="61"/>
-      <c r="BR53" s="61"/>
-      <c r="BS53" s="61"/>
-      <c r="BT53" s="61"/>
-      <c r="BU53" s="60"/>
-      <c r="BV53" s="61"/>
-      <c r="BW53" s="60"/>
-      <c r="BX53" s="61"/>
-      <c r="BY53" s="61"/>
-      <c r="BZ53" s="61"/>
-      <c r="CA53" s="61"/>
-      <c r="CB53" s="61"/>
-      <c r="CC53" s="60"/>
-      <c r="CD53" s="61"/>
-      <c r="CE53" s="60"/>
-      <c r="CF53" s="61"/>
-      <c r="CG53" s="61"/>
-      <c r="CH53" s="66"/>
-      <c r="CI53" s="66"/>
-      <c r="CJ53" s="67"/>
-      <c r="CK53" s="66"/>
-      <c r="CL53" s="67"/>
-      <c r="CM53" s="66"/>
-      <c r="CN53" s="66"/>
+      <c r="AR53" s="64"/>
+      <c r="AS53" s="64"/>
+      <c r="AT53" s="64"/>
+      <c r="AU53" s="64"/>
+      <c r="AV53" s="64"/>
+      <c r="AW53" s="62"/>
+      <c r="AX53" s="64"/>
+      <c r="AY53" s="62"/>
+      <c r="AZ53" s="64"/>
+      <c r="BA53" s="64"/>
+      <c r="BB53" s="64"/>
+      <c r="BC53" s="64"/>
+      <c r="BD53" s="64"/>
+      <c r="BE53" s="62"/>
+      <c r="BF53" s="64"/>
+      <c r="BG53" s="62"/>
+      <c r="BH53" s="64"/>
+      <c r="BI53" s="64"/>
+      <c r="BJ53" s="64"/>
+      <c r="BK53" s="64"/>
+      <c r="BL53" s="64"/>
+      <c r="BM53" s="62"/>
+      <c r="BN53" s="64"/>
+      <c r="BO53" s="62"/>
+      <c r="BP53" s="64"/>
+      <c r="BQ53" s="64"/>
+      <c r="BR53" s="64"/>
+      <c r="BS53" s="64"/>
+      <c r="BT53" s="64"/>
+      <c r="BU53" s="62"/>
+      <c r="BV53" s="64"/>
+      <c r="BW53" s="62"/>
+      <c r="BX53" s="64"/>
+      <c r="BY53" s="64"/>
+      <c r="BZ53" s="64"/>
+      <c r="CA53" s="64"/>
+      <c r="CB53" s="64"/>
+      <c r="CC53" s="62"/>
+      <c r="CD53" s="64"/>
+      <c r="CE53" s="62"/>
+      <c r="CF53" s="64"/>
+      <c r="CG53" s="64"/>
+      <c r="CH53" s="64"/>
+      <c r="CI53" s="64"/>
+      <c r="CJ53" s="62"/>
+      <c r="CK53" s="64"/>
+      <c r="CL53" s="62"/>
+      <c r="CM53" s="64"/>
+      <c r="CN53" s="64"/>
       <c r="CO53" s="66"/>
       <c r="CP53" s="66"/>
       <c r="CQ53" s="66"/>
@@ -13762,17 +14570,13 @@
       <c r="IF53" s="10"/>
     </row>
     <row r="54" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="73">
-        <v>0</v>
-      </c>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="72"/>
       <c r="H54" s="60"/>
       <c r="I54" s="61"/>
       <c r="J54" s="61"/>
@@ -13850,33 +14654,33 @@
       <c r="CE54" s="60"/>
       <c r="CF54" s="61"/>
       <c r="CG54" s="61"/>
-      <c r="CH54" s="61"/>
-      <c r="CI54" s="61"/>
-      <c r="CJ54" s="60"/>
-      <c r="CK54" s="61"/>
-      <c r="CL54" s="60"/>
-      <c r="CM54" s="61"/>
-      <c r="CN54" s="61"/>
-      <c r="CO54" s="61"/>
-      <c r="CP54" s="61"/>
-      <c r="CQ54" s="61"/>
-      <c r="CR54" s="60"/>
-      <c r="CS54" s="61"/>
-      <c r="CT54" s="60"/>
-      <c r="CU54" s="61"/>
-      <c r="CV54" s="64"/>
-      <c r="CW54" s="64"/>
-      <c r="CX54" s="64"/>
-      <c r="CY54" s="64"/>
-      <c r="CZ54" s="62"/>
-      <c r="DA54" s="64"/>
-      <c r="DB54" s="62"/>
-      <c r="DC54" s="64"/>
-      <c r="DD54" s="64"/>
-      <c r="DE54" s="64"/>
-      <c r="DF54" s="64"/>
-      <c r="DG54" s="64"/>
-      <c r="DH54" s="62"/>
+      <c r="CH54" s="66"/>
+      <c r="CI54" s="66"/>
+      <c r="CJ54" s="67"/>
+      <c r="CK54" s="66"/>
+      <c r="CL54" s="67"/>
+      <c r="CM54" s="66"/>
+      <c r="CN54" s="66"/>
+      <c r="CO54" s="66"/>
+      <c r="CP54" s="66"/>
+      <c r="CQ54" s="66"/>
+      <c r="CR54" s="67"/>
+      <c r="CS54" s="66"/>
+      <c r="CT54" s="67"/>
+      <c r="CU54" s="66"/>
+      <c r="CV54" s="61"/>
+      <c r="CW54" s="61"/>
+      <c r="CX54" s="61"/>
+      <c r="CY54" s="61"/>
+      <c r="CZ54" s="60"/>
+      <c r="DA54" s="61"/>
+      <c r="DB54" s="60"/>
+      <c r="DC54" s="61"/>
+      <c r="DD54" s="61"/>
+      <c r="DE54" s="61"/>
+      <c r="DF54" s="61"/>
+      <c r="DG54" s="61"/>
+      <c r="DH54" s="60"/>
       <c r="DI54" s="61"/>
       <c r="DJ54" s="60"/>
       <c r="DK54" s="61"/>
@@ -14009,11 +14813,15 @@
     <row r="55" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
+      <c r="C55" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="75"/>
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
-      <c r="G55" s="73"/>
+      <c r="G55" s="74">
+        <v>0</v>
+      </c>
       <c r="H55" s="60"/>
       <c r="I55" s="61"/>
       <c r="J55" s="61"/>
@@ -14105,19 +14913,19 @@
       <c r="CS55" s="61"/>
       <c r="CT55" s="60"/>
       <c r="CU55" s="61"/>
-      <c r="CV55" s="61"/>
-      <c r="CW55" s="61"/>
-      <c r="CX55" s="61"/>
-      <c r="CY55" s="61"/>
-      <c r="CZ55" s="60"/>
-      <c r="DA55" s="61"/>
-      <c r="DB55" s="60"/>
-      <c r="DC55" s="61"/>
-      <c r="DD55" s="61"/>
-      <c r="DE55" s="61"/>
-      <c r="DF55" s="61"/>
-      <c r="DG55" s="61"/>
-      <c r="DH55" s="60"/>
+      <c r="CV55" s="64"/>
+      <c r="CW55" s="64"/>
+      <c r="CX55" s="64"/>
+      <c r="CY55" s="64"/>
+      <c r="CZ55" s="62"/>
+      <c r="DA55" s="64"/>
+      <c r="DB55" s="62"/>
+      <c r="DC55" s="64"/>
+      <c r="DD55" s="64"/>
+      <c r="DE55" s="64"/>
+      <c r="DF55" s="64"/>
+      <c r="DG55" s="64"/>
+      <c r="DH55" s="62"/>
       <c r="DI55" s="61"/>
       <c r="DJ55" s="60"/>
       <c r="DK55" s="61"/>
@@ -14247,16 +15055,14 @@
       <c r="IE55" s="10"/>
       <c r="IF55" s="10"/>
     </row>
-    <row r="56" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+    <row r="56" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="74"/>
       <c r="H56" s="60"/>
       <c r="I56" s="61"/>
       <c r="J56" s="61"/>
@@ -14490,18 +15296,16 @@
       <c r="IE56" s="10"/>
       <c r="IF56" s="10"/>
     </row>
-    <row r="57" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="72"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="71">
-        <v>0</v>
-      </c>
+    <row r="57" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
       <c r="H57" s="60"/>
       <c r="I57" s="61"/>
       <c r="J57" s="61"/>
@@ -14738,11 +15542,15 @@
     <row r="58" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
+      <c r="C58" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="71"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="71"/>
+      <c r="G58" s="72">
+        <v>0</v>
+      </c>
       <c r="H58" s="60"/>
       <c r="I58" s="61"/>
       <c r="J58" s="61"/>
@@ -14977,17 +15785,13 @@
       <c r="IF58" s="10"/>
     </row>
     <row r="59" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="73">
-        <v>0</v>
-      </c>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="72"/>
       <c r="H59" s="60"/>
       <c r="I59" s="61"/>
       <c r="J59" s="61"/>
@@ -15224,11 +16028,15 @@
     <row r="60" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
+      <c r="C60" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="73"/>
       <c r="E60" s="48"/>
       <c r="F60" s="48"/>
-      <c r="G60" s="73"/>
+      <c r="G60" s="74">
+        <v>0</v>
+      </c>
       <c r="H60" s="60"/>
       <c r="I60" s="61"/>
       <c r="J60" s="61"/>
@@ -15462,16 +16270,14 @@
       <c r="IE60" s="10"/>
       <c r="IF60" s="10"/>
     </row>
-    <row r="61" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+    <row r="61" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="74"/>
       <c r="H61" s="60"/>
       <c r="I61" s="61"/>
       <c r="J61" s="61"/>
@@ -15705,18 +16511,16 @@
       <c r="IE61" s="10"/>
       <c r="IF61" s="10"/>
     </row>
-    <row r="62" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="71">
-        <v>0</v>
-      </c>
+    <row r="62" spans="1:240" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
       <c r="H62" s="60"/>
       <c r="I62" s="61"/>
       <c r="J62" s="61"/>
@@ -15953,11 +16757,15 @@
     <row r="63" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
+      <c r="C63" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="71"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="71"/>
+      <c r="G63" s="72">
+        <v>0</v>
+      </c>
       <c r="H63" s="60"/>
       <c r="I63" s="61"/>
       <c r="J63" s="61"/>
@@ -16191,68 +16999,309 @@
       <c r="IE63" s="10"/>
       <c r="IF63" s="10"/>
     </row>
+    <row r="64" spans="1:240" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="60"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="61"/>
+      <c r="U64" s="60"/>
+      <c r="V64" s="61"/>
+      <c r="W64" s="60"/>
+      <c r="X64" s="61"/>
+      <c r="Y64" s="61"/>
+      <c r="Z64" s="61"/>
+      <c r="AA64" s="61"/>
+      <c r="AB64" s="61"/>
+      <c r="AC64" s="60"/>
+      <c r="AD64" s="61"/>
+      <c r="AE64" s="60"/>
+      <c r="AF64" s="61"/>
+      <c r="AG64" s="60"/>
+      <c r="AH64" s="61"/>
+      <c r="AI64" s="61"/>
+      <c r="AK64" s="61"/>
+      <c r="AL64" s="61"/>
+      <c r="AM64" s="61"/>
+      <c r="AN64" s="61"/>
+      <c r="AO64" s="60"/>
+      <c r="AP64" s="61"/>
+      <c r="AQ64" s="60"/>
+      <c r="AR64" s="61"/>
+      <c r="AS64" s="61"/>
+      <c r="AT64" s="61"/>
+      <c r="AU64" s="61"/>
+      <c r="AV64" s="61"/>
+      <c r="AW64" s="60"/>
+      <c r="AX64" s="61"/>
+      <c r="AY64" s="60"/>
+      <c r="AZ64" s="61"/>
+      <c r="BA64" s="61"/>
+      <c r="BB64" s="61"/>
+      <c r="BC64" s="61"/>
+      <c r="BD64" s="61"/>
+      <c r="BE64" s="60"/>
+      <c r="BF64" s="61"/>
+      <c r="BG64" s="60"/>
+      <c r="BH64" s="61"/>
+      <c r="BI64" s="61"/>
+      <c r="BJ64" s="61"/>
+      <c r="BK64" s="61"/>
+      <c r="BL64" s="61"/>
+      <c r="BM64" s="60"/>
+      <c r="BN64" s="61"/>
+      <c r="BO64" s="60"/>
+      <c r="BP64" s="61"/>
+      <c r="BQ64" s="61"/>
+      <c r="BR64" s="61"/>
+      <c r="BS64" s="61"/>
+      <c r="BT64" s="61"/>
+      <c r="BU64" s="60"/>
+      <c r="BV64" s="61"/>
+      <c r="BW64" s="60"/>
+      <c r="BX64" s="61"/>
+      <c r="BY64" s="61"/>
+      <c r="BZ64" s="61"/>
+      <c r="CA64" s="61"/>
+      <c r="CB64" s="61"/>
+      <c r="CC64" s="60"/>
+      <c r="CD64" s="61"/>
+      <c r="CE64" s="60"/>
+      <c r="CF64" s="61"/>
+      <c r="CG64" s="61"/>
+      <c r="CH64" s="61"/>
+      <c r="CI64" s="61"/>
+      <c r="CJ64" s="60"/>
+      <c r="CK64" s="61"/>
+      <c r="CL64" s="60"/>
+      <c r="CM64" s="61"/>
+      <c r="CN64" s="61"/>
+      <c r="CO64" s="61"/>
+      <c r="CP64" s="61"/>
+      <c r="CQ64" s="61"/>
+      <c r="CR64" s="60"/>
+      <c r="CS64" s="61"/>
+      <c r="CT64" s="60"/>
+      <c r="CU64" s="61"/>
+      <c r="CV64" s="61"/>
+      <c r="CW64" s="61"/>
+      <c r="CX64" s="61"/>
+      <c r="CY64" s="61"/>
+      <c r="CZ64" s="60"/>
+      <c r="DA64" s="61"/>
+      <c r="DB64" s="60"/>
+      <c r="DC64" s="61"/>
+      <c r="DD64" s="61"/>
+      <c r="DE64" s="61"/>
+      <c r="DF64" s="61"/>
+      <c r="DG64" s="61"/>
+      <c r="DH64" s="60"/>
+      <c r="DI64" s="61"/>
+      <c r="DJ64" s="60"/>
+      <c r="DK64" s="61"/>
+      <c r="DL64" s="61"/>
+      <c r="DM64" s="61"/>
+      <c r="DN64" s="61"/>
+      <c r="DO64" s="61"/>
+      <c r="DP64" s="60"/>
+      <c r="DQ64" s="61"/>
+      <c r="DR64" s="60"/>
+      <c r="DS64" s="61"/>
+      <c r="DT64" s="61"/>
+      <c r="DU64" s="61"/>
+      <c r="DV64" s="61"/>
+      <c r="DW64" s="60"/>
+      <c r="DX64" s="61"/>
+      <c r="DY64" s="60"/>
+      <c r="DZ64" s="61"/>
+      <c r="EA64" s="61"/>
+      <c r="EB64" s="61"/>
+      <c r="EC64" s="61"/>
+      <c r="ED64" s="61"/>
+      <c r="EE64" s="60"/>
+      <c r="EF64" s="61"/>
+      <c r="EG64" s="60"/>
+      <c r="EH64" s="61"/>
+      <c r="EI64" s="61"/>
+      <c r="EJ64" s="61"/>
+      <c r="EK64" s="61"/>
+      <c r="EL64" s="61"/>
+      <c r="EM64" s="60"/>
+      <c r="EN64" s="61"/>
+      <c r="EO64" s="60"/>
+      <c r="EP64" s="61"/>
+      <c r="EQ64" s="61"/>
+      <c r="ER64" s="61"/>
+      <c r="ES64" s="61"/>
+      <c r="ET64" s="61"/>
+      <c r="EU64" s="60"/>
+      <c r="EV64" s="61"/>
+      <c r="EW64" s="60"/>
+      <c r="EX64" s="61"/>
+      <c r="EY64" s="61"/>
+      <c r="EZ64" s="61"/>
+      <c r="FA64" s="61"/>
+      <c r="FB64" s="61"/>
+      <c r="FC64" s="60"/>
+      <c r="FD64" s="61"/>
+      <c r="FE64" s="60"/>
+      <c r="FF64" s="61"/>
+      <c r="FG64" s="61"/>
+      <c r="FH64" s="61"/>
+      <c r="FI64" s="61"/>
+      <c r="FJ64" s="60"/>
+      <c r="FK64" s="61"/>
+      <c r="FL64" s="60"/>
+      <c r="FM64" s="61"/>
+      <c r="FN64" s="61"/>
+      <c r="FO64" s="61"/>
+      <c r="FP64" s="61"/>
+      <c r="FQ64" s="61"/>
+      <c r="FR64" s="60"/>
+      <c r="FS64" s="61"/>
+      <c r="FT64" s="60"/>
+      <c r="FU64" s="61"/>
+      <c r="FV64" s="61"/>
+      <c r="FW64" s="61"/>
+      <c r="FX64" s="61"/>
+      <c r="FY64" s="61"/>
+      <c r="FZ64" s="60"/>
+      <c r="GA64" s="61"/>
+      <c r="GB64" s="60"/>
+      <c r="GC64" s="61"/>
+      <c r="GD64" s="61"/>
+      <c r="GE64" s="61"/>
+      <c r="GF64" s="61"/>
+      <c r="GG64" s="61"/>
+      <c r="GH64" s="60"/>
+      <c r="GI64" s="61"/>
+      <c r="GJ64" s="60"/>
+      <c r="GK64" s="61"/>
+      <c r="GL64" s="61"/>
+      <c r="GM64" s="61"/>
+      <c r="GN64" s="61"/>
+      <c r="GO64" s="61"/>
+      <c r="GP64" s="60"/>
+      <c r="GQ64" s="61"/>
+      <c r="GR64" s="60"/>
+      <c r="GS64" s="61"/>
+      <c r="GT64" s="61"/>
+      <c r="GU64" s="61"/>
+      <c r="GV64" s="61"/>
+      <c r="GW64" s="60"/>
+      <c r="GX64" s="61"/>
+      <c r="GY64" s="60"/>
+      <c r="GZ64" s="61"/>
+      <c r="HA64" s="61"/>
+      <c r="HB64" s="61"/>
+      <c r="HC64" s="61"/>
+      <c r="HD64" s="61"/>
+      <c r="HE64" s="60"/>
+      <c r="HF64" s="61"/>
+      <c r="HG64" s="60"/>
+      <c r="HH64" s="61"/>
+      <c r="HI64" s="61"/>
+      <c r="HJ64" s="61"/>
+      <c r="HK64" s="10"/>
+      <c r="HL64" s="10"/>
+      <c r="HM64" s="10"/>
+      <c r="HN64" s="10"/>
+      <c r="HO64" s="10"/>
+      <c r="HP64" s="10"/>
+      <c r="HQ64" s="10"/>
+      <c r="HR64" s="10"/>
+      <c r="HS64" s="10"/>
+      <c r="HT64" s="10"/>
+      <c r="HU64" s="10"/>
+      <c r="HV64" s="10"/>
+      <c r="HW64" s="10"/>
+      <c r="HX64" s="10"/>
+      <c r="HY64" s="10"/>
+      <c r="HZ64" s="10"/>
+      <c r="IA64" s="10"/>
+      <c r="IB64" s="10"/>
+      <c r="IC64" s="10"/>
+      <c r="ID64" s="10"/>
+      <c r="IE64" s="10"/>
+      <c r="IF64" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="G8">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16266,7 +17315,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="G10">
     <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16280,7 +17329,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="G12">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16294,7 +17343,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="G14">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16308,7 +17357,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="G16">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16322,7 +17371,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
+  <conditionalFormatting sqref="G18">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16336,7 +17385,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G21">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16350,7 +17399,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G23">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16364,7 +17413,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G27">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16378,7 +17427,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G29">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16392,7 +17441,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="G31">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16406,7 +17455,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G33">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16420,7 +17469,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+  <conditionalFormatting sqref="G35">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16434,7 +17483,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
+  <conditionalFormatting sqref="G37">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16448,7 +17497,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G39">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16462,7 +17511,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
+  <conditionalFormatting sqref="G41">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16476,7 +17525,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G43">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16490,7 +17539,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
+  <conditionalFormatting sqref="G45">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16504,7 +17553,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="G47">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16518,7 +17567,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
+  <conditionalFormatting sqref="G49">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16532,7 +17581,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="G51">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16546,7 +17595,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
+  <conditionalFormatting sqref="G53">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16560,7 +17609,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
+  <conditionalFormatting sqref="G55">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16574,7 +17623,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
+  <conditionalFormatting sqref="G58">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16588,7 +17637,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
+  <conditionalFormatting sqref="G60">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16602,7 +17651,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
+  <conditionalFormatting sqref="G63">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16619,6 +17668,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -16635,7 +17685,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G7</xm:sqref>
+          <xm:sqref>G8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{684D3886-9F1A-4CA5-9875-CA145BBAE7A1}">
@@ -16650,7 +17700,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G9</xm:sqref>
+          <xm:sqref>G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2DBEA228-E665-4447-AB7A-B2501B7454B1}">
@@ -16665,7 +17715,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G11</xm:sqref>
+          <xm:sqref>G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D82C854D-806B-49B5-987A-F7A95C44E896}">
@@ -16680,7 +17730,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G13</xm:sqref>
+          <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8B7469E9-93AA-4F82-882E-1778421B2A0B}">
@@ -16695,7 +17745,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G15</xm:sqref>
+          <xm:sqref>G16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{35BD4AE8-8CE0-4964-9C19-88EB49B46CD2}">
@@ -16710,7 +17760,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G17</xm:sqref>
+          <xm:sqref>G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DA47C09D-9E12-4349-85B0-DBDDE62154B0}">
@@ -16725,7 +17775,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G20</xm:sqref>
+          <xm:sqref>G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A4F4D024-0EC7-4990-9DCC-C6EF7F302826}">
@@ -16740,7 +17790,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G22</xm:sqref>
+          <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A58C0529-7B5F-4E7D-8ACA-A7F1FC5C303F}">
@@ -16755,7 +17805,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G26</xm:sqref>
+          <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3D2CA4DF-0793-45D5-8B0A-C230986F2CC9}">
@@ -16770,7 +17820,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G28</xm:sqref>
+          <xm:sqref>G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{254313EB-0134-4E64-BC40-B71813EC0194}">
@@ -16785,7 +17835,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G30</xm:sqref>
+          <xm:sqref>G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{102C7E99-020B-40F3-9850-AA7520741565}">
@@ -16800,7 +17850,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G32</xm:sqref>
+          <xm:sqref>G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BFEE3BD5-E0BF-4D3A-8B66-BBD71904E513}">
@@ -16815,7 +17865,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G34</xm:sqref>
+          <xm:sqref>G35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2141A177-098F-4C9B-8041-098FCB94929E}">
@@ -16830,7 +17880,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G36</xm:sqref>
+          <xm:sqref>G37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{192B1008-3B69-466B-8D07-2781A916CCFC}">
@@ -16845,7 +17895,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G38</xm:sqref>
+          <xm:sqref>G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{53597C18-21EB-4165-95BB-BFBED50C1E20}">
@@ -16860,7 +17910,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G40</xm:sqref>
+          <xm:sqref>G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6CBFFC38-F30E-4864-8439-B82F59E84118}">
@@ -16875,7 +17925,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G42</xm:sqref>
+          <xm:sqref>G43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9F94C85F-5A41-4BBA-8001-3FF46D321E8B}">
@@ -16890,7 +17940,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G44</xm:sqref>
+          <xm:sqref>G45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8D122C58-A2B6-463E-B6A2-98BA8BD92A55}">
@@ -16905,7 +17955,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G46</xm:sqref>
+          <xm:sqref>G47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3ED07220-432D-4021-BD43-ADB92C1C25D9}">
@@ -16920,7 +17970,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G48</xm:sqref>
+          <xm:sqref>G49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4A60A957-72F6-4310-B501-2591110E4FB2}">
@@ -16935,7 +17985,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G50</xm:sqref>
+          <xm:sqref>G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D9AAE81B-F368-4BE4-87CD-B69F1DDCBB1E}">
@@ -16950,7 +18000,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G52</xm:sqref>
+          <xm:sqref>G53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{371D6C62-FC5B-444E-9257-CB98541F6ACD}">
@@ -16965,7 +18015,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G54</xm:sqref>
+          <xm:sqref>G55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7A2902D7-C7C5-49C6-81E2-FFCD6F52476B}">
@@ -16980,7 +18030,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G57</xm:sqref>
+          <xm:sqref>G58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D9BECF7-D0EF-4C9B-B9C2-F1E2DA77384C}">
@@ -16995,7 +18045,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G59</xm:sqref>
+          <xm:sqref>G60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F295F70C-D655-4AF4-8C45-F94FC41224B3}">
@@ -17010,7 +18060,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G62</xm:sqref>
+          <xm:sqref>G63</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -917,24 +917,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,6 +953,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1853,634 +1853,634 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="83" t="s">
+      <c r="N5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="86" t="s">
+      <c r="O5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="85" t="s">
+      <c r="P5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="83" t="s">
+      <c r="Q5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="82" t="s">
+      <c r="R5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="84" t="s">
+      <c r="S5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="84" t="s">
+      <c r="T5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="83" t="s">
+      <c r="U5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="86" t="s">
+      <c r="V5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="85" t="s">
+      <c r="W5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="83" t="s">
+      <c r="X5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="82" t="s">
+      <c r="Y5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="84" t="s">
+      <c r="Z5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="AA5" s="84" t="s">
+      <c r="AA5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="83" t="s">
+      <c r="AB5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" s="86" t="s">
+      <c r="AC5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="AD5" s="85" t="s">
+      <c r="AD5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="AE5" s="83" t="s">
+      <c r="AE5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="AF5" s="82" t="s">
+      <c r="AF5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="AG5" s="84" t="s">
+      <c r="AG5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="AH5" s="84" t="s">
+      <c r="AH5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AI5" s="83" t="s">
+      <c r="AI5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="AJ5" s="88" t="s">
+      <c r="AJ5" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="AK5" s="85" t="s">
+      <c r="AK5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="AL5" s="83" t="s">
+      <c r="AL5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="AM5" s="82" t="s">
+      <c r="AM5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="AN5" s="84" t="s">
+      <c r="AN5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="AO5" s="84" t="s">
+      <c r="AO5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AP5" s="83" t="s">
+      <c r="AP5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="AQ5" s="86" t="s">
+      <c r="AQ5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="AR5" s="85" t="s">
+      <c r="AR5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="AS5" s="83" t="s">
+      <c r="AS5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="AT5" s="82" t="s">
+      <c r="AT5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="AU5" s="84" t="s">
+      <c r="AU5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="AV5" s="84" t="s">
+      <c r="AV5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AW5" s="83" t="s">
+      <c r="AW5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="AX5" s="86" t="s">
+      <c r="AX5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="AY5" s="85" t="s">
+      <c r="AY5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="AZ5" s="83" t="s">
+      <c r="AZ5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="BA5" s="82" t="s">
+      <c r="BA5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="BB5" s="84" t="s">
+      <c r="BB5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="BC5" s="84" t="s">
+      <c r="BC5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="BD5" s="83" t="s">
+      <c r="BD5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="BE5" s="86" t="s">
+      <c r="BE5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="BF5" s="85" t="s">
+      <c r="BF5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="BG5" s="83" t="s">
+      <c r="BG5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="BH5" s="82" t="s">
+      <c r="BH5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="BI5" s="84" t="s">
+      <c r="BI5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="BJ5" s="84" t="s">
+      <c r="BJ5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="BK5" s="83" t="s">
+      <c r="BK5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="BL5" s="86" t="s">
+      <c r="BL5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="BM5" s="85" t="s">
+      <c r="BM5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="BN5" s="83" t="s">
+      <c r="BN5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="BO5" s="82" t="s">
+      <c r="BO5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="BP5" s="84" t="s">
+      <c r="BP5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="BQ5" s="84" t="s">
+      <c r="BQ5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="BR5" s="83" t="s">
+      <c r="BR5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="BS5" s="86" t="s">
+      <c r="BS5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="BT5" s="85" t="s">
+      <c r="BT5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="BU5" s="83" t="s">
+      <c r="BU5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="BV5" s="82" t="s">
+      <c r="BV5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="BW5" s="84" t="s">
+      <c r="BW5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="BX5" s="84" t="s">
+      <c r="BX5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="BY5" s="83" t="s">
+      <c r="BY5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="BZ5" s="86" t="s">
+      <c r="BZ5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="CA5" s="85" t="s">
+      <c r="CA5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="CB5" s="83" t="s">
+      <c r="CB5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="CC5" s="82" t="s">
+      <c r="CC5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="CD5" s="84" t="s">
+      <c r="CD5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="CE5" s="84" t="s">
+      <c r="CE5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="CF5" s="83" t="s">
+      <c r="CF5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="CG5" s="88" t="s">
+      <c r="CG5" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="CH5" s="85" t="s">
+      <c r="CH5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="CI5" s="83" t="s">
+      <c r="CI5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="CJ5" s="82" t="s">
+      <c r="CJ5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="CK5" s="84" t="s">
+      <c r="CK5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="CL5" s="84" t="s">
+      <c r="CL5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="CM5" s="83" t="s">
+      <c r="CM5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="CN5" s="88" t="s">
+      <c r="CN5" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="CO5" s="85" t="s">
+      <c r="CO5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="CP5" s="83" t="s">
+      <c r="CP5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="CQ5" s="82" t="s">
+      <c r="CQ5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="CR5" s="84" t="s">
+      <c r="CR5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="CS5" s="84" t="s">
+      <c r="CS5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="CT5" s="83" t="s">
+      <c r="CT5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="CU5" s="86" t="s">
+      <c r="CU5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="CV5" s="85" t="s">
+      <c r="CV5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="CW5" s="83" t="s">
+      <c r="CW5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="CX5" s="82" t="s">
+      <c r="CX5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="CY5" s="84" t="s">
+      <c r="CY5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="CZ5" s="84" t="s">
+      <c r="CZ5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="DA5" s="83" t="s">
+      <c r="DA5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="DB5" s="86" t="s">
+      <c r="DB5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="DC5" s="85" t="s">
+      <c r="DC5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="DD5" s="83" t="s">
+      <c r="DD5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="DE5" s="82" t="s">
+      <c r="DE5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="DF5" s="84" t="s">
+      <c r="DF5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="DG5" s="84" t="s">
+      <c r="DG5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="DH5" s="83" t="s">
+      <c r="DH5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="DI5" s="86" t="s">
+      <c r="DI5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="DJ5" s="85" t="s">
+      <c r="DJ5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="DK5" s="83" t="s">
+      <c r="DK5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="DL5" s="82" t="s">
+      <c r="DL5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="DM5" s="84" t="s">
+      <c r="DM5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="DN5" s="84" t="s">
+      <c r="DN5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="DO5" s="83" t="s">
+      <c r="DO5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="DP5" s="86" t="s">
+      <c r="DP5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="DQ5" s="85" t="s">
+      <c r="DQ5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="DR5" s="83" t="s">
+      <c r="DR5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="DS5" s="82" t="s">
+      <c r="DS5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="DT5" s="84" t="s">
+      <c r="DT5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="DU5" s="84" t="s">
+      <c r="DU5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="DV5" s="83" t="s">
+      <c r="DV5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="DW5" s="86" t="s">
+      <c r="DW5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="DX5" s="85" t="s">
+      <c r="DX5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="DY5" s="83" t="s">
+      <c r="DY5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="DZ5" s="82" t="s">
+      <c r="DZ5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="EA5" s="84" t="s">
+      <c r="EA5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="EB5" s="84" t="s">
+      <c r="EB5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="EC5" s="83" t="s">
+      <c r="EC5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="ED5" s="86" t="s">
+      <c r="ED5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="EE5" s="85" t="s">
+      <c r="EE5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="EF5" s="83" t="s">
+      <c r="EF5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="EG5" s="82" t="s">
+      <c r="EG5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="EH5" s="84" t="s">
+      <c r="EH5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="EI5" s="84" t="s">
+      <c r="EI5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="EJ5" s="83" t="s">
+      <c r="EJ5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="EK5" s="88" t="s">
+      <c r="EK5" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="EL5" s="85" t="s">
+      <c r="EL5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="EM5" s="83" t="s">
+      <c r="EM5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="EN5" s="82" t="s">
+      <c r="EN5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="EO5" s="84" t="s">
+      <c r="EO5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="EP5" s="84" t="s">
+      <c r="EP5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="EQ5" s="83" t="s">
+      <c r="EQ5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="ER5" s="86" t="s">
+      <c r="ER5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="ES5" s="85" t="s">
+      <c r="ES5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="ET5" s="83" t="s">
+      <c r="ET5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="EU5" s="82" t="s">
+      <c r="EU5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="EV5" s="84" t="s">
+      <c r="EV5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="EW5" s="84" t="s">
+      <c r="EW5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="EX5" s="83" t="s">
+      <c r="EX5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="EY5" s="86" t="s">
+      <c r="EY5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="EZ5" s="85" t="s">
+      <c r="EZ5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="FA5" s="83" t="s">
+      <c r="FA5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="FB5" s="82" t="s">
+      <c r="FB5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="FC5" s="84" t="s">
+      <c r="FC5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="FD5" s="84" t="s">
+      <c r="FD5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="FE5" s="83" t="s">
+      <c r="FE5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="FF5" s="88" t="s">
+      <c r="FF5" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="FG5" s="85" t="s">
+      <c r="FG5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="FH5" s="83" t="s">
+      <c r="FH5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="FI5" s="82" t="s">
+      <c r="FI5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="FJ5" s="84" t="s">
+      <c r="FJ5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="FK5" s="84" t="s">
+      <c r="FK5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="FL5" s="83" t="s">
+      <c r="FL5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="FM5" s="86" t="s">
+      <c r="FM5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="FN5" s="85" t="s">
+      <c r="FN5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="FO5" s="83" t="s">
+      <c r="FO5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="FP5" s="82" t="s">
+      <c r="FP5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="FQ5" s="84" t="s">
+      <c r="FQ5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="FR5" s="84" t="s">
+      <c r="FR5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="FS5" s="83" t="s">
+      <c r="FS5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="FT5" s="86" t="s">
+      <c r="FT5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="FU5" s="85" t="s">
+      <c r="FU5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="FV5" s="83" t="s">
+      <c r="FV5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="FW5" s="82" t="s">
+      <c r="FW5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="FX5" s="84" t="s">
+      <c r="FX5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="FY5" s="84" t="s">
+      <c r="FY5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="FZ5" s="83" t="s">
+      <c r="FZ5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="GA5" s="86" t="s">
+      <c r="GA5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="GB5" s="85" t="s">
+      <c r="GB5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="GC5" s="83" t="s">
+      <c r="GC5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="GD5" s="82" t="s">
+      <c r="GD5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="GE5" s="84" t="s">
+      <c r="GE5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="GF5" s="84" t="s">
+      <c r="GF5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="GG5" s="83" t="s">
+      <c r="GG5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="GH5" s="86" t="s">
+      <c r="GH5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="GI5" s="85" t="s">
+      <c r="GI5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="GJ5" s="83" t="s">
+      <c r="GJ5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="GK5" s="82" t="s">
+      <c r="GK5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="GL5" s="84" t="s">
+      <c r="GL5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="GM5" s="84" t="s">
+      <c r="GM5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="GN5" s="83" t="s">
+      <c r="GN5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="GO5" s="86" t="s">
+      <c r="GO5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="GP5" s="85" t="s">
+      <c r="GP5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="GQ5" s="83" t="s">
+      <c r="GQ5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="GR5" s="82" t="s">
+      <c r="GR5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="GS5" s="84" t="s">
+      <c r="GS5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="GT5" s="84" t="s">
+      <c r="GT5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="GU5" s="83" t="s">
+      <c r="GU5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="GV5" s="88" t="s">
+      <c r="GV5" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="GW5" s="85" t="s">
+      <c r="GW5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="GX5" s="83" t="s">
+      <c r="GX5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="GY5" s="82" t="s">
+      <c r="GY5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="GZ5" s="84" t="s">
+      <c r="GZ5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="HA5" s="84" t="s">
+      <c r="HA5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="HB5" s="83" t="s">
+      <c r="HB5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="HC5" s="86" t="s">
+      <c r="HC5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="HD5" s="85" t="s">
+      <c r="HD5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="HE5" s="83" t="s">
+      <c r="HE5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="HF5" s="82" t="s">
+      <c r="HF5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="HG5" s="84" t="s">
+      <c r="HG5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="HH5" s="84" t="s">
+      <c r="HH5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="HI5" s="83" t="s">
+      <c r="HI5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="HJ5" s="86" t="s">
+      <c r="HJ5" s="80" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="I6" s="79">
+      <c r="I6" s="73">
         <v>3</v>
       </c>
       <c r="J6" s="12">
@@ -2516,10 +2516,10 @@
       <c r="N6" s="12">
         <v>8</v>
       </c>
-      <c r="O6" s="87">
+      <c r="O6" s="81">
         <v>9</v>
       </c>
-      <c r="P6" s="80">
+      <c r="P6" s="74">
         <v>10</v>
       </c>
       <c r="Q6" s="12">
@@ -2537,10 +2537,10 @@
       <c r="U6" s="12">
         <v>15</v>
       </c>
-      <c r="V6" s="87">
+      <c r="V6" s="81">
         <v>16</v>
       </c>
-      <c r="W6" s="80">
+      <c r="W6" s="74">
         <v>17</v>
       </c>
       <c r="X6" s="12">
@@ -2558,10 +2558,10 @@
       <c r="AB6" s="12">
         <v>22</v>
       </c>
-      <c r="AC6" s="87">
+      <c r="AC6" s="81">
         <v>23</v>
       </c>
-      <c r="AD6" s="80">
+      <c r="AD6" s="74">
         <v>24</v>
       </c>
       <c r="AE6" s="12">
@@ -2579,10 +2579,10 @@
       <c r="AI6" s="11">
         <v>1</v>
       </c>
-      <c r="AJ6" s="80">
+      <c r="AJ6" s="74">
         <v>2</v>
       </c>
-      <c r="AK6" s="79">
+      <c r="AK6" s="73">
         <v>3</v>
       </c>
       <c r="AL6" s="12">
@@ -2594,16 +2594,16 @@
       <c r="AN6" s="12">
         <v>6</v>
       </c>
-      <c r="AO6" s="77">
+      <c r="AO6" s="71">
         <v>7</v>
       </c>
       <c r="AP6" s="12">
         <v>8</v>
       </c>
-      <c r="AQ6" s="87">
+      <c r="AQ6" s="81">
         <v>9</v>
       </c>
-      <c r="AR6" s="80">
+      <c r="AR6" s="74">
         <v>10</v>
       </c>
       <c r="AS6" s="11">
@@ -2621,10 +2621,10 @@
       <c r="AW6" s="11">
         <v>15</v>
       </c>
-      <c r="AX6" s="87">
+      <c r="AX6" s="81">
         <v>16</v>
       </c>
-      <c r="AY6" s="79">
+      <c r="AY6" s="73">
         <v>17</v>
       </c>
       <c r="AZ6" s="12">
@@ -2642,10 +2642,10 @@
       <c r="BD6" s="12">
         <v>22</v>
       </c>
-      <c r="BE6" s="87">
+      <c r="BE6" s="81">
         <v>23</v>
       </c>
-      <c r="BF6" s="80">
+      <c r="BF6" s="74">
         <v>24</v>
       </c>
       <c r="BG6" s="11">
@@ -2663,10 +2663,10 @@
       <c r="BK6" s="12">
         <v>29</v>
       </c>
-      <c r="BL6" s="87">
+      <c r="BL6" s="81">
         <v>30</v>
       </c>
-      <c r="BM6" s="80">
+      <c r="BM6" s="74">
         <v>31</v>
       </c>
       <c r="BN6" s="11">
@@ -2684,10 +2684,10 @@
       <c r="BR6" s="11">
         <v>5</v>
       </c>
-      <c r="BS6" s="87">
+      <c r="BS6" s="81">
         <v>6</v>
       </c>
-      <c r="BT6" s="79">
+      <c r="BT6" s="73">
         <v>7</v>
       </c>
       <c r="BU6" s="12">
@@ -2705,10 +2705,10 @@
       <c r="BY6" s="12">
         <v>12</v>
       </c>
-      <c r="BZ6" s="87">
+      <c r="BZ6" s="81">
         <v>13</v>
       </c>
-      <c r="CA6" s="80">
+      <c r="CA6" s="74">
         <v>14</v>
       </c>
       <c r="CB6" s="11">
@@ -2723,13 +2723,13 @@
       <c r="CE6" s="12">
         <v>18</v>
       </c>
-      <c r="CF6" s="77">
+      <c r="CF6" s="71">
         <v>19</v>
       </c>
-      <c r="CG6" s="80">
+      <c r="CG6" s="74">
         <v>20</v>
       </c>
-      <c r="CH6" s="77">
+      <c r="CH6" s="71">
         <v>21</v>
       </c>
       <c r="CI6" s="12">
@@ -2747,10 +2747,10 @@
       <c r="CM6" s="12">
         <v>26</v>
       </c>
-      <c r="CN6" s="80">
+      <c r="CN6" s="74">
         <v>27</v>
       </c>
-      <c r="CO6" s="79">
+      <c r="CO6" s="73">
         <v>28</v>
       </c>
       <c r="CP6" s="12">
@@ -2759,7 +2759,7 @@
       <c r="CQ6" s="12">
         <v>30</v>
       </c>
-      <c r="CR6" s="77">
+      <c r="CR6" s="71">
         <v>1</v>
       </c>
       <c r="CS6" s="12">
@@ -2768,10 +2768,10 @@
       <c r="CT6" s="11">
         <v>3</v>
       </c>
-      <c r="CU6" s="87">
+      <c r="CU6" s="81">
         <v>4</v>
       </c>
-      <c r="CV6" s="79">
+      <c r="CV6" s="73">
         <v>5</v>
       </c>
       <c r="CW6" s="12">
@@ -2789,10 +2789,10 @@
       <c r="DA6" s="12">
         <v>10</v>
       </c>
-      <c r="DB6" s="87">
+      <c r="DB6" s="81">
         <v>11</v>
       </c>
-      <c r="DC6" s="80">
+      <c r="DC6" s="74">
         <v>12</v>
       </c>
       <c r="DD6" s="11">
@@ -2810,10 +2810,10 @@
       <c r="DH6" s="11">
         <v>17</v>
       </c>
-      <c r="DI6" s="80">
+      <c r="DI6" s="74">
         <v>18</v>
       </c>
-      <c r="DJ6" s="77">
+      <c r="DJ6" s="71">
         <v>19</v>
       </c>
       <c r="DK6" s="12">
@@ -2831,10 +2831,10 @@
       <c r="DO6" s="12">
         <v>24</v>
       </c>
-      <c r="DP6" s="87">
+      <c r="DP6" s="81">
         <v>25</v>
       </c>
-      <c r="DQ6" s="80">
+      <c r="DQ6" s="74">
         <v>26</v>
       </c>
       <c r="DR6" s="12">
@@ -2846,37 +2846,37 @@
       <c r="DT6" s="12">
         <v>29</v>
       </c>
-      <c r="DU6" s="78">
+      <c r="DU6" s="72">
         <v>30</v>
       </c>
       <c r="DV6" s="12">
         <v>31</v>
       </c>
-      <c r="DW6" s="89">
+      <c r="DW6" s="83">
         <v>1</v>
       </c>
-      <c r="DX6" s="80">
+      <c r="DX6" s="74">
         <v>2</v>
       </c>
-      <c r="DY6" s="77">
+      <c r="DY6" s="71">
         <v>3</v>
       </c>
-      <c r="DZ6" s="78">
+      <c r="DZ6" s="72">
         <v>4</v>
       </c>
-      <c r="EA6" s="77">
+      <c r="EA6" s="71">
         <v>5</v>
       </c>
-      <c r="EB6" s="78">
+      <c r="EB6" s="72">
         <v>6</v>
       </c>
-      <c r="EC6" s="77">
+      <c r="EC6" s="71">
         <v>7</v>
       </c>
-      <c r="ED6" s="87">
+      <c r="ED6" s="81">
         <v>8</v>
       </c>
-      <c r="EE6" s="79">
+      <c r="EE6" s="73">
         <v>9</v>
       </c>
       <c r="EF6" s="12">
@@ -2894,10 +2894,10 @@
       <c r="EJ6" s="12">
         <v>14</v>
       </c>
-      <c r="EK6" s="79">
+      <c r="EK6" s="73">
         <v>15</v>
       </c>
-      <c r="EL6" s="80">
+      <c r="EL6" s="74">
         <v>16</v>
       </c>
       <c r="EM6" s="11">
@@ -2915,10 +2915,10 @@
       <c r="EQ6" s="11">
         <v>21</v>
       </c>
-      <c r="ER6" s="80">
+      <c r="ER6" s="74">
         <v>22</v>
       </c>
-      <c r="ES6" s="79">
+      <c r="ES6" s="73">
         <v>23</v>
       </c>
       <c r="ET6" s="12">
@@ -2936,10 +2936,10 @@
       <c r="EX6" s="11">
         <v>28</v>
       </c>
-      <c r="EY6" s="87">
+      <c r="EY6" s="81">
         <v>29</v>
       </c>
-      <c r="EZ6" s="80">
+      <c r="EZ6" s="74">
         <v>30</v>
       </c>
       <c r="FA6" s="11">
@@ -2957,10 +2957,10 @@
       <c r="FE6" s="11">
         <v>5</v>
       </c>
-      <c r="FF6" s="80">
+      <c r="FF6" s="74">
         <v>6</v>
       </c>
-      <c r="FG6" s="79">
+      <c r="FG6" s="73">
         <v>7</v>
       </c>
       <c r="FH6" s="12">
@@ -2978,10 +2978,10 @@
       <c r="FL6" s="12">
         <v>12</v>
       </c>
-      <c r="FM6" s="87">
+      <c r="FM6" s="81">
         <v>13</v>
       </c>
-      <c r="FN6" s="80">
+      <c r="FN6" s="74">
         <v>14</v>
       </c>
       <c r="FO6" s="11">
@@ -2999,10 +2999,10 @@
       <c r="FS6" s="11">
         <v>19</v>
       </c>
-      <c r="FT6" s="80">
+      <c r="FT6" s="74">
         <v>20</v>
       </c>
-      <c r="FU6" s="79">
+      <c r="FU6" s="73">
         <v>21</v>
       </c>
       <c r="FV6" s="12">
@@ -3020,10 +3020,10 @@
       <c r="FZ6" s="12">
         <v>26</v>
       </c>
-      <c r="GA6" s="87">
+      <c r="GA6" s="81">
         <v>27</v>
       </c>
-      <c r="GB6" s="79">
+      <c r="GB6" s="73">
         <v>28</v>
       </c>
       <c r="GC6" s="12">
@@ -3041,10 +3041,10 @@
       <c r="GG6" s="12">
         <v>2</v>
       </c>
-      <c r="GH6" s="87">
+      <c r="GH6" s="81">
         <v>3</v>
       </c>
-      <c r="GI6" s="80">
+      <c r="GI6" s="74">
         <v>4</v>
       </c>
       <c r="GJ6" s="11">
@@ -3062,10 +3062,10 @@
       <c r="GN6" s="11">
         <v>9</v>
       </c>
-      <c r="GO6" s="87">
+      <c r="GO6" s="81">
         <v>10</v>
       </c>
-      <c r="GP6" s="77">
+      <c r="GP6" s="71">
         <v>11</v>
       </c>
       <c r="GQ6" s="12">
@@ -3083,10 +3083,10 @@
       <c r="GU6" s="12">
         <v>16</v>
       </c>
-      <c r="GV6" s="77">
+      <c r="GV6" s="71">
         <v>17</v>
       </c>
-      <c r="GW6" s="80">
+      <c r="GW6" s="74">
         <v>18</v>
       </c>
       <c r="GX6" s="11">
@@ -3104,10 +3104,10 @@
       <c r="HB6" s="11">
         <v>23</v>
       </c>
-      <c r="HC6" s="87">
+      <c r="HC6" s="81">
         <v>24</v>
       </c>
-      <c r="HD6" s="79">
+      <c r="HD6" s="73">
         <v>25</v>
       </c>
       <c r="HE6" s="12">
@@ -3125,7 +3125,7 @@
       <c r="HI6" s="12">
         <v>30</v>
       </c>
-      <c r="HJ6" s="87">
+      <c r="HJ6" s="81">
         <v>31</v>
       </c>
     </row>
@@ -3375,15 +3375,15 @@
     <row r="8" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71" t="s">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="52"/>
-      <c r="G8" s="72">
+      <c r="G8" s="85">
         <v>0</v>
       </c>
       <c r="H8" s="60"/>
@@ -3622,11 +3622,11 @@
     <row r="9" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="52"/>
-      <c r="G9" s="72"/>
+      <c r="G9" s="85"/>
       <c r="H9" s="60"/>
       <c r="I9" s="61"/>
       <c r="J9" s="61"/>
@@ -3676,7 +3676,7 @@
       <c r="BC9" s="61"/>
       <c r="BD9" s="66"/>
       <c r="BE9" s="67"/>
-      <c r="BF9" s="81"/>
+      <c r="BF9" s="75"/>
       <c r="BG9" s="67"/>
       <c r="BH9" s="66"/>
       <c r="BI9" s="61"/>
@@ -3863,15 +3863,15 @@
     <row r="10" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73" t="s">
+      <c r="D10" s="88"/>
+      <c r="E10" s="88" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="51"/>
-      <c r="G10" s="74">
+      <c r="G10" s="86">
         <v>0</v>
       </c>
       <c r="H10" s="60"/>
@@ -4110,11 +4110,11 @@
     <row r="11" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="51"/>
-      <c r="G11" s="74"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
@@ -4351,15 +4351,15 @@
     <row r="12" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71" t="s">
+      <c r="D12" s="84"/>
+      <c r="E12" s="84" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="52"/>
-      <c r="G12" s="72">
+      <c r="G12" s="85">
         <v>1</v>
       </c>
       <c r="H12" s="60"/>
@@ -4598,11 +4598,11 @@
     <row r="13" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
       <c r="F13" s="52"/>
-      <c r="G13" s="72"/>
+      <c r="G13" s="85"/>
       <c r="H13" s="60"/>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
@@ -4839,15 +4839,15 @@
     <row r="14" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="48"/>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73" t="s">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="51"/>
-      <c r="G14" s="74">
+      <c r="G14" s="86">
         <v>0</v>
       </c>
       <c r="H14" s="60"/>
@@ -5086,11 +5086,11 @@
     <row r="15" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="48"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="51"/>
-      <c r="G15" s="74"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="60"/>
       <c r="I15" s="61"/>
       <c r="J15" s="61"/>
@@ -5327,15 +5327,15 @@
     <row r="16" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="84" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="52"/>
-      <c r="G16" s="72">
+      <c r="G16" s="85">
         <v>0</v>
       </c>
       <c r="H16" s="60"/>
@@ -5574,11 +5574,11 @@
     <row r="17" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="52"/>
-      <c r="G17" s="72"/>
+      <c r="G17" s="85"/>
       <c r="H17" s="60"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -5815,15 +5815,15 @@
     <row r="18" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73" t="s">
+      <c r="D18" s="88"/>
+      <c r="E18" s="88" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="51"/>
-      <c r="G18" s="74">
+      <c r="G18" s="86">
         <v>1</v>
       </c>
       <c r="H18" s="60"/>
@@ -6062,11 +6062,11 @@
     <row r="19" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="51"/>
-      <c r="G19" s="74"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="60"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -6547,13 +6547,13 @@
     <row r="21" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="71"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="72">
+      <c r="G21" s="85">
         <v>0</v>
       </c>
       <c r="H21" s="60"/>
@@ -6793,11 +6793,11 @@
     <row r="22" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="72"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="60"/>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
@@ -7035,13 +7035,13 @@
     <row r="23" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="73"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="74">
+      <c r="G23" s="86">
         <v>0</v>
       </c>
       <c r="H23" s="60"/>
@@ -7281,11 +7281,11 @@
     <row r="24" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
-      <c r="G24" s="74"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="60"/>
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
@@ -8010,12 +8010,12 @@
       <c r="A27" s="48"/>
       <c r="B27" s="48"/>
       <c r="C27" s="59"/>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
-      <c r="G27" s="74">
+      <c r="G27" s="86">
         <v>0</v>
       </c>
       <c r="H27" s="60"/>
@@ -8255,10 +8255,10 @@
       <c r="A28" s="48"/>
       <c r="B28" s="48"/>
       <c r="C28" s="59"/>
-      <c r="D28" s="73"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
-      <c r="G28" s="74"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="60"/>
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
@@ -8496,12 +8496,12 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="53"/>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="84" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="72">
+      <c r="G29" s="85">
         <v>0</v>
       </c>
       <c r="H29" s="60"/>
@@ -8741,10 +8741,10 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="53"/>
-      <c r="D30" s="71"/>
+      <c r="D30" s="84"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="72"/>
+      <c r="G30" s="85"/>
       <c r="H30" s="60"/>
       <c r="I30" s="61"/>
       <c r="J30" s="61"/>
@@ -8982,12 +8982,12 @@
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
       <c r="C31" s="59"/>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
-      <c r="G31" s="74">
+      <c r="G31" s="86">
         <v>0</v>
       </c>
       <c r="H31" s="60"/>
@@ -9227,10 +9227,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
       <c r="C32" s="59"/>
-      <c r="D32" s="73"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
-      <c r="G32" s="74"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="60"/>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
@@ -9468,12 +9468,12 @@
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="53"/>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="84" t="s">
         <v>32</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="72">
+      <c r="G33" s="85">
         <v>0</v>
       </c>
       <c r="H33" s="60"/>
@@ -9713,10 +9713,10 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="53"/>
-      <c r="D34" s="71"/>
+      <c r="D34" s="84"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="72"/>
+      <c r="G34" s="85"/>
       <c r="H34" s="60"/>
       <c r="I34" s="61"/>
       <c r="J34" s="61"/>
@@ -9954,12 +9954,12 @@
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
       <c r="C35" s="59"/>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
-      <c r="G35" s="74">
+      <c r="G35" s="86">
         <v>0</v>
       </c>
       <c r="H35" s="60"/>
@@ -10199,10 +10199,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
       <c r="C36" s="59"/>
-      <c r="D36" s="73"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
-      <c r="G36" s="74"/>
+      <c r="G36" s="86"/>
       <c r="H36" s="60"/>
       <c r="I36" s="61"/>
       <c r="J36" s="61"/>
@@ -10440,12 +10440,12 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="53"/>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="84" t="s">
         <v>32</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="72">
+      <c r="G37" s="85">
         <v>0</v>
       </c>
       <c r="H37" s="60"/>
@@ -10685,10 +10685,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="53"/>
-      <c r="D38" s="71"/>
+      <c r="D38" s="84"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="72"/>
+      <c r="G38" s="85"/>
       <c r="H38" s="60"/>
       <c r="I38" s="61"/>
       <c r="J38" s="61"/>
@@ -10926,12 +10926,12 @@
       <c r="A39" s="48"/>
       <c r="B39" s="48"/>
       <c r="C39" s="59"/>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
-      <c r="G39" s="74">
+      <c r="G39" s="86">
         <v>0</v>
       </c>
       <c r="H39" s="60"/>
@@ -11171,10 +11171,10 @@
       <c r="A40" s="48"/>
       <c r="B40" s="48"/>
       <c r="C40" s="59"/>
-      <c r="D40" s="73"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
-      <c r="G40" s="74"/>
+      <c r="G40" s="86"/>
       <c r="H40" s="60"/>
       <c r="I40" s="61"/>
       <c r="J40" s="61"/>
@@ -11412,12 +11412,12 @@
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="53"/>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="84" t="s">
         <v>32</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="72">
+      <c r="G41" s="85">
         <v>0</v>
       </c>
       <c r="H41" s="60"/>
@@ -11657,10 +11657,10 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="53"/>
-      <c r="D42" s="71"/>
+      <c r="D42" s="84"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="72"/>
+      <c r="G42" s="85"/>
       <c r="H42" s="60"/>
       <c r="I42" s="61"/>
       <c r="J42" s="61"/>
@@ -11898,12 +11898,12 @@
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="59"/>
-      <c r="D43" s="73" t="s">
+      <c r="D43" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
-      <c r="G43" s="74">
+      <c r="G43" s="86">
         <v>0</v>
       </c>
       <c r="H43" s="60"/>
@@ -12143,10 +12143,10 @@
       <c r="A44" s="48"/>
       <c r="B44" s="48"/>
       <c r="C44" s="59"/>
-      <c r="D44" s="73"/>
+      <c r="D44" s="88"/>
       <c r="E44" s="48"/>
       <c r="F44" s="48"/>
-      <c r="G44" s="74"/>
+      <c r="G44" s="86"/>
       <c r="H44" s="60"/>
       <c r="I44" s="61"/>
       <c r="J44" s="61"/>
@@ -12384,12 +12384,12 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="53"/>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="84" t="s">
         <v>32</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="72">
+      <c r="G45" s="85">
         <v>0</v>
       </c>
       <c r="H45" s="60"/>
@@ -12629,10 +12629,10 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="53"/>
-      <c r="D46" s="71"/>
+      <c r="D46" s="84"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="72"/>
+      <c r="G46" s="85"/>
       <c r="H46" s="60"/>
       <c r="I46" s="61"/>
       <c r="J46" s="61"/>
@@ -12870,12 +12870,12 @@
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="59"/>
-      <c r="D47" s="73" t="s">
+      <c r="D47" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
-      <c r="G47" s="74">
+      <c r="G47" s="86">
         <v>0</v>
       </c>
       <c r="H47" s="60"/>
@@ -13115,10 +13115,10 @@
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
       <c r="C48" s="59"/>
-      <c r="D48" s="73"/>
+      <c r="D48" s="88"/>
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
-      <c r="G48" s="74"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="60"/>
       <c r="I48" s="61"/>
       <c r="J48" s="61"/>
@@ -13356,12 +13356,12 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="53"/>
-      <c r="D49" s="71" t="s">
+      <c r="D49" s="84" t="s">
         <v>32</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="72">
+      <c r="G49" s="85">
         <v>0</v>
       </c>
       <c r="H49" s="60"/>
@@ -13601,10 +13601,10 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="53"/>
-      <c r="D50" s="71"/>
+      <c r="D50" s="84"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="72"/>
+      <c r="G50" s="85"/>
       <c r="H50" s="60"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -13842,12 +13842,12 @@
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="59"/>
-      <c r="D51" s="73" t="s">
+      <c r="D51" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
-      <c r="G51" s="74">
+      <c r="G51" s="86">
         <v>0</v>
       </c>
       <c r="H51" s="60"/>
@@ -14087,10 +14087,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="48"/>
       <c r="C52" s="59"/>
-      <c r="D52" s="73"/>
+      <c r="D52" s="88"/>
       <c r="E52" s="48"/>
       <c r="F52" s="48"/>
-      <c r="G52" s="74"/>
+      <c r="G52" s="86"/>
       <c r="H52" s="60"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -14327,13 +14327,13 @@
     <row r="53" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="76" t="s">
+      <c r="C53" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="76"/>
+      <c r="D53" s="89"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="72">
+      <c r="G53" s="85">
         <v>0</v>
       </c>
       <c r="H53" s="60"/>
@@ -14572,11 +14572,11 @@
     <row r="54" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="72"/>
+      <c r="G54" s="85"/>
       <c r="H54" s="60"/>
       <c r="I54" s="61"/>
       <c r="J54" s="61"/>
@@ -14813,13 +14813,13 @@
     <row r="55" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="75"/>
+      <c r="D55" s="87"/>
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
-      <c r="G55" s="74">
+      <c r="G55" s="86">
         <v>0</v>
       </c>
       <c r="H55" s="60"/>
@@ -15058,11 +15058,11 @@
     <row r="56" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
       <c r="E56" s="48"/>
       <c r="F56" s="48"/>
-      <c r="G56" s="74"/>
+      <c r="G56" s="86"/>
       <c r="H56" s="60"/>
       <c r="I56" s="61"/>
       <c r="J56" s="61"/>
@@ -15542,13 +15542,13 @@
     <row r="58" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="71"/>
+      <c r="D58" s="84"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="72">
+      <c r="G58" s="85">
         <v>0</v>
       </c>
       <c r="H58" s="60"/>
@@ -15787,11 +15787,11 @@
     <row r="59" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="72"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="60"/>
       <c r="I59" s="61"/>
       <c r="J59" s="61"/>
@@ -16028,13 +16028,13 @@
     <row r="60" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
-      <c r="C60" s="73" t="s">
+      <c r="C60" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="73"/>
+      <c r="D60" s="88"/>
       <c r="E60" s="48"/>
       <c r="F60" s="48"/>
-      <c r="G60" s="74">
+      <c r="G60" s="86">
         <v>0</v>
       </c>
       <c r="H60" s="60"/>
@@ -16273,11 +16273,11 @@
     <row r="61" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
       <c r="E61" s="48"/>
       <c r="F61" s="48"/>
-      <c r="G61" s="74"/>
+      <c r="G61" s="86"/>
       <c r="H61" s="60"/>
       <c r="I61" s="61"/>
       <c r="J61" s="61"/>
@@ -16757,13 +16757,13 @@
     <row r="63" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="71"/>
+      <c r="D63" s="84"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="72">
+      <c r="G63" s="85">
         <v>0</v>
       </c>
       <c r="H63" s="60"/>
@@ -17002,11 +17002,11 @@
     <row r="64" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="72"/>
+      <c r="G64" s="85"/>
       <c r="H64" s="60"/>
       <c r="I64" s="61"/>
       <c r="J64" s="61"/>
@@ -17242,6 +17242,55 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G63:G64"/>
     <mergeCell ref="C63:D64"/>
     <mergeCell ref="G53:G54"/>
     <mergeCell ref="G55:G56"/>
@@ -17251,55 +17300,6 @@
     <mergeCell ref="C58:D59"/>
     <mergeCell ref="C60:D61"/>
     <mergeCell ref="C53:D54"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="G8">
     <cfRule type="dataBar" priority="27">

--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -290,6 +290,78 @@
           </rPr>
           <t xml:space="preserve">
 HUT RI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Telat Dikarenakan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dibutuhkan lebih banyak referensi dalam pencarian template</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Telat Dikarenakan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dibutuhkan lebih banyak referensi dalam pencarian template</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Telat Dikarenakan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proses pembuatan yang membutuhkan lebih banyak waktu agar hasil sempurna.</t>
         </r>
       </text>
     </comment>
@@ -960,13 +1032,13 @@
     <xf numFmtId="9" fontId="14" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="14" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1306,10 +1378,10 @@
   <dimension ref="A1:IF64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="H16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="HK5" sqref="HK5"/>
+      <selection pane="bottomRight" activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,7 +3456,7 @@
       </c>
       <c r="F8" s="52"/>
       <c r="G8" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="60"/>
       <c r="I8" s="61"/>
@@ -3635,15 +3707,15 @@
       <c r="M9" s="67"/>
       <c r="N9" s="66"/>
       <c r="O9" s="67"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="66"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="65"/>
       <c r="Y9" s="61"/>
       <c r="Z9" s="61"/>
       <c r="AA9" s="61"/>
@@ -3863,16 +3935,16 @@
     <row r="10" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88" t="s">
+      <c r="D10" s="86"/>
+      <c r="E10" s="86" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="51"/>
-      <c r="G10" s="86">
-        <v>0</v>
+      <c r="G10" s="87">
+        <v>1</v>
       </c>
       <c r="H10" s="60"/>
       <c r="I10" s="61"/>
@@ -4110,11 +4182,11 @@
     <row r="11" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="51"/>
-      <c r="G11" s="86"/>
+      <c r="G11" s="87"/>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
@@ -4123,15 +4195,15 @@
       <c r="M11" s="67"/>
       <c r="N11" s="66"/>
       <c r="O11" s="67"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="66"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="65"/>
       <c r="Y11" s="61"/>
       <c r="Z11" s="61"/>
       <c r="AA11" s="61"/>
@@ -4839,15 +4911,15 @@
     <row r="14" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="48"/>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88" t="s">
+      <c r="D14" s="86"/>
+      <c r="E14" s="86" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="51"/>
-      <c r="G14" s="86">
+      <c r="G14" s="87">
         <v>0</v>
       </c>
       <c r="H14" s="60"/>
@@ -5086,11 +5158,11 @@
     <row r="15" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="48"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="51"/>
-      <c r="G15" s="86"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="60"/>
       <c r="I15" s="61"/>
       <c r="J15" s="61"/>
@@ -5099,15 +5171,15 @@
       <c r="M15" s="67"/>
       <c r="N15" s="66"/>
       <c r="O15" s="67"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="66"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="65"/>
       <c r="Y15" s="61"/>
       <c r="Z15" s="61"/>
       <c r="AA15" s="61"/>
@@ -5815,15 +5887,15 @@
     <row r="18" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88" t="s">
+      <c r="D18" s="86"/>
+      <c r="E18" s="86" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="51"/>
-      <c r="G18" s="86">
+      <c r="G18" s="87">
         <v>1</v>
       </c>
       <c r="H18" s="60"/>
@@ -6062,11 +6134,11 @@
     <row r="19" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
       <c r="F19" s="51"/>
-      <c r="G19" s="86"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="60"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -7035,13 +7107,13 @@
     <row r="23" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="86">
+      <c r="G23" s="87">
         <v>0</v>
       </c>
       <c r="H23" s="60"/>
@@ -7281,11 +7353,11 @@
     <row r="24" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
-      <c r="G24" s="86"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="60"/>
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
@@ -8010,12 +8082,12 @@
       <c r="A27" s="48"/>
       <c r="B27" s="48"/>
       <c r="C27" s="59"/>
-      <c r="D27" s="88" t="s">
+      <c r="D27" s="86" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
-      <c r="G27" s="86">
+      <c r="G27" s="87">
         <v>0</v>
       </c>
       <c r="H27" s="60"/>
@@ -8255,10 +8327,10 @@
       <c r="A28" s="48"/>
       <c r="B28" s="48"/>
       <c r="C28" s="59"/>
-      <c r="D28" s="88"/>
+      <c r="D28" s="86"/>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
-      <c r="G28" s="86"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="60"/>
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
@@ -8982,12 +9054,12 @@
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
       <c r="C31" s="59"/>
-      <c r="D31" s="88" t="s">
+      <c r="D31" s="86" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
-      <c r="G31" s="86">
+      <c r="G31" s="87">
         <v>0</v>
       </c>
       <c r="H31" s="60"/>
@@ -9227,10 +9299,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
       <c r="C32" s="59"/>
-      <c r="D32" s="88"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
-      <c r="G32" s="86"/>
+      <c r="G32" s="87"/>
       <c r="H32" s="60"/>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
@@ -9954,12 +10026,12 @@
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
       <c r="C35" s="59"/>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="86" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
-      <c r="G35" s="86">
+      <c r="G35" s="87">
         <v>0</v>
       </c>
       <c r="H35" s="60"/>
@@ -10199,10 +10271,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
       <c r="C36" s="59"/>
-      <c r="D36" s="88"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
-      <c r="G36" s="86"/>
+      <c r="G36" s="87"/>
       <c r="H36" s="60"/>
       <c r="I36" s="61"/>
       <c r="J36" s="61"/>
@@ -10926,12 +10998,12 @@
       <c r="A39" s="48"/>
       <c r="B39" s="48"/>
       <c r="C39" s="59"/>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="86" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
-      <c r="G39" s="86">
+      <c r="G39" s="87">
         <v>0</v>
       </c>
       <c r="H39" s="60"/>
@@ -11171,10 +11243,10 @@
       <c r="A40" s="48"/>
       <c r="B40" s="48"/>
       <c r="C40" s="59"/>
-      <c r="D40" s="88"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
-      <c r="G40" s="86"/>
+      <c r="G40" s="87"/>
       <c r="H40" s="60"/>
       <c r="I40" s="61"/>
       <c r="J40" s="61"/>
@@ -11898,12 +11970,12 @@
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="59"/>
-      <c r="D43" s="88" t="s">
+      <c r="D43" s="86" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
-      <c r="G43" s="86">
+      <c r="G43" s="87">
         <v>0</v>
       </c>
       <c r="H43" s="60"/>
@@ -12143,10 +12215,10 @@
       <c r="A44" s="48"/>
       <c r="B44" s="48"/>
       <c r="C44" s="59"/>
-      <c r="D44" s="88"/>
+      <c r="D44" s="86"/>
       <c r="E44" s="48"/>
       <c r="F44" s="48"/>
-      <c r="G44" s="86"/>
+      <c r="G44" s="87"/>
       <c r="H44" s="60"/>
       <c r="I44" s="61"/>
       <c r="J44" s="61"/>
@@ -12870,12 +12942,12 @@
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="59"/>
-      <c r="D47" s="88" t="s">
+      <c r="D47" s="86" t="s">
         <v>32</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
-      <c r="G47" s="86">
+      <c r="G47" s="87">
         <v>0</v>
       </c>
       <c r="H47" s="60"/>
@@ -13115,10 +13187,10 @@
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
       <c r="C48" s="59"/>
-      <c r="D48" s="88"/>
+      <c r="D48" s="86"/>
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
-      <c r="G48" s="86"/>
+      <c r="G48" s="87"/>
       <c r="H48" s="60"/>
       <c r="I48" s="61"/>
       <c r="J48" s="61"/>
@@ -13842,12 +13914,12 @@
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="59"/>
-      <c r="D51" s="88" t="s">
+      <c r="D51" s="86" t="s">
         <v>32</v>
       </c>
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
-      <c r="G51" s="86">
+      <c r="G51" s="87">
         <v>0</v>
       </c>
       <c r="H51" s="60"/>
@@ -14087,10 +14159,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="48"/>
       <c r="C52" s="59"/>
-      <c r="D52" s="88"/>
+      <c r="D52" s="86"/>
       <c r="E52" s="48"/>
       <c r="F52" s="48"/>
-      <c r="G52" s="86"/>
+      <c r="G52" s="87"/>
       <c r="H52" s="60"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -14813,13 +14885,13 @@
     <row r="55" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
-      <c r="C55" s="87" t="s">
+      <c r="C55" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="87"/>
+      <c r="D55" s="88"/>
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
-      <c r="G55" s="86">
+      <c r="G55" s="87">
         <v>0</v>
       </c>
       <c r="H55" s="60"/>
@@ -15058,11 +15130,11 @@
     <row r="56" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="88"/>
       <c r="E56" s="48"/>
       <c r="F56" s="48"/>
-      <c r="G56" s="86"/>
+      <c r="G56" s="87"/>
       <c r="H56" s="60"/>
       <c r="I56" s="61"/>
       <c r="J56" s="61"/>
@@ -16028,13 +16100,13 @@
     <row r="60" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
-      <c r="C60" s="88" t="s">
+      <c r="C60" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="88"/>
+      <c r="D60" s="86"/>
       <c r="E60" s="48"/>
       <c r="F60" s="48"/>
-      <c r="G60" s="86">
+      <c r="G60" s="87">
         <v>0</v>
       </c>
       <c r="H60" s="60"/>
@@ -16273,11 +16345,11 @@
     <row r="61" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
       <c r="E61" s="48"/>
       <c r="F61" s="48"/>
-      <c r="G61" s="86"/>
+      <c r="G61" s="87"/>
       <c r="H61" s="60"/>
       <c r="I61" s="61"/>
       <c r="J61" s="61"/>
@@ -17242,22 +17314,39 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="D49:D50"/>
@@ -17267,39 +17356,22 @@
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D43:D44"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="G8">
     <cfRule type="dataBar" priority="27">

--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -1032,13 +1032,13 @@
     <xf numFmtId="9" fontId="14" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1377,11 +1377,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IF64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="H16" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AI13" sqref="AI13"/>
+      <selection pane="bottomRight" activeCell="AP71" sqref="AP71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,15 +3935,15 @@
     <row r="10" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="88"/>
+      <c r="E10" s="88" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="51"/>
-      <c r="G10" s="87">
+      <c r="G10" s="86">
         <v>1</v>
       </c>
       <c r="H10" s="60"/>
@@ -4182,11 +4182,11 @@
     <row r="11" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="51"/>
-      <c r="G11" s="87"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
@@ -4911,15 +4911,15 @@
     <row r="14" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="48"/>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86" t="s">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="51"/>
-      <c r="G14" s="87">
+      <c r="G14" s="86">
         <v>0</v>
       </c>
       <c r="H14" s="60"/>
@@ -5158,11 +5158,11 @@
     <row r="15" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="48"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="51"/>
-      <c r="G15" s="87"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="60"/>
       <c r="I15" s="61"/>
       <c r="J15" s="61"/>
@@ -5887,15 +5887,15 @@
     <row r="18" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86" t="s">
+      <c r="D18" s="88"/>
+      <c r="E18" s="88" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="51"/>
-      <c r="G18" s="87">
+      <c r="G18" s="86">
         <v>1</v>
       </c>
       <c r="H18" s="60"/>
@@ -6134,11 +6134,11 @@
     <row r="19" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="51"/>
-      <c r="G19" s="87"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="60"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -7107,13 +7107,13 @@
     <row r="23" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="86"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="87">
+      <c r="G23" s="86">
         <v>0</v>
       </c>
       <c r="H23" s="60"/>
@@ -7353,11 +7353,11 @@
     <row r="24" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="60"/>
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
@@ -8082,12 +8082,12 @@
       <c r="A27" s="48"/>
       <c r="B27" s="48"/>
       <c r="C27" s="59"/>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
-      <c r="G27" s="87">
+      <c r="G27" s="86">
         <v>0</v>
       </c>
       <c r="H27" s="60"/>
@@ -8327,10 +8327,10 @@
       <c r="A28" s="48"/>
       <c r="B28" s="48"/>
       <c r="C28" s="59"/>
-      <c r="D28" s="86"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
-      <c r="G28" s="87"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="60"/>
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
@@ -9054,12 +9054,12 @@
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
       <c r="C31" s="59"/>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
-      <c r="G31" s="87">
+      <c r="G31" s="86">
         <v>0</v>
       </c>
       <c r="H31" s="60"/>
@@ -9299,10 +9299,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
       <c r="C32" s="59"/>
-      <c r="D32" s="86"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
-      <c r="G32" s="87"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="60"/>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
@@ -10026,12 +10026,12 @@
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
       <c r="C35" s="59"/>
-      <c r="D35" s="86" t="s">
+      <c r="D35" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
-      <c r="G35" s="87">
+      <c r="G35" s="86">
         <v>0</v>
       </c>
       <c r="H35" s="60"/>
@@ -10271,10 +10271,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
       <c r="C36" s="59"/>
-      <c r="D36" s="86"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
-      <c r="G36" s="87"/>
+      <c r="G36" s="86"/>
       <c r="H36" s="60"/>
       <c r="I36" s="61"/>
       <c r="J36" s="61"/>
@@ -10998,12 +10998,12 @@
       <c r="A39" s="48"/>
       <c r="B39" s="48"/>
       <c r="C39" s="59"/>
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
-      <c r="G39" s="87">
+      <c r="G39" s="86">
         <v>0</v>
       </c>
       <c r="H39" s="60"/>
@@ -11243,10 +11243,10 @@
       <c r="A40" s="48"/>
       <c r="B40" s="48"/>
       <c r="C40" s="59"/>
-      <c r="D40" s="86"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
-      <c r="G40" s="87"/>
+      <c r="G40" s="86"/>
       <c r="H40" s="60"/>
       <c r="I40" s="61"/>
       <c r="J40" s="61"/>
@@ -11970,12 +11970,12 @@
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="59"/>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
-      <c r="G43" s="87">
+      <c r="G43" s="86">
         <v>0</v>
       </c>
       <c r="H43" s="60"/>
@@ -12215,10 +12215,10 @@
       <c r="A44" s="48"/>
       <c r="B44" s="48"/>
       <c r="C44" s="59"/>
-      <c r="D44" s="86"/>
+      <c r="D44" s="88"/>
       <c r="E44" s="48"/>
       <c r="F44" s="48"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
       <c r="H44" s="60"/>
       <c r="I44" s="61"/>
       <c r="J44" s="61"/>
@@ -12942,12 +12942,12 @@
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="59"/>
-      <c r="D47" s="86" t="s">
+      <c r="D47" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
-      <c r="G47" s="87">
+      <c r="G47" s="86">
         <v>0</v>
       </c>
       <c r="H47" s="60"/>
@@ -13187,10 +13187,10 @@
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
       <c r="C48" s="59"/>
-      <c r="D48" s="86"/>
+      <c r="D48" s="88"/>
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
-      <c r="G48" s="87"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="60"/>
       <c r="I48" s="61"/>
       <c r="J48" s="61"/>
@@ -13914,12 +13914,12 @@
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="59"/>
-      <c r="D51" s="86" t="s">
+      <c r="D51" s="88" t="s">
         <v>32</v>
       </c>
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
-      <c r="G51" s="87">
+      <c r="G51" s="86">
         <v>0</v>
       </c>
       <c r="H51" s="60"/>
@@ -14159,10 +14159,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="48"/>
       <c r="C52" s="59"/>
-      <c r="D52" s="86"/>
+      <c r="D52" s="88"/>
       <c r="E52" s="48"/>
       <c r="F52" s="48"/>
-      <c r="G52" s="87"/>
+      <c r="G52" s="86"/>
       <c r="H52" s="60"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -14885,13 +14885,13 @@
     <row r="55" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="88"/>
+      <c r="D55" s="87"/>
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
-      <c r="G55" s="87">
+      <c r="G55" s="86">
         <v>0</v>
       </c>
       <c r="H55" s="60"/>
@@ -15130,11 +15130,11 @@
     <row r="56" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
       <c r="E56" s="48"/>
       <c r="F56" s="48"/>
-      <c r="G56" s="87"/>
+      <c r="G56" s="86"/>
       <c r="H56" s="60"/>
       <c r="I56" s="61"/>
       <c r="J56" s="61"/>
@@ -16100,13 +16100,13 @@
     <row r="60" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
-      <c r="C60" s="86" t="s">
+      <c r="C60" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="86"/>
+      <c r="D60" s="88"/>
       <c r="E60" s="48"/>
       <c r="F60" s="48"/>
-      <c r="G60" s="87">
+      <c r="G60" s="86">
         <v>0</v>
       </c>
       <c r="H60" s="60"/>
@@ -16345,11 +16345,11 @@
     <row r="61" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
       <c r="E61" s="48"/>
       <c r="F61" s="48"/>
-      <c r="G61" s="87"/>
+      <c r="G61" s="86"/>
       <c r="H61" s="60"/>
       <c r="I61" s="61"/>
       <c r="J61" s="61"/>
@@ -17314,6 +17314,55 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G63:G64"/>
     <mergeCell ref="C63:D64"/>
     <mergeCell ref="G53:G54"/>
     <mergeCell ref="G55:G56"/>
@@ -17323,55 +17372,6 @@
     <mergeCell ref="C58:D59"/>
     <mergeCell ref="C60:D61"/>
     <mergeCell ref="C53:D54"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="G8">
     <cfRule type="dataBar" priority="27">
